--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Magdy\Desktop\19_8_NewApproach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MST\MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
     <sheet name="SelectedResults" sheetId="4" r:id="rId2"/>
     <sheet name="Comparisons" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="Atb3" sheetId="7" r:id="rId5"/>
+    <sheet name="Atb3" sheetId="7" r:id="rId4"/>
+    <sheet name="Atb3 Comparison" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="129">
   <si>
     <t>Doc Name</t>
   </si>
@@ -504,1422 +504,6 @@
     </r>
   </si>
   <si>
-    <t>Quran</t>
-  </si>
-  <si>
-    <t>ثُ</t>
-  </si>
-  <si>
-    <t>مَّ</t>
-  </si>
-  <si>
-    <t>تَ</t>
-  </si>
-  <si>
-    <t>وَ</t>
-  </si>
-  <si>
-    <t>لَّ</t>
-  </si>
-  <si>
-    <t>وْ</t>
-  </si>
-  <si>
-    <t>ا</t>
-  </si>
-  <si>
-    <t>عَ</t>
-  </si>
-  <si>
-    <t>نْ</t>
-  </si>
-  <si>
-    <t>هُ</t>
-  </si>
-  <si>
-    <t>قَ</t>
-  </si>
-  <si>
-    <t>لُ</t>
-  </si>
-  <si>
-    <t>و</t>
-  </si>
-  <si>
-    <t>مُ</t>
-  </si>
-  <si>
-    <t>مٌ</t>
-  </si>
-  <si>
-    <t>مَ</t>
-  </si>
-  <si>
-    <t>جْ</t>
-  </si>
-  <si>
-    <t>نُ</t>
-  </si>
-  <si>
-    <t>نٌ</t>
-  </si>
-  <si>
-    <t>يَ</t>
-  </si>
-  <si>
-    <t>كْ</t>
-  </si>
-  <si>
-    <t>سِ</t>
-  </si>
-  <si>
-    <t>بْ</t>
-  </si>
-  <si>
-    <t>خَ</t>
-  </si>
-  <si>
-    <t>طِ</t>
-  </si>
-  <si>
-    <t>ي</t>
-  </si>
-  <si>
-    <t>ئَ</t>
-  </si>
-  <si>
-    <t>ةً</t>
-  </si>
-  <si>
-    <t>أَ</t>
-  </si>
-  <si>
-    <t>إِ</t>
-  </si>
-  <si>
-    <t>ثْ</t>
-  </si>
-  <si>
-    <t>مً</t>
-  </si>
-  <si>
-    <t>رْ</t>
-  </si>
-  <si>
-    <t>مِ</t>
-  </si>
-  <si>
-    <t>بِ</t>
-  </si>
-  <si>
-    <t>هِ</t>
-  </si>
-  <si>
-    <t>بَ</t>
-  </si>
-  <si>
-    <t>رِ</t>
-  </si>
-  <si>
-    <t>ئً</t>
-  </si>
-  <si>
-    <t>فَ</t>
-  </si>
-  <si>
-    <t>دِ</t>
-  </si>
-  <si>
-    <t>حْ</t>
-  </si>
-  <si>
-    <t>لَ</t>
-  </si>
-  <si>
-    <t>بُ</t>
-  </si>
-  <si>
-    <t>هْ</t>
-  </si>
-  <si>
-    <t>نً</t>
-  </si>
-  <si>
-    <t>سْ</t>
-  </si>
-  <si>
-    <t>طَ</t>
-  </si>
-  <si>
-    <t>عُ</t>
-  </si>
-  <si>
-    <t>ظْ</t>
-  </si>
-  <si>
-    <t>هَ</t>
-  </si>
-  <si>
-    <t>رُ</t>
-  </si>
-  <si>
-    <t>نَ</t>
-  </si>
-  <si>
-    <t>قْ</t>
-  </si>
-  <si>
-    <t>بً</t>
-  </si>
-  <si>
-    <t>يُ</t>
-  </si>
-  <si>
-    <t>ضْ</t>
-  </si>
-  <si>
-    <t>لِ</t>
-  </si>
-  <si>
-    <t>ل</t>
-  </si>
-  <si>
-    <t>ذَ</t>
-  </si>
-  <si>
-    <t>مْ</t>
-  </si>
-  <si>
-    <t>فِ</t>
-  </si>
-  <si>
-    <t>طُ</t>
-  </si>
-  <si>
-    <t>غْ</t>
-  </si>
-  <si>
-    <t>نِ</t>
-  </si>
-  <si>
-    <t>عْ</t>
-  </si>
-  <si>
-    <t>ذِ</t>
-  </si>
-  <si>
-    <t>كَ</t>
-  </si>
-  <si>
-    <t>بٍ</t>
-  </si>
-  <si>
-    <t>ى</t>
-  </si>
-  <si>
-    <t>عِ</t>
-  </si>
-  <si>
-    <t>دَ</t>
-  </si>
-  <si>
-    <t>رَ</t>
-  </si>
-  <si>
-    <t>بِّ</t>
-  </si>
-  <si>
-    <t>فٌ</t>
-  </si>
-  <si>
-    <t>يْ</t>
-  </si>
-  <si>
-    <t>زَ</t>
-  </si>
-  <si>
-    <t>حَ</t>
-  </si>
-  <si>
-    <t>دٍ</t>
-  </si>
-  <si>
-    <t>ةٍ</t>
-  </si>
-  <si>
-    <t>تُ</t>
-  </si>
-  <si>
-    <t>يُّ</t>
-  </si>
-  <si>
-    <t>آ</t>
-  </si>
-  <si>
-    <t>تَّ</t>
-  </si>
-  <si>
-    <t>خِ</t>
-  </si>
-  <si>
-    <t>ذُ</t>
-  </si>
-  <si>
-    <t>لْ</t>
-  </si>
-  <si>
-    <t>ءَ</t>
-  </si>
-  <si>
-    <t>دُ</t>
-  </si>
-  <si>
-    <t>ؤْ</t>
-  </si>
-  <si>
-    <t>كُ</t>
-  </si>
-  <si>
-    <t>سُ</t>
-  </si>
-  <si>
-    <t>لِّ</t>
-  </si>
-  <si>
-    <t>شَ</t>
-  </si>
-  <si>
-    <t>طْ</t>
-  </si>
-  <si>
-    <t>جِ</t>
-  </si>
-  <si>
-    <t>لُّ</t>
-  </si>
-  <si>
-    <t>وُ</t>
-  </si>
-  <si>
-    <t>جُ</t>
-  </si>
-  <si>
-    <t>نَّ</t>
-  </si>
-  <si>
-    <t>حُ</t>
-  </si>
-  <si>
-    <t>جَّ</t>
-  </si>
-  <si>
-    <t>ةٌ</t>
-  </si>
-  <si>
-    <t>ظَ</t>
-  </si>
-  <si>
-    <t>خْ</t>
-  </si>
-  <si>
-    <t>أُ</t>
-  </si>
-  <si>
-    <t>تِ</t>
-  </si>
-  <si>
-    <t>سَّ</t>
-  </si>
-  <si>
-    <t>يِّ</t>
-  </si>
-  <si>
-    <t>ضَ</t>
-  </si>
-  <si>
-    <t>أْ</t>
-  </si>
-  <si>
-    <t>شْ</t>
-  </si>
-  <si>
-    <t>دْ</t>
-  </si>
-  <si>
-    <t>جَ</t>
-  </si>
-  <si>
-    <t>تٍ</t>
-  </si>
-  <si>
-    <t>فِّ</t>
-  </si>
-  <si>
-    <t>سَ</t>
-  </si>
-  <si>
-    <t>زً</t>
-  </si>
-  <si>
-    <t>ظِ</t>
-  </si>
-  <si>
-    <t>جً</t>
-  </si>
-  <si>
-    <t>رٌ</t>
-  </si>
-  <si>
-    <t>رَّ</t>
-  </si>
-  <si>
-    <t>زِ</t>
-  </si>
-  <si>
-    <t>قِ</t>
-  </si>
-  <si>
-    <t>دً</t>
-  </si>
-  <si>
-    <t>لٍ</t>
-  </si>
-  <si>
-    <t>ءٌ</t>
-  </si>
-  <si>
-    <t>ؤُ</t>
-  </si>
-  <si>
-    <t>نٍ</t>
-  </si>
-  <si>
-    <t>ظَّ</t>
-  </si>
-  <si>
-    <t>فُ</t>
-  </si>
-  <si>
-    <t>ثَ</t>
-  </si>
-  <si>
-    <t>ضِ</t>
-  </si>
-  <si>
-    <t>زُ</t>
-  </si>
-  <si>
-    <t>كِ</t>
-  </si>
-  <si>
-    <t>صَّ</t>
-  </si>
-  <si>
-    <t>ةَ</t>
-  </si>
-  <si>
-    <t>شُ</t>
-  </si>
-  <si>
-    <t>قُ</t>
-  </si>
-  <si>
-    <t>يَّ</t>
-  </si>
-  <si>
-    <t>ةِ</t>
-  </si>
-  <si>
-    <t>غُ</t>
-  </si>
-  <si>
-    <t>مٍ</t>
-  </si>
-  <si>
-    <t>ئِ</t>
-  </si>
-  <si>
-    <t>ذْ</t>
-  </si>
-  <si>
-    <t>صْ</t>
-  </si>
-  <si>
-    <t>نِّ</t>
-  </si>
-  <si>
-    <t>رً</t>
-  </si>
-  <si>
-    <t>فْ</t>
-  </si>
-  <si>
-    <t>كٌ</t>
-  </si>
-  <si>
-    <t>ذَّ</t>
-  </si>
-  <si>
-    <t>ئْ</t>
-  </si>
-  <si>
-    <t>صِ</t>
-  </si>
-  <si>
-    <t>تْ</t>
-  </si>
-  <si>
-    <t>ةُ</t>
-  </si>
-  <si>
-    <t>دُّ</t>
-  </si>
-  <si>
-    <t>ءُ</t>
-  </si>
-  <si>
-    <t>يِ</t>
-  </si>
-  <si>
-    <t>دَّ</t>
-  </si>
-  <si>
-    <t>ءٍ</t>
-  </si>
-  <si>
-    <t>صَ</t>
-  </si>
-  <si>
-    <t>خُ</t>
-  </si>
-  <si>
-    <t>غَ</t>
-  </si>
-  <si>
-    <t>كَّ</t>
-  </si>
-  <si>
-    <t>شَّ</t>
-  </si>
-  <si>
-    <t>رٍّ</t>
-  </si>
-  <si>
-    <t>ءِ</t>
-  </si>
-  <si>
-    <t>زْ</t>
-  </si>
-  <si>
-    <t>قٌ</t>
-  </si>
-  <si>
-    <t>ثِ</t>
-  </si>
-  <si>
-    <t>طَّ</t>
-  </si>
-  <si>
-    <t>تٌ</t>
-  </si>
-  <si>
-    <t>صُ</t>
-  </si>
-  <si>
-    <t>قُّ</t>
-  </si>
-  <si>
-    <t>هٍ</t>
-  </si>
-  <si>
-    <t>شً</t>
-  </si>
-  <si>
-    <t>وَّ</t>
-  </si>
-  <si>
-    <t>بَّ</t>
-  </si>
-  <si>
-    <t>ءً</t>
-  </si>
-  <si>
-    <t>مٌّ</t>
-  </si>
-  <si>
-    <t>يٌ</t>
-  </si>
-  <si>
-    <t>لٌّ</t>
-  </si>
-  <si>
-    <t>دِّ</t>
-  </si>
-  <si>
-    <t>ثً</t>
-  </si>
-  <si>
-    <t>ضٍ</t>
-  </si>
-  <si>
-    <t>فً</t>
-  </si>
-  <si>
-    <t>ظً</t>
-  </si>
-  <si>
-    <t>ضُ</t>
-  </si>
-  <si>
-    <t>رِّ</t>
-  </si>
-  <si>
-    <t>ذِّ</t>
-  </si>
-  <si>
-    <t>بٌ</t>
-  </si>
-  <si>
-    <t>شِ</t>
-  </si>
-  <si>
-    <t>سِّ</t>
-  </si>
-  <si>
-    <t>لً</t>
-  </si>
-  <si>
-    <t>رٍ</t>
-  </si>
-  <si>
-    <t>كً</t>
-  </si>
-  <si>
-    <t>عٌ</t>
-  </si>
-  <si>
-    <t>زَّ</t>
-  </si>
-  <si>
-    <t>ضً</t>
-  </si>
-  <si>
-    <t>حِ</t>
-  </si>
-  <si>
-    <t>زِّ</t>
-  </si>
-  <si>
-    <t>هٌ</t>
-  </si>
-  <si>
-    <t>ذٍ</t>
-  </si>
-  <si>
-    <t>ثَّ</t>
-  </si>
-  <si>
-    <t>قً</t>
-  </si>
-  <si>
-    <t>خَّ</t>
-  </si>
-  <si>
-    <t>ئُ</t>
-  </si>
-  <si>
-    <t>وِ</t>
-  </si>
-  <si>
-    <t>رُّ</t>
-  </si>
-  <si>
-    <t>عً</t>
-  </si>
-  <si>
-    <t>قٌّ</t>
-  </si>
-  <si>
-    <t>بُّ</t>
-  </si>
-  <si>
-    <t>تً</t>
-  </si>
-  <si>
-    <t>لٌ</t>
-  </si>
-  <si>
-    <t>صِّ</t>
-  </si>
-  <si>
-    <t>يًّ</t>
-  </si>
-  <si>
-    <t>ظُ</t>
-  </si>
-  <si>
-    <t>نُّ</t>
-  </si>
-  <si>
-    <t>قًّ</t>
-  </si>
-  <si>
-    <t>فٍ</t>
-  </si>
-  <si>
-    <t>مِّ</t>
-  </si>
-  <si>
-    <t>صً</t>
-  </si>
-  <si>
-    <t>فَّ</t>
-  </si>
-  <si>
-    <t>قٍ</t>
-  </si>
-  <si>
-    <t>غِ</t>
-  </si>
-  <si>
-    <t>يٌّ</t>
-  </si>
-  <si>
-    <t>دٌ</t>
-  </si>
-  <si>
-    <t>يٍّ</t>
-  </si>
-  <si>
-    <t>سً</t>
-  </si>
-  <si>
-    <t>كٍ</t>
-  </si>
-  <si>
-    <t>سٍ</t>
-  </si>
-  <si>
-    <t>حً</t>
-  </si>
-  <si>
-    <t>تُّ</t>
-  </si>
-  <si>
-    <t>شِّ</t>
-  </si>
-  <si>
-    <t>رًّ</t>
-  </si>
-  <si>
-    <t>قِّ</t>
-  </si>
-  <si>
-    <t>وٌّ</t>
-  </si>
-  <si>
-    <t>صُّ</t>
-  </si>
-  <si>
-    <t>قَّ</t>
-  </si>
-  <si>
-    <t>إٍ</t>
-  </si>
-  <si>
-    <t>بٌّ</t>
-  </si>
-  <si>
-    <t>عٍ</t>
-  </si>
-  <si>
-    <t>لٍّ</t>
-  </si>
-  <si>
-    <t>هً</t>
-  </si>
-  <si>
-    <t>ظٌ</t>
-  </si>
-  <si>
-    <t>ذً</t>
-  </si>
-  <si>
-    <t>سُّ</t>
-  </si>
-  <si>
-    <t>أٌ</t>
-  </si>
-  <si>
-    <t>زٌ</t>
-  </si>
-  <si>
-    <t>وً</t>
-  </si>
-  <si>
-    <t>جًّ</t>
-  </si>
-  <si>
-    <t>ثٍ</t>
-  </si>
-  <si>
-    <t>حٌ</t>
-  </si>
-  <si>
-    <t>غٌ</t>
-  </si>
-  <si>
-    <t>ن</t>
-  </si>
-  <si>
-    <t>كِّ</t>
-  </si>
-  <si>
-    <t>وِّ</t>
-  </si>
-  <si>
-    <t>ح</t>
-  </si>
-  <si>
-    <t>م</t>
-  </si>
-  <si>
-    <t>حٍ</t>
-  </si>
-  <si>
-    <t>هَّ</t>
-  </si>
-  <si>
-    <t>ؤَ</t>
-  </si>
-  <si>
-    <t>طٍ</t>
-  </si>
-  <si>
-    <t>جٌ</t>
-  </si>
-  <si>
-    <t>ظُّ</t>
-  </si>
-  <si>
-    <t>ضُّ</t>
-  </si>
-  <si>
-    <t>ضَّ</t>
-  </si>
-  <si>
-    <t>صٍ</t>
-  </si>
-  <si>
-    <t>طُّ</t>
-  </si>
-  <si>
-    <t>يً</t>
-  </si>
-  <si>
-    <t>بًّ</t>
-  </si>
-  <si>
-    <t>لًّ</t>
-  </si>
-  <si>
-    <t>دًّ</t>
-  </si>
-  <si>
-    <t>رٌّ</t>
-  </si>
-  <si>
-    <t>تِّ</t>
-  </si>
-  <si>
-    <t>طً</t>
-  </si>
-  <si>
-    <t>جِّ</t>
-  </si>
-  <si>
-    <t>جٍ</t>
-  </si>
-  <si>
-    <t>مًّ</t>
-  </si>
-  <si>
-    <t>وًّ</t>
-  </si>
-  <si>
-    <t>فًّ</t>
-  </si>
-  <si>
-    <t>صٌ</t>
-  </si>
-  <si>
-    <t>جُّ</t>
-  </si>
-  <si>
-    <t>زًّ</t>
-  </si>
-  <si>
-    <t>كٍّ</t>
-  </si>
-  <si>
-    <t>ضٌ</t>
-  </si>
-  <si>
-    <t>ؤً</t>
-  </si>
-  <si>
-    <t>خٌ</t>
-  </si>
-  <si>
-    <t>مُّ</t>
-  </si>
-  <si>
-    <t>قٍّ</t>
-  </si>
-  <si>
-    <t>ذُّ</t>
-  </si>
-  <si>
-    <t>طِّ</t>
-  </si>
-  <si>
-    <t>سًّ</t>
-  </si>
-  <si>
-    <t>نٌّ</t>
-  </si>
-  <si>
-    <t>سٌ</t>
-  </si>
-  <si>
-    <t>زُّ</t>
-  </si>
-  <si>
-    <t>وُّ</t>
-  </si>
-  <si>
-    <t>ظِّ</t>
-  </si>
-  <si>
-    <t>ط</t>
-  </si>
-  <si>
-    <t>س</t>
-  </si>
-  <si>
-    <t>فُّ</t>
-  </si>
-  <si>
-    <t>ئٍ</t>
-  </si>
-  <si>
-    <t>ثِّ</t>
-  </si>
-  <si>
-    <t>حِّ</t>
-  </si>
-  <si>
-    <t>ظٍ</t>
-  </si>
-  <si>
-    <t>ضِّ</t>
-  </si>
-  <si>
-    <t>ظًّ</t>
-  </si>
-  <si>
-    <t>شُّ</t>
-  </si>
-  <si>
-    <t>أً</t>
-  </si>
-  <si>
-    <t>ظٍّ</t>
-  </si>
-  <si>
-    <t>حَّ</t>
-  </si>
-  <si>
-    <t>عِّ</t>
-  </si>
-  <si>
-    <t>ثٌ</t>
-  </si>
-  <si>
-    <t>طٌ</t>
-  </si>
-  <si>
-    <t>هِّ</t>
-  </si>
-  <si>
-    <t>ر</t>
-  </si>
-  <si>
-    <t>فٍّ</t>
-  </si>
-  <si>
-    <t>غٍ</t>
-  </si>
-  <si>
-    <t>غً</t>
-  </si>
-  <si>
-    <t>ه</t>
-  </si>
-  <si>
-    <t>عُّ</t>
-  </si>
-  <si>
-    <t>عًّ</t>
-  </si>
-  <si>
-    <t>جٍّ</t>
-  </si>
-  <si>
-    <t>كُّ</t>
-  </si>
-  <si>
-    <t>دٍّ</t>
-  </si>
-  <si>
-    <t>زٍ</t>
-  </si>
-  <si>
-    <t>وٌ</t>
-  </si>
-  <si>
-    <t>شٍ</t>
-  </si>
-  <si>
-    <t>كٌّ</t>
-  </si>
-  <si>
-    <t>خِّ</t>
-  </si>
-  <si>
-    <t>نًّ</t>
-  </si>
-  <si>
-    <t>ثُّ</t>
-  </si>
-  <si>
-    <t>خً</t>
-  </si>
-  <si>
-    <t>عَّ</t>
-  </si>
-  <si>
-    <t>ؤٌ</t>
-  </si>
-  <si>
-    <t>مٍّ</t>
-  </si>
-  <si>
-    <t>ثًّ</t>
-  </si>
-  <si>
-    <t>ك</t>
-  </si>
-  <si>
-    <t>ع</t>
-  </si>
-  <si>
-    <t>ص</t>
-  </si>
-  <si>
-    <t>وٍّ</t>
-  </si>
-  <si>
-    <t>كًّ</t>
-  </si>
-  <si>
-    <t>ق</t>
-  </si>
-  <si>
-    <t>خٍ</t>
-  </si>
-  <si>
-    <t>ذٌ</t>
-  </si>
-  <si>
-    <t>دٌّ</t>
-  </si>
-  <si>
-    <t>بٍّ</t>
-  </si>
-  <si>
-    <t>شٌ</t>
-  </si>
-  <si>
-    <t>ؤِ</t>
-  </si>
-  <si>
-    <t>All Documents</t>
-  </si>
-  <si>
-    <t>ب</t>
-  </si>
-  <si>
-    <t>ت</t>
-  </si>
-  <si>
-    <t>ث</t>
-  </si>
-  <si>
-    <t>ج</t>
-  </si>
-  <si>
-    <t>خ</t>
-  </si>
-  <si>
-    <t>د</t>
-  </si>
-  <si>
-    <t>ذ</t>
-  </si>
-  <si>
-    <t>ز</t>
-  </si>
-  <si>
-    <t>ش</t>
-  </si>
-  <si>
-    <t>ض</t>
-  </si>
-  <si>
-    <t>ظ</t>
-  </si>
-  <si>
-    <t>غ</t>
-  </si>
-  <si>
-    <t>ف</t>
-  </si>
-  <si>
-    <t>ؤ</t>
-  </si>
-  <si>
-    <t>ة</t>
-  </si>
-  <si>
-    <t>ئ</t>
-  </si>
-  <si>
-    <t>ء</t>
-  </si>
-  <si>
-    <t>ىَ</t>
-  </si>
-  <si>
-    <t>آَ</t>
-  </si>
-  <si>
-    <t>ىُ</t>
-  </si>
-  <si>
-    <t>ىِ</t>
-  </si>
-  <si>
-    <t>أِ</t>
-  </si>
-  <si>
-    <t>ىً</t>
-  </si>
-  <si>
-    <t>ىٌ</t>
-  </si>
-  <si>
-    <t>ئٌ</t>
-  </si>
-  <si>
-    <t>اً</t>
-  </si>
-  <si>
-    <t>وٍ</t>
-  </si>
-  <si>
-    <t>ؤٍ</t>
-  </si>
-  <si>
-    <t>يٍ</t>
-  </si>
-  <si>
-    <t>ىٍ</t>
-  </si>
-  <si>
-    <t>ىْ</t>
-  </si>
-  <si>
-    <t>بّ</t>
-  </si>
-  <si>
-    <t>تّ</t>
-  </si>
-  <si>
-    <t>ثّ</t>
-  </si>
-  <si>
-    <t>جّ</t>
-  </si>
-  <si>
-    <t>حّ</t>
-  </si>
-  <si>
-    <t>خّ</t>
-  </si>
-  <si>
-    <t>دّ</t>
-  </si>
-  <si>
-    <t>ذّ</t>
-  </si>
-  <si>
-    <t>رّ</t>
-  </si>
-  <si>
-    <t>زّ</t>
-  </si>
-  <si>
-    <t>سّ</t>
-  </si>
-  <si>
-    <t>شّ</t>
-  </si>
-  <si>
-    <t>صّ</t>
-  </si>
-  <si>
-    <t>ضّ</t>
-  </si>
-  <si>
-    <t>طّ</t>
-  </si>
-  <si>
-    <t>ظّ</t>
-  </si>
-  <si>
-    <t>عّ</t>
-  </si>
-  <si>
-    <t>غّ</t>
-  </si>
-  <si>
-    <t>فّ</t>
-  </si>
-  <si>
-    <t>قّ</t>
-  </si>
-  <si>
-    <t>كّ</t>
-  </si>
-  <si>
-    <t>لّ</t>
-  </si>
-  <si>
-    <t>مّ</t>
-  </si>
-  <si>
-    <t>نّ</t>
-  </si>
-  <si>
-    <t>هّ</t>
-  </si>
-  <si>
-    <t>وّ</t>
-  </si>
-  <si>
-    <t>ؤّ</t>
-  </si>
-  <si>
-    <t>يّ</t>
-  </si>
-  <si>
-    <t>ىّ</t>
-  </si>
-  <si>
-    <t>غَّ</t>
-  </si>
-  <si>
-    <t>ؤَّ</t>
-  </si>
-  <si>
-    <t>ىَّ</t>
-  </si>
-  <si>
-    <t>اّ</t>
-  </si>
-  <si>
-    <t>أَّ</t>
-  </si>
-  <si>
-    <t>حُّ</t>
-  </si>
-  <si>
-    <t>خُّ</t>
-  </si>
-  <si>
-    <t>غُّ</t>
-  </si>
-  <si>
-    <t>هُّ</t>
-  </si>
-  <si>
-    <t>ؤُّ</t>
-  </si>
-  <si>
-    <t>ىُّ</t>
-  </si>
-  <si>
-    <t>غِّ</t>
-  </si>
-  <si>
-    <t>ىِّ</t>
-  </si>
-  <si>
-    <t>تٌّ</t>
-  </si>
-  <si>
-    <t>ثٌّ</t>
-  </si>
-  <si>
-    <t>جٌّ</t>
-  </si>
-  <si>
-    <t>حٌّ</t>
-  </si>
-  <si>
-    <t>خٌّ</t>
-  </si>
-  <si>
-    <t>ذٌّ</t>
-  </si>
-  <si>
-    <t>زٌّ</t>
-  </si>
-  <si>
-    <t>سٌّ</t>
-  </si>
-  <si>
-    <t>شٌّ</t>
-  </si>
-  <si>
-    <t>صٌّ</t>
-  </si>
-  <si>
-    <t>ضٌّ</t>
-  </si>
-  <si>
-    <t>طٌّ</t>
-  </si>
-  <si>
-    <t>ظٌّ</t>
-  </si>
-  <si>
-    <t>عٌّ</t>
-  </si>
-  <si>
-    <t>غٌّ</t>
-  </si>
-  <si>
-    <t>فٌّ</t>
-  </si>
-  <si>
-    <t>هٌّ</t>
-  </si>
-  <si>
-    <t>ؤٌّ</t>
-  </si>
-  <si>
-    <t>ىٌّ</t>
-  </si>
-  <si>
-    <t>تٍّ</t>
-  </si>
-  <si>
-    <t>ثٍّ</t>
-  </si>
-  <si>
-    <t>حٍّ</t>
-  </si>
-  <si>
-    <t>خٍّ</t>
-  </si>
-  <si>
-    <t>ذٍّ</t>
-  </si>
-  <si>
-    <t>زٍّ</t>
-  </si>
-  <si>
-    <t>سٍّ</t>
-  </si>
-  <si>
-    <t>شٍّ</t>
-  </si>
-  <si>
-    <t>صٍّ</t>
-  </si>
-  <si>
-    <t>ضٍّ</t>
-  </si>
-  <si>
-    <t>طٍّ</t>
-  </si>
-  <si>
-    <t>عٍّ</t>
-  </si>
-  <si>
-    <t>غٍّ</t>
-  </si>
-  <si>
-    <t>نٍّ</t>
-  </si>
-  <si>
-    <t>هٍّ</t>
-  </si>
-  <si>
-    <t>ىٍّ</t>
-  </si>
-  <si>
-    <t>تًّ</t>
-  </si>
-  <si>
-    <t>حًّ</t>
-  </si>
-  <si>
-    <t>خًّ</t>
-  </si>
-  <si>
-    <t>ذًّ</t>
-  </si>
-  <si>
-    <t>شًّ</t>
-  </si>
-  <si>
-    <t>صًّ</t>
-  </si>
-  <si>
-    <t>ضًّ</t>
-  </si>
-  <si>
-    <t>طًّ</t>
-  </si>
-  <si>
-    <t>غًّ</t>
-  </si>
-  <si>
-    <t>هًّ</t>
-  </si>
-  <si>
-    <t>ؤًّ</t>
-  </si>
-  <si>
-    <t>ىًّ</t>
-  </si>
-  <si>
-    <t>اًّ</t>
-  </si>
-  <si>
     <t>Review number 18 as it is not correct here</t>
   </si>
   <si>
@@ -1945,13 +529,73 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>DER without Last Letter</t>
+  </si>
+  <si>
+    <t>36 IPS, 2 hidden, 350 nodes, OP 478</t>
+  </si>
+  <si>
+    <t>Sukun + Dictionary</t>
+  </si>
+  <si>
+    <t>Sukun + Fatha + Dictionary</t>
+  </si>
+  <si>
+    <t>Total Number Of Testing Letters</t>
+  </si>
+  <si>
+    <t>Number Of Letters Errors with last letter</t>
+  </si>
+  <si>
+    <t>Number Of Letters Errors without last letter</t>
+  </si>
+  <si>
+    <t>sukun</t>
+  </si>
+  <si>
+    <t>sukun + dictionary</t>
+  </si>
+  <si>
+    <t>sukun + fatha</t>
+  </si>
+  <si>
+    <t>sukun + fatha + dictionary</t>
+  </si>
+  <si>
+    <t>DER Paper</t>
+  </si>
+  <si>
+    <t>2 hidden layers</t>
+  </si>
+  <si>
+    <t>478 output nodes</t>
+  </si>
+  <si>
+    <t>36 Input nodes</t>
+  </si>
+  <si>
+    <t>350 hidden nodes</t>
+  </si>
+  <si>
+    <t>DER ignoring Last Letter</t>
+  </si>
+  <si>
+    <t>DER Paper ignoring Last Letter</t>
+  </si>
+  <si>
+    <t>I have more diacritics and more characters</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1986,12 +630,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2169,7 +807,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2263,18 +901,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2286,33 +920,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Table numbers" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3647,6 +2271,1326 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DER</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-218F-4503-84ED-D4662EEB0F86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-218F-4503-84ED-D4662EEB0F86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-218F-4503-84ED-D4662EEB0F86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1060047983"/>
+        <c:axId val="706508751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1060047983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706508751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="706508751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060047983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DER</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER ignoring Last Letter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$H$2:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1723-4B7F-8C3B-D2E21EDC8512}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER Paper ignoring Last Letter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$H$2:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1723-4B7F-8C3B-D2E21EDC8512}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$H$2:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9999999999999849E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1723-4B7F-8C3B-D2E21EDC8512}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1067399039"/>
+        <c:axId val="1023481711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1067399039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023481711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023481711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067399039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3767,6 +3711,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4774,6 +4798,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5381,6 +6411,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE74B3D-6DF0-4130-81FE-4DC44C4AA6FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C798183F-8281-49C4-ADF1-3121058B6D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5708,10 +6815,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -5760,13 +6867,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5778,9 +6885,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -5861,13 +6968,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5879,9 +6986,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -5962,13 +7069,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5980,9 +7087,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -6069,7 +7176,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6087,7 +7194,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="44"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -6168,13 +7275,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6186,9 +7293,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -6269,13 +7376,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6287,9 +7394,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -6373,13 +7480,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="40" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -6392,9 +7499,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="44"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -6486,13 +7593,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E75" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="40" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -6505,9 +7612,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="44"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -6596,13 +7703,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="44" t="s">
+      <c r="D85" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E85" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6614,9 +7721,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="44"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="44"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="40"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -6705,13 +7812,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="42" t="s">
+      <c r="E96" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6723,9 +7830,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="44"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="44"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -6850,13 +7957,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="44" t="s">
+      <c r="D107" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="44" t="s">
+      <c r="F107" s="40" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -6866,13 +7973,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="44" t="s">
+      <c r="L107" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="42" t="s">
+      <c r="M107" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="44" t="s">
+      <c r="N107" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6884,9 +7991,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="44"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="44"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="40"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -6894,9 +8001,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="44"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="44"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="40"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -7020,13 +8127,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="44" t="s">
+      <c r="D118" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="42" t="s">
+      <c r="E118" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="44" t="s">
+      <c r="F118" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -7039,9 +8146,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="44"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="44"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="40"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -7139,13 +8246,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="44" t="s">
+      <c r="D129" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="42" t="s">
+      <c r="E129" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="44" t="s">
+      <c r="F129" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7157,9 +8264,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="44"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="44"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="40"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -7254,13 +8361,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="44" t="s">
+      <c r="D140" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="42" t="s">
+      <c r="E140" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="44" t="s">
+      <c r="F140" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7272,9 +8379,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="44"/>
-      <c r="E141" s="43"/>
-      <c r="F141" s="44"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="40"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -7366,13 +8473,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="44" t="s">
+      <c r="D151" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="42" t="s">
+      <c r="E151" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="44" t="s">
+      <c r="F151" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7384,9 +8491,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="44"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="44"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="40"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -7481,13 +8588,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="44" t="s">
+      <c r="D162" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="42" t="s">
+      <c r="E162" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="44" t="s">
+      <c r="F162" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -7500,9 +8607,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="44"/>
-      <c r="E163" s="43"/>
-      <c r="F163" s="44"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="40"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -7599,13 +8706,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="44" t="s">
+      <c r="D173" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="42" t="s">
+      <c r="E173" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="44" t="s">
+      <c r="F173" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7617,9 +8724,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="44"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="44"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="40"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -7714,13 +8821,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="44" t="s">
+      <c r="D185" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="42" t="s">
+      <c r="E185" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="44" t="s">
+      <c r="F185" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7732,9 +8839,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="44"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="44"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="40"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -7827,13 +8934,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="44" t="s">
+      <c r="D197" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="42" t="s">
+      <c r="E197" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="44" t="s">
+      <c r="F197" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7845,9 +8952,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="44"/>
-      <c r="E198" s="43"/>
-      <c r="F198" s="44"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="40"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -7945,13 +9052,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="44" t="s">
+      <c r="D210" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="42" t="s">
+      <c r="E210" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="44" t="s">
+      <c r="F210" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7963,9 +9070,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="44"/>
-      <c r="E211" s="43"/>
-      <c r="F211" s="44"/>
+      <c r="D211" s="40"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="40"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -8055,13 +9162,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="44" t="s">
+      <c r="D221" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="42" t="s">
+      <c r="E221" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="44" t="s">
+      <c r="F221" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8073,9 +9180,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="44"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="44"/>
+      <c r="D222" s="40"/>
+      <c r="E222" s="42"/>
+      <c r="F222" s="40"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -8165,13 +9272,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="44" t="s">
+      <c r="D232" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="42" t="s">
+      <c r="E232" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="44" t="s">
+      <c r="F232" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8183,9 +9290,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="44"/>
-      <c r="E233" s="43"/>
-      <c r="F233" s="44"/>
+      <c r="D233" s="40"/>
+      <c r="E233" s="42"/>
+      <c r="F233" s="40"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -8275,13 +9382,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="44" t="s">
+      <c r="D243" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="42" t="s">
+      <c r="E243" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="44" t="s">
+      <c r="F243" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8293,9 +9400,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="44"/>
-      <c r="E244" s="43"/>
-      <c r="F244" s="44"/>
+      <c r="D244" s="40"/>
+      <c r="E244" s="42"/>
+      <c r="F244" s="40"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -8385,13 +9492,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="44" t="s">
+      <c r="D254" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="42" t="s">
+      <c r="E254" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="44" t="s">
+      <c r="F254" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8403,9 +9510,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="44"/>
-      <c r="E255" s="43"/>
-      <c r="F255" s="44"/>
+      <c r="D255" s="40"/>
+      <c r="E255" s="42"/>
+      <c r="F255" s="40"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -8448,21 +9555,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -8479,49 +9614,21 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8553,22 +9660,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8650,13 +9757,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="40" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -8666,13 +9773,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8684,9 +9791,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -8694,9 +9801,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -8856,13 +9963,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="40" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -8872,13 +9979,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8890,9 +9997,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="40"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -8900,9 +10007,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -9062,13 +10169,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="40" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -9078,13 +10185,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9096,9 +10203,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="40"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -9106,9 +10213,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="44"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -9268,13 +10375,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="40" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -9284,13 +10391,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="44" t="s">
+      <c r="L38" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="42" t="s">
+      <c r="M38" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="44" t="s">
+      <c r="N38" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9302,9 +10409,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="40"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -9312,9 +10419,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="44"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="44"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -9398,7 +10505,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="31"/>
-      <c r="G46" s="41"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
@@ -9407,7 +10514,7 @@
       <c r="B47" s="26">
         <v>18</v>
       </c>
-      <c r="G47" s="41"/>
+      <c r="G47" s="39"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
@@ -9422,7 +10529,7 @@
       <c r="E48" s="1">
         <v>330709</v>
       </c>
-      <c r="G48" s="41"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
@@ -9440,7 +10547,7 @@
       <c r="E49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="41"/>
+      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -9450,18 +10557,18 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="41"/>
+      <c r="G50" s="39"/>
       <c r="H50" t="s">
-        <v>572</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -9472,10 +10579,10 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="41"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
@@ -9484,7 +10591,7 @@
       <c r="B52" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="41"/>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
@@ -9493,7 +10600,7 @@
       <c r="B53" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="41"/>
+      <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
@@ -9502,7 +10609,7 @@
       <c r="B54" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="41"/>
+      <c r="G54" s="39"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
@@ -9511,7 +10618,7 @@
       <c r="B55" s="30">
         <v>0</v>
       </c>
-      <c r="G55" s="41"/>
+      <c r="G55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
@@ -9523,10 +10630,10 @@
       <c r="C56" s="22">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G56" s="41"/>
+      <c r="G56" s="39"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G57" s="41"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
@@ -9575,13 +10682,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9593,9 +10700,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="44"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -9640,19 +10747,9 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:E62"/>
@@ -9669,9 +10766,19 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9682,7 +10789,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9701,22 +10808,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="R1" s="47" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="R1" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -9852,34 +10959,34 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>573</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>573</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>574</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>574</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>575</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>576</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>577</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>577</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -9895,3639 +11002,605 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B480"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B467" sqref="B1:B467"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="26">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1">
+        <v>208212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>472</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="29">
+        <f>(B17/E1)*100</f>
+        <v>5.1639674946688956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="29">
+        <f>(B18/E1)*100</f>
+        <v>2.6900466831882892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>211</v>
+      <c r="A17" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="47">
+        <v>10752</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>469</v>
+      <c r="A18" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="47">
+        <v>5601</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>451</v>
+      <c r="A20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="26">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>155</v>
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>371</v>
+      <c r="A22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="29">
+        <f>(B28/E1)*100</f>
+        <v>5.27635294795689</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>291</v>
+      <c r="A23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="29">
+        <f>(B29/E1)*100</f>
+        <v>2.8024321364762841</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>341</v>
+      <c r="A24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>169</v>
+      <c r="A25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>447</v>
+      <c r="A26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>137</v>
+      <c r="A27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>278</v>
+      <c r="A28" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="47">
+        <v>10986</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>312</v>
+      <c r="A29" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="47">
+        <v>5835</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>135</v>
+      <c r="A31" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="26">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>174</v>
+      <c r="A32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>123</v>
+      <c r="A33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="29">
+        <f>(B39/E1)*100</f>
+        <v>4.4051255451174764</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>482</v>
+      <c r="A34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="29">
+        <f>(B40/E1)*100</f>
+        <v>1.8663669721245655</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>465</v>
+      <c r="A35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>128</v>
+      <c r="A36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>203</v>
+      <c r="A37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="30">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>180</v>
+      <c r="A38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>237</v>
+      <c r="A39" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="47">
+        <v>9172</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>241</v>
+      <c r="A40" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="47">
+        <v>3886</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>452</v>
+      <c r="A42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="26">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>313</v>
+      <c r="A43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>559</v>
+      <c r="A44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="29">
+        <f>(B50/E1)*100</f>
+        <v>4.455074635467696</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>272</v>
+      <c r="A45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="29">
+        <f>(B51/E1)*100</f>
+        <v>1.9158357827598793</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>524</v>
+      <c r="A46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>215</v>
+      <c r="A47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>543</v>
+      <c r="A48" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="30">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>103</v>
+      <c r="A49" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>184</v>
+      <c r="A50" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="47">
+        <v>9276</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B62" s="40" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="B64" s="40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="B73" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" s="40" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="B75" s="40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="B76" s="40" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="B78" s="40" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="B80" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B82" s="40" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="B83" s="40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B87" s="40" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="B88" s="40" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="B89" s="40" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="B90" s="40" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="40" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="B92" s="40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" s="40" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="B94" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="40" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="B96" s="40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="B97" s="40" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="B98" s="40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" s="40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="B101" s="40" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B102" s="40" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103" s="40" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="B104" s="40" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="B105" s="40" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B108" s="40" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B109" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="B110" s="40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="B111" s="40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="B112" s="40" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" s="40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="B114" s="40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="B115" s="40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="40" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B118" s="40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B119" s="40" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="B120" s="40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B121" s="40" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="B122" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B123" s="40" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="B125" s="40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="B126" s="40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="B127" s="40" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B128" s="40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="B129" s="40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B132" s="40" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="B133" s="40" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B134" s="40" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="B135" s="40" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="B137" s="40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="B138" s="40" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="B139" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B142" s="40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="B143" s="40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B144" s="40" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B145" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="40" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="B148" s="40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B152" s="40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="B153" s="40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B154" s="40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="B155" s="40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B156" s="40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="B157" s="40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="B158" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="B159" s="40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="B160" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B161" s="40" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="B162" s="40" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="B163" s="40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="B164" s="40" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="B165" s="40" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="B166" s="40" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="B167" s="40" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="B168" s="40" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="B169" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="B170" s="40" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B171" s="40" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="B172" s="40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B173" s="40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="B174" s="40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="B175" s="40" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="B176" s="40" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="B177" s="40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="40" t="s">
-        <v>399</v>
-      </c>
-      <c r="B178" s="40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="B179" s="40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="B180" s="40" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="B181" s="40" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B182" s="40" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="B183" s="40" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B184" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="B185" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B186" s="40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B187" s="40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B188" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B189" s="40" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="B190" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="B191" s="40" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="B192" s="40" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="B193" s="40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B194" s="40" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="B195" s="40" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="B196" s="40" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="B197" s="40" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B198" s="40" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="B199" s="40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B200" s="40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="B201" s="40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="B202" s="40" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="B203" s="40" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B204" s="40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="B205" s="40" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B206" s="40" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="B207" s="40" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B208" s="40" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="B209" s="40" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B210" s="40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="B211" s="40" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B212" s="40" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="B213" s="40" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="B214" s="40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="B215" s="40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="B216" s="40" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B217" s="40" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="B218" s="40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="B219" s="40" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="B220" s="40" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="B221" s="40" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B222" s="40" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="B223" s="40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="B224" s="40" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B225" s="40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="B226" s="40" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="B227" s="40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="B228" s="40" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B229" s="40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B230" s="40" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B231" s="40" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="B232" s="40" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="B233" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="B234" s="40" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B235" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="B236" s="40" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="B237" s="40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="B238" s="40" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B239" s="40" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="B240" s="40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="B241" s="40" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B242" s="40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B243" s="40" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="B244" s="40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B245" s="40" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="B246" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B247" s="40" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="B248" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="B249" s="40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="B250" s="40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="B251" s="40" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="B252" s="40" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B253" s="40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="B254" s="40" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="B255" s="40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="B256" s="40" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B257" s="40" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="B258" s="40" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B259" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B260" s="40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B261" s="40" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="B262" s="40" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B263" s="40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="B264" s="40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="B265" s="40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="B266" s="40" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B267" s="40" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B268" s="40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B269" s="40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B270" s="40" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B271" s="40" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="B272" s="40" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B273" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="B274" s="40" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B275" s="40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="B276" s="40" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="40" t="s">
+      <c r="A51" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B277" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B278" s="40" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B279" s="40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="40" t="s">
-        <v>436</v>
-      </c>
-      <c r="B280" s="40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B281" s="40" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B282" s="40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B283" s="40" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="B284" s="40" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B285" s="40" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="B286" s="40" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B287" s="40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="B288" s="40" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B289" s="40" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="B290" s="40" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B291" s="40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="B292" s="40" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="B293" s="40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B294" s="40" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B295" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B296" s="40" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="B297" s="40" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B298" s="40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B299" s="40" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B300" s="40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="B301" s="40" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="B302" s="40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="B303" s="40" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B304" s="40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B305" s="40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="B306" s="40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B307" s="40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="B308" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="B309" s="40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B310" s="40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B311" s="40" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="B312" s="40" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="B313" s="40" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="B314" s="40" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="B315" s="40" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="B316" s="40" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B317" s="40" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="B318" s="40" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="B319" s="40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="B320" s="40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="B321" s="40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="B322" s="40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B323" s="40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="B324" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="B325" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="B326" s="40" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B327" s="40" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="B328" s="40" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B329" s="40" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B330" s="40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B331" s="40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="B332" s="40" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="B333" s="40" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="B334" s="40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="B335" s="40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="B336" s="40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B337" s="40" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="B338" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B339" s="40" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B340" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="B341" s="40" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B342" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="B343" s="40" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B344" s="40" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="B345" s="40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B346" s="40" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="B347" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B348" s="40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="B349" s="40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="40"/>
-      <c r="B350" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="39"/>
-      <c r="B351" s="40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="39"/>
-      <c r="B352" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="39"/>
-      <c r="B353" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="39"/>
-      <c r="B354" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="39"/>
-      <c r="B355" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="39"/>
-      <c r="B356" s="40" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="39"/>
-      <c r="B357" s="40" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="39"/>
-      <c r="B358" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="39"/>
-      <c r="B359" s="40" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="39"/>
-      <c r="B360" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="39"/>
-      <c r="B361" s="40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="39"/>
-      <c r="B362" s="40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="39"/>
-      <c r="B363" s="40" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="39"/>
-      <c r="B364" s="40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="39"/>
-      <c r="B365" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="39"/>
-      <c r="B366" s="40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="39"/>
-      <c r="B367" s="40" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="39"/>
-      <c r="B368" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="39"/>
-      <c r="B369" s="40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="39"/>
-      <c r="B370" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="39"/>
-      <c r="B371" s="40" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="39"/>
-      <c r="B372" s="40" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="39"/>
-      <c r="B373" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="39"/>
-      <c r="B374" s="40" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="39"/>
-      <c r="B375" s="40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="39"/>
-      <c r="B376" s="40" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="39"/>
-      <c r="B377" s="40" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="39"/>
-      <c r="B378" s="40" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="39"/>
-      <c r="B379" s="40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="39"/>
-      <c r="B380" s="40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="39"/>
-      <c r="B381" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="39"/>
-      <c r="B382" s="40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="39"/>
-      <c r="B383" s="40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="39"/>
-      <c r="B384" s="40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="39"/>
-      <c r="B385" s="40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="39"/>
-      <c r="B386" s="40" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="39"/>
-      <c r="B387" s="40" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="39"/>
-      <c r="B388" s="40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="39"/>
-      <c r="B389" s="40" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="39"/>
-      <c r="B390" s="40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="39"/>
-      <c r="B391" s="40" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="39"/>
-      <c r="B392" s="40" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="39"/>
-      <c r="B393" s="40" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="39"/>
-      <c r="B394" s="40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="39"/>
-      <c r="B395" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="39"/>
-      <c r="B396" s="40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="39"/>
-      <c r="B397" s="40" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="39"/>
-      <c r="B398" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="39"/>
-      <c r="B399" s="40" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="39"/>
-      <c r="B400" s="40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="39"/>
-      <c r="B401" s="40" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="39"/>
-      <c r="B402" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="39"/>
-      <c r="B403" s="40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="39"/>
-      <c r="B404" s="40" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="39"/>
-      <c r="B405" s="40" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="39"/>
-      <c r="B406" s="40" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="39"/>
-      <c r="B407" s="40" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="39"/>
-      <c r="B408" s="40" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="39"/>
-      <c r="B409" s="40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="39"/>
-      <c r="B410" s="40" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="39"/>
-      <c r="B411" s="40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="39"/>
-      <c r="B412" s="40" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="39"/>
-      <c r="B413" s="40" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="39"/>
-      <c r="B414" s="40" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="39"/>
-      <c r="B415" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="39"/>
-      <c r="B416" s="40" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="39"/>
-      <c r="B417" s="40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="39"/>
-      <c r="B418" s="40" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="39"/>
-      <c r="B419" s="40" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="39"/>
-      <c r="B420" s="40" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="39"/>
-      <c r="B421" s="40" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="39"/>
-      <c r="B422" s="40" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="39"/>
-      <c r="B423" s="40" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="39"/>
-      <c r="B424" s="40" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="39"/>
-      <c r="B425" s="40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="39"/>
-      <c r="B426" s="40" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="39"/>
-      <c r="B427" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="39"/>
-      <c r="B428" s="40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="39"/>
-      <c r="B429" s="40" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="39"/>
-      <c r="B430" s="40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="39"/>
-      <c r="B431" s="40" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="39"/>
-      <c r="B432" s="40" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="39"/>
-      <c r="B433" s="40" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="39"/>
-      <c r="B434" s="40" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="39"/>
-      <c r="B435" s="40" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="39"/>
-      <c r="B436" s="40" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="39"/>
-      <c r="B437" s="40" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="39"/>
-      <c r="B438" s="40" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="39"/>
-      <c r="B439" s="40" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="39"/>
-      <c r="B440" s="40" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="39"/>
-      <c r="B441" s="40" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="39"/>
-      <c r="B442" s="40" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="39"/>
-      <c r="B443" s="40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="39"/>
-      <c r="B444" s="40" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="39"/>
-      <c r="B445" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="39"/>
-      <c r="B446" s="40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="39"/>
-      <c r="B447" s="40" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="39"/>
-      <c r="B448" s="40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="39"/>
-      <c r="B449" s="40" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="39"/>
-      <c r="B450" s="40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="39"/>
-      <c r="B451" s="40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="39"/>
-      <c r="B452" s="40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="39"/>
-      <c r="B453" s="40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="39"/>
-      <c r="B454" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="39"/>
-      <c r="B455" s="40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="39"/>
-      <c r="B456" s="40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="39"/>
-      <c r="B457" s="40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="39"/>
-      <c r="B458" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="39"/>
-      <c r="B459" s="40" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="39"/>
-      <c r="B460" s="40" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="39"/>
-      <c r="B461" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="39"/>
-      <c r="B462" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="39"/>
-      <c r="B463" s="40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="39"/>
-      <c r="B464" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="39"/>
-      <c r="B465" s="40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="39"/>
-      <c r="B466" s="40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="39"/>
-      <c r="B467" s="40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="39"/>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="39"/>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="39"/>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="39"/>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="39"/>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="39"/>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="39"/>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="39"/>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="39"/>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="39"/>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="39"/>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="39"/>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="39"/>
+      <c r="B51" s="47">
+        <v>3989</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B467">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <conditionalFormatting sqref="B1:B467 A1 A350">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A349 B2:B467">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="30">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>47</v>
+      <c r="C1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="49">
+        <v>5.16</v>
+      </c>
+      <c r="D2" s="49">
+        <v>2.72</v>
+      </c>
+      <c r="E2" s="49">
+        <f>C2-D2</f>
+        <v>2.44</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="49">
+        <v>2.69</v>
+      </c>
+      <c r="J2" s="49">
+        <v>1.83</v>
+      </c>
+      <c r="K2" s="49">
+        <f>I2-J2</f>
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D3" s="52">
+        <v>2.72</v>
+      </c>
+      <c r="E3" s="52">
+        <f t="shared" ref="E3:E5" si="0">C3-D3</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1.86</v>
+      </c>
+      <c r="J3" s="52">
+        <v>1.83</v>
+      </c>
+      <c r="K3" s="52">
+        <f t="shared" ref="K3:K5" si="1">I3-J3</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="49">
+        <v>5.27</v>
+      </c>
+      <c r="D4" s="49">
+        <v>2.72</v>
+      </c>
+      <c r="E4" s="49">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999994</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="49">
+        <v>2.8</v>
+      </c>
+      <c r="J4" s="49">
+        <v>1.83</v>
+      </c>
+      <c r="K4" s="49">
+        <f t="shared" si="1"/>
+        <v>0.96999999999999975</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="49">
+        <v>4.45</v>
+      </c>
+      <c r="D5" s="49">
+        <v>2.72</v>
+      </c>
+      <c r="E5" s="49">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1.91</v>
+      </c>
+      <c r="J5" s="49">
+        <v>1.83</v>
+      </c>
+      <c r="K5" s="49">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999849E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="51" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
     <sheet name="SelectedResults" sheetId="4" r:id="rId2"/>
-    <sheet name="Comparisons" sheetId="5" r:id="rId3"/>
-    <sheet name="Atb3" sheetId="7" r:id="rId4"/>
-    <sheet name="Atb3 Comparison" sheetId="8" r:id="rId5"/>
+    <sheet name="Atb3" sheetId="7" r:id="rId3"/>
+    <sheet name="QuranResults" sheetId="5" r:id="rId4"/>
+    <sheet name="QuranDERResults" sheetId="10" r:id="rId5"/>
+    <sheet name="Atb3 Comparison" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="131">
   <si>
     <t>Doc Name</t>
   </si>
@@ -590,6 +591,12 @@
   <si>
     <t>Diff</t>
   </si>
+  <si>
+    <t>36 IPS, 3 hidden, 350 nodes, OP 479</t>
+  </si>
+  <si>
+    <t>3 hidden layers</t>
+  </si>
 </sst>
 </file>
 
@@ -902,13 +909,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,17 +938,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,7 +1012,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparisons!$B$2</c:f>
+              <c:f>QuranResults!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1084,7 +1091,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparisons!$A$3:$A$6</c:f>
+              <c:f>QuranResults!$A$3:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1101,7 +1108,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$B$3:$B$6</c:f>
+              <c:f>QuranResults!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1345,7 +1352,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparisons!$J$2</c:f>
+              <c:f>QuranResults!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1424,7 +1431,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparisons!$I$3:$I$5</c:f>
+              <c:f>QuranResults!$I$3:$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1441,7 +1448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$J$3:$J$5</c:f>
+              <c:f>QuranResults!$J$3:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1644,31 +1651,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>DER Comparison</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1710,7 +1692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparisons!$S$2</c:f>
+              <c:f>QuranDERResults!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1789,7 +1771,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparisons!$R$3:$R$5</c:f>
+              <c:f>QuranDERResults!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1806,7 +1788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$S$3:$S$5</c:f>
+              <c:f>QuranDERResults!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1824,7 +1806,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-541A-49A9-8C54-88525FD09A44}"/>
+              <c16:uniqueId val="{00000000-8785-4153-87C2-4047CBA8F147}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1833,7 +1815,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparisons!$T$2</c:f>
+              <c:f>QuranDERResults!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1912,7 +1894,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparisons!$R$3:$R$5</c:f>
+              <c:f>QuranDERResults!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1929,7 +1911,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$T$3:$T$5</c:f>
+              <c:f>QuranDERResults!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1947,7 +1929,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-541A-49A9-8C54-88525FD09A44}"/>
+              <c16:uniqueId val="{00000001-8785-4153-87C2-4047CBA8F147}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1956,7 +1938,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparisons!$U$2</c:f>
+              <c:f>QuranDERResults!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2035,7 +2017,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Comparisons!$R$3:$R$5</c:f>
+              <c:f>QuranDERResults!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2052,7 +2034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparisons!$U$3:$U$5</c:f>
+              <c:f>QuranDERResults!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2070,7 +2052,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-541A-49A9-8C54-88525FD09A44}"/>
+              <c16:uniqueId val="{00000002-8785-4153-87C2-4047CBA8F147}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2085,11 +2067,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1735554416"/>
-        <c:axId val="1723906304"/>
+        <c:axId val="664882016"/>
+        <c:axId val="656807440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1735554416"/>
+        <c:axId val="664882016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723906304"/>
+        <c:crossAx val="656807440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1723906304"/>
+        <c:axId val="656807440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735554416"/>
+        <c:crossAx val="664882016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2352,7 +2334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$C$1</c:f>
+              <c:f>'Atb3 Comparison'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2431,7 +2413,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$B$2:$B$5</c:f>
+              <c:f>'Atb3 Comparison'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2451,7 +2433,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Atb3 Comparison'!$C$2:$C$5</c:f>
+              <c:f>'Atb3 Comparison'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2481,7 +2463,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$D$1</c:f>
+              <c:f>'Atb3 Comparison'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2560,7 +2542,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$B$2:$B$5</c:f>
+              <c:f>'Atb3 Comparison'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2580,7 +2562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Atb3 Comparison'!$D$2:$D$5</c:f>
+              <c:f>'Atb3 Comparison'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2610,7 +2592,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$E$1</c:f>
+              <c:f>'Atb3 Comparison'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2689,7 +2671,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$B$2:$B$5</c:f>
+              <c:f>'Atb3 Comparison'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2709,7 +2691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Atb3 Comparison'!$E$2:$E$5</c:f>
+              <c:f>'Atb3 Comparison'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3012,7 +2994,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$I$1</c:f>
+              <c:f>'Atb3 Comparison'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3091,7 +3073,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$H$2:$H$5</c:f>
+              <c:f>'Atb3 Comparison'!$L$2:$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3111,7 +3093,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Atb3 Comparison'!$I$2:$I$5</c:f>
+              <c:f>'Atb3 Comparison'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3141,7 +3123,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$J$1</c:f>
+              <c:f>'Atb3 Comparison'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3220,7 +3202,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$H$2:$H$5</c:f>
+              <c:f>'Atb3 Comparison'!$L$2:$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3240,7 +3222,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Atb3 Comparison'!$J$2:$J$5</c:f>
+              <c:f>'Atb3 Comparison'!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3270,7 +3252,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$K$1</c:f>
+              <c:f>'Atb3 Comparison'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3349,7 +3331,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Atb3 Comparison'!$H$2:$H$5</c:f>
+              <c:f>'Atb3 Comparison'!$L$2:$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3369,7 +3351,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Atb3 Comparison'!$K$2:$K$5</c:f>
+              <c:f>'Atb3 Comparison'!$O$2:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3512,6 +3494,1323 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1067399039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DER</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBC9-46EF-80AB-47C56B6EE1E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBC9-46EF-80AB-47C56B6EE1E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBC9-46EF-80AB-47C56B6EE1E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="756738480"/>
+        <c:axId val="656823424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="756738480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656823424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656823424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756738480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DER</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER ignoring Last Letter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$R$2:$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABCC-4A62-ACBB-606BC85F1D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DER Paper ignoring Last Letter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$R$2:$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$T$2:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABCC-4A62-ACBB-606BC85F1D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Atb3 Comparison'!$R$2:$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sukun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sukun + dictionary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sukun + fatha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sukun + fatha + dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Atb3 Comparison'!$U$2:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ABCC-4A62-ACBB-606BC85F1D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="662717408"/>
+        <c:axId val="818468304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="662717408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818468304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="818468304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662717408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3791,6 +5090,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5804,6 +7183,1012 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6380,25 +8765,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABB9D25-BC7E-4862-93EE-4142E7B74493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CB6449-FD69-40E2-A02D-266D31B4FD18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6410,7 +8800,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6419,17 +8809,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
@@ -6459,16 +8849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1516380</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6488,6 +8878,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1463040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B5A845-08BE-4043-AFF0-CBA50467B829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F64F265-FC1E-439F-88EF-E44856108F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6795,7 +9257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A244" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A137" sqref="A137:B146"/>
     </sheetView>
   </sheetViews>
@@ -6815,10 +9277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -6867,13 +9329,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6885,9 +9347,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -6968,13 +9430,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6986,9 +9448,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="40"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -7069,13 +9531,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7087,9 +9549,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="40"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -7176,7 +9638,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="49" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7194,7 +9656,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="40"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -7275,13 +9737,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7293,9 +9755,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="40"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -7376,13 +9838,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7394,9 +9856,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="40"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -7480,13 +9942,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="49" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -7499,9 +9961,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="40"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -7593,13 +10055,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="40" t="s">
+      <c r="F75" s="49" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -7612,9 +10074,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="40"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -7703,13 +10165,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="41" t="s">
+      <c r="E85" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7721,9 +10183,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="40"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -7812,13 +10274,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="40" t="s">
+      <c r="D96" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="40" t="s">
+      <c r="F96" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7830,9 +10292,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="40"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="40"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="49"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -7957,13 +10419,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="40" t="s">
+      <c r="D107" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="41" t="s">
+      <c r="E107" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="F107" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -7973,13 +10435,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="40" t="s">
+      <c r="L107" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="41" t="s">
+      <c r="M107" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="40" t="s">
+      <c r="N107" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7991,9 +10453,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="40"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="49"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -8001,9 +10463,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="40"/>
-      <c r="M108" s="42"/>
-      <c r="N108" s="40"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="49"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -8127,13 +10589,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="D118" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="41" t="s">
+      <c r="E118" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="40" t="s">
+      <c r="F118" s="49" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -8146,9 +10608,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="40"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="40"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="49"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -8246,13 +10708,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="40" t="s">
+      <c r="D129" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="41" t="s">
+      <c r="E129" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="40" t="s">
+      <c r="F129" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8264,9 +10726,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="40"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="49"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -8361,13 +10823,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="40" t="s">
+      <c r="D140" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="41" t="s">
+      <c r="E140" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="40" t="s">
+      <c r="F140" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8379,9 +10841,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="40"/>
-      <c r="E141" s="42"/>
-      <c r="F141" s="40"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="49"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -8473,13 +10935,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="40" t="s">
+      <c r="D151" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="41" t="s">
+      <c r="E151" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="40" t="s">
+      <c r="F151" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8491,9 +10953,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="40"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="40"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="49"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -8588,13 +11050,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="40" t="s">
+      <c r="D162" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="41" t="s">
+      <c r="E162" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="40" t="s">
+      <c r="F162" s="49" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -8607,9 +11069,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="40"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="40"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="49"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -8706,13 +11168,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="40" t="s">
+      <c r="D173" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="41" t="s">
+      <c r="E173" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="40" t="s">
+      <c r="F173" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8724,9 +11186,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="40"/>
-      <c r="E174" s="42"/>
-      <c r="F174" s="40"/>
+      <c r="D174" s="49"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="49"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -8821,13 +11283,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="40" t="s">
+      <c r="D185" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="41" t="s">
+      <c r="E185" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="40" t="s">
+      <c r="F185" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8839,9 +11301,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="40"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="40"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="49"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -8934,13 +11396,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="40" t="s">
+      <c r="D197" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="41" t="s">
+      <c r="E197" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="40" t="s">
+      <c r="F197" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8952,9 +11414,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="40"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="40"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="49"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -9052,13 +11514,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="40" t="s">
+      <c r="D210" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="41" t="s">
+      <c r="E210" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="40" t="s">
+      <c r="F210" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9070,9 +11532,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="40"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="40"/>
+      <c r="D211" s="49"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="49"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -9162,13 +11624,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="40" t="s">
+      <c r="D221" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="41" t="s">
+      <c r="E221" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="40" t="s">
+      <c r="F221" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9180,9 +11642,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="40"/>
-      <c r="E222" s="42"/>
-      <c r="F222" s="40"/>
+      <c r="D222" s="49"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="49"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -9272,13 +11734,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="40" t="s">
+      <c r="D232" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="41" t="s">
+      <c r="E232" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="40" t="s">
+      <c r="F232" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9290,9 +11752,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="40"/>
-      <c r="E233" s="42"/>
-      <c r="F233" s="40"/>
+      <c r="D233" s="49"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="49"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -9382,13 +11844,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="40" t="s">
+      <c r="D243" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="41" t="s">
+      <c r="E243" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="40" t="s">
+      <c r="F243" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9400,9 +11862,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="40"/>
-      <c r="E244" s="42"/>
-      <c r="F244" s="40"/>
+      <c r="D244" s="49"/>
+      <c r="E244" s="48"/>
+      <c r="F244" s="49"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -9492,13 +11954,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="40" t="s">
+      <c r="D254" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="41" t="s">
+      <c r="E254" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="40" t="s">
+      <c r="F254" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9510,9 +11972,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="40"/>
-      <c r="E255" s="42"/>
-      <c r="F255" s="40"/>
+      <c r="D255" s="49"/>
+      <c r="E255" s="48"/>
+      <c r="F255" s="49"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -9555,49 +12017,21 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -9614,21 +12048,49 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9660,22 +12122,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -9757,13 +12219,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -9773,13 +12235,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9791,9 +12253,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -9801,9 +12263,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="40"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9963,13 +12425,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -9979,13 +12441,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9997,9 +12459,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -10007,9 +12469,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="40"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -10169,13 +12631,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -10185,13 +12647,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="40" t="s">
+      <c r="L27" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="41" t="s">
+      <c r="M27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="N27" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10203,9 +12665,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="40"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -10213,9 +12675,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="40"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -10375,13 +12837,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -10391,13 +12853,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="41" t="s">
+      <c r="M38" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="40" t="s">
+      <c r="N38" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10409,9 +12871,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="40"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -10419,9 +12881,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="40"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -10557,13 +13019,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="49" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -10579,9 +13041,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="40"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -10682,13 +13144,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F61" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10700,9 +13162,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="40"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -10747,6 +13209,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -10763,22 +13241,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10786,10 +13248,746 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="26">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1">
+        <v>208212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="29">
+        <f>(B17/E1)*100</f>
+        <v>5.1639674946688956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="29">
+        <f>(B18/E1)*100</f>
+        <v>2.6900466831882892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="41">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="41">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="29">
+        <f>(B28/E1)*100</f>
+        <v>5.27635294795689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="29">
+        <f>(B29/E1)*100</f>
+        <v>2.8024321364762841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="41">
+        <v>10986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="41">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="29">
+        <f>(B39/E1)*100</f>
+        <v>4.4051255451174764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="29">
+        <f>(B40/E1)*100</f>
+        <v>1.8663669721245655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="41">
+        <v>9172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="41">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="29">
+        <f>(B50/E1)*100</f>
+        <v>4.455074635467696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="29">
+        <f>(B51/E1)*100</f>
+        <v>1.9158357827598793</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="41">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="41">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="29">
+        <f>(B61/E1)*100</f>
+        <v>5.092405817147907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="29">
+        <f>(B62/E1)*100</f>
+        <v>2.6309722782548559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="41">
+        <v>10603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="41">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="29">
+        <f>(B72/E1)*100</f>
+        <v>4.3767890419380251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="29">
+        <f>(B73/E1)*100</f>
+        <v>1.8697289301289073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="41">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="41">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="29">
+        <f>(B83/E1)*100</f>
+        <v>4.3292413501623352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="29">
+        <f>(B84/E1)*100</f>
+        <v>1.8217009586383108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="41">
+        <v>9014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="41">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="29">
+        <f>(B94/E1)*100</f>
+        <v>4.3767890419380251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="29">
+        <f>(B95/E1)*100</f>
+        <v>1.8697289301289073</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="41">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="41">
+        <v>3893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10801,31 +13999,21 @@
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="I1" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="R1" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>63</v>
       </c>
@@ -10844,20 +14032,8 @@
       <c r="K2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -10876,20 +14052,8 @@
       <c r="K3">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" s="24">
-        <v>7.65</v>
-      </c>
-      <c r="T3" s="24">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="U3">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -10908,20 +14072,8 @@
       <c r="K4">
         <v>24</v>
       </c>
-      <c r="R4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S4" s="24">
-        <v>7.49</v>
-      </c>
-      <c r="T4" s="24">
-        <v>8.1</v>
-      </c>
-      <c r="U4">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -10940,20 +14092,8 @@
       <c r="K5">
         <v>25</v>
       </c>
-      <c r="R5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" s="24">
-        <v>7.35</v>
-      </c>
-      <c r="T5" s="24">
-        <v>8.5</v>
-      </c>
-      <c r="U5">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="J6" s="24"/>
     </row>
@@ -10990,611 +14130,477 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="26">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1">
-        <v>208212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="30">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="29">
-        <f>(B17/E1)*100</f>
-        <v>5.1639674946688956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="29">
-        <f>(B18/E1)*100</f>
-        <v>2.6900466831882892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="30">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="47">
-        <v>10752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="47">
-        <v>5601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="29">
-        <f>(B28/E1)*100</f>
-        <v>5.27635294795689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="29">
-        <f>(B29/E1)*100</f>
-        <v>2.8024321364762841</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="30">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="47">
-        <v>10986</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="47">
-        <v>5835</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="29">
-        <f>(B39/E1)*100</f>
-        <v>4.4051255451174764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="29">
-        <f>(B40/E1)*100</f>
-        <v>1.8663669721245655</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="30">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="47">
-        <v>9172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="47">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="29">
-        <f>(B50/E1)*100</f>
-        <v>4.455074635467696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="29">
-        <f>(B51/E1)*100</f>
-        <v>1.9158357827598793</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="30">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="47">
-        <v>9276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="47">
-        <v>3989</v>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="24">
+        <v>7.65</v>
+      </c>
+      <c r="D3" s="24">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E3">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="24">
+        <v>7.49</v>
+      </c>
+      <c r="D4" s="24">
+        <v>8.1</v>
+      </c>
+      <c r="E4">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="24">
+        <v>7.35</v>
+      </c>
+      <c r="D5" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E5">
+        <v>4.22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="12" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="G1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="N1" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="O1" s="44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="R1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="49">
+      <c r="B2" s="43">
         <v>5.16</v>
       </c>
-      <c r="D2" s="49">
+      <c r="C2" s="43">
         <v>2.72</v>
       </c>
-      <c r="E2" s="49">
-        <f>C2-D2</f>
+      <c r="D2" s="43">
+        <f>B2-C2</f>
         <v>2.44</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="49">
+      <c r="H2" s="43">
+        <v>5.09</v>
+      </c>
+      <c r="I2" s="43">
+        <v>2.72</v>
+      </c>
+      <c r="J2" s="43">
+        <f>H2-I2</f>
+        <v>2.3699999999999997</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="43">
         <v>2.69</v>
       </c>
-      <c r="J2" s="49">
+      <c r="N2" s="43">
         <v>1.83</v>
       </c>
-      <c r="K2" s="49">
-        <f>I2-J2</f>
+      <c r="O2" s="43">
+        <f>M2-N2</f>
         <v>0.85999999999999988</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="R2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="43">
+        <v>2.63</v>
+      </c>
+      <c r="T2" s="43">
+        <v>1.83</v>
+      </c>
+      <c r="U2" s="43">
+        <f>S2-T2</f>
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="52">
+      <c r="B3" s="46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D3" s="52">
+      <c r="C3" s="46">
         <v>2.72</v>
       </c>
-      <c r="E3" s="52">
-        <f t="shared" ref="E3:E5" si="0">C3-D3</f>
+      <c r="D3" s="46">
+        <f t="shared" ref="D3:D5" si="0">B3-C3</f>
         <v>1.6800000000000002</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="52">
+      <c r="H3" s="46">
+        <v>4.32</v>
+      </c>
+      <c r="I3" s="43">
+        <v>2.72</v>
+      </c>
+      <c r="J3" s="43">
+        <f t="shared" ref="J3:J5" si="1">H3-I3</f>
+        <v>1.6</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="46">
         <v>1.86</v>
       </c>
-      <c r="J3" s="52">
+      <c r="N3" s="46">
         <v>1.83</v>
       </c>
-      <c r="K3" s="52">
-        <f t="shared" ref="K3:K5" si="1">I3-J3</f>
+      <c r="O3" s="46">
+        <f t="shared" ref="O3:O5" si="2">M3-N3</f>
         <v>3.0000000000000027E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="R3" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="46">
+        <v>1.82</v>
+      </c>
+      <c r="T3" s="46">
+        <v>1.83</v>
+      </c>
+      <c r="U3" s="46"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="49">
+      <c r="B4" s="43">
         <v>5.27</v>
       </c>
-      <c r="D4" s="49">
+      <c r="C4" s="43">
         <v>2.72</v>
       </c>
-      <c r="E4" s="49">
+      <c r="D4" s="43">
         <f t="shared" si="0"/>
         <v>2.5499999999999994</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="G4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="49">
+      <c r="H4" s="43">
+        <v>4.37</v>
+      </c>
+      <c r="I4" s="43">
+        <v>2.72</v>
+      </c>
+      <c r="J4" s="43">
+        <f t="shared" si="1"/>
+        <v>1.65</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="43">
         <v>2.8</v>
       </c>
-      <c r="J4" s="49">
+      <c r="N4" s="43">
         <v>1.83</v>
       </c>
-      <c r="K4" s="49">
-        <f t="shared" si="1"/>
+      <c r="O4" s="43">
+        <f t="shared" si="2"/>
         <v>0.96999999999999975</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="R4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="43">
+        <v>1.86</v>
+      </c>
+      <c r="T4" s="43">
+        <v>1.83</v>
+      </c>
+      <c r="U4" s="43">
+        <f t="shared" ref="U4:U5" si="3">S4-T4</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="49">
+      <c r="B5" s="43">
         <v>4.45</v>
       </c>
-      <c r="D5" s="49">
+      <c r="C5" s="43">
         <v>2.72</v>
       </c>
-      <c r="E5" s="49">
+      <c r="D5" s="43">
         <f t="shared" si="0"/>
         <v>1.73</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="49">
+      <c r="H5" s="43">
+        <v>4.37</v>
+      </c>
+      <c r="I5" s="43">
+        <v>2.72</v>
+      </c>
+      <c r="J5" s="43">
+        <f t="shared" si="1"/>
+        <v>1.65</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="43">
         <v>1.91</v>
       </c>
-      <c r="J5" s="49">
+      <c r="N5" s="43">
         <v>1.83</v>
       </c>
-      <c r="K5" s="49">
-        <f t="shared" si="1"/>
+      <c r="O5" s="43">
+        <f t="shared" si="2"/>
         <v>7.9999999999999849E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="R5" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="S5" s="43">
+        <v>1.86</v>
+      </c>
+      <c r="T5" s="43">
+        <v>1.83</v>
+      </c>
+      <c r="U5" s="43">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="51" t="s">
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+      <c r="R28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="R29" s="45" t="s">
         <v>127</v>
       </c>
     </row>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
@@ -920,13 +920,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9329,13 +9329,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9347,9 +9347,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9430,13 +9430,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9448,9 +9448,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -9531,13 +9531,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9549,9 +9549,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -9638,7 +9638,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="47" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -9737,13 +9737,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9755,9 +9755,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -9838,13 +9838,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9856,9 +9856,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="47"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -9942,13 +9942,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -9961,9 +9961,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="49"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10055,13 +10055,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="49" t="s">
+      <c r="F75" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10074,9 +10074,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="49"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="47"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10165,13 +10165,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="47" t="s">
+      <c r="E85" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10183,9 +10183,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="49"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="47"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10274,13 +10274,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="49" t="s">
+      <c r="F96" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10292,9 +10292,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="49"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="47"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10419,13 +10419,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="49" t="s">
+      <c r="D107" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="47" t="s">
+      <c r="E107" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="49" t="s">
+      <c r="F107" s="47" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10435,13 +10435,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="49" t="s">
+      <c r="L107" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="47" t="s">
+      <c r="M107" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="49" t="s">
+      <c r="N107" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10453,9 +10453,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="49"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="49"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="47"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10463,9 +10463,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="49"/>
-      <c r="M108" s="48"/>
-      <c r="N108" s="49"/>
+      <c r="L108" s="47"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="47"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -10589,13 +10589,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="49" t="s">
+      <c r="D118" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="47" t="s">
+      <c r="E118" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="49" t="s">
+      <c r="F118" s="47" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -10608,9 +10608,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="49"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="49"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="47"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -10708,13 +10708,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="49" t="s">
+      <c r="D129" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="47" t="s">
+      <c r="E129" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="49" t="s">
+      <c r="F129" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10726,9 +10726,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="49"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="49"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="47"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -10823,13 +10823,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="49" t="s">
+      <c r="D140" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="47" t="s">
+      <c r="E140" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="49" t="s">
+      <c r="F140" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10841,9 +10841,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="49"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="49"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="47"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -10935,13 +10935,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="49" t="s">
+      <c r="D151" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="47" t="s">
+      <c r="E151" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="49" t="s">
+      <c r="F151" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10953,9 +10953,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="49"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="49"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="47"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11050,13 +11050,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="49" t="s">
+      <c r="D162" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="47" t="s">
+      <c r="E162" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="49" t="s">
+      <c r="F162" s="47" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11069,9 +11069,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="49"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="49"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="49"/>
+      <c r="F163" s="47"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11168,13 +11168,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="49" t="s">
+      <c r="D173" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="47" t="s">
+      <c r="E173" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="49" t="s">
+      <c r="F173" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11186,9 +11186,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="49"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="49"/>
+      <c r="D174" s="47"/>
+      <c r="E174" s="49"/>
+      <c r="F174" s="47"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11283,13 +11283,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="49" t="s">
+      <c r="D185" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="47" t="s">
+      <c r="E185" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="49" t="s">
+      <c r="F185" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11301,9 +11301,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="49"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="49"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="47"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11396,13 +11396,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="49" t="s">
+      <c r="D197" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="47" t="s">
+      <c r="E197" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="49" t="s">
+      <c r="F197" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11414,9 +11414,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="49"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="49"/>
+      <c r="D198" s="47"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="47"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11514,13 +11514,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="49" t="s">
+      <c r="D210" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="47" t="s">
+      <c r="E210" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="49" t="s">
+      <c r="F210" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11532,9 +11532,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="49"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="49"/>
+      <c r="D211" s="47"/>
+      <c r="E211" s="49"/>
+      <c r="F211" s="47"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -11624,13 +11624,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="49" t="s">
+      <c r="D221" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="47" t="s">
+      <c r="E221" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="49" t="s">
+      <c r="F221" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11642,9 +11642,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="49"/>
-      <c r="E222" s="48"/>
-      <c r="F222" s="49"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="49"/>
+      <c r="F222" s="47"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -11734,13 +11734,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="49" t="s">
+      <c r="D232" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="47" t="s">
+      <c r="E232" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="49" t="s">
+      <c r="F232" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11752,9 +11752,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="49"/>
-      <c r="E233" s="48"/>
-      <c r="F233" s="49"/>
+      <c r="D233" s="47"/>
+      <c r="E233" s="49"/>
+      <c r="F233" s="47"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -11844,13 +11844,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="49" t="s">
+      <c r="D243" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="47" t="s">
+      <c r="E243" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="49" t="s">
+      <c r="F243" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11862,9 +11862,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="49"/>
-      <c r="E244" s="48"/>
-      <c r="F244" s="49"/>
+      <c r="D244" s="47"/>
+      <c r="E244" s="49"/>
+      <c r="F244" s="47"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -11954,13 +11954,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="49" t="s">
+      <c r="D254" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="47" t="s">
+      <c r="E254" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="49" t="s">
+      <c r="F254" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11972,9 +11972,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="49"/>
-      <c r="E255" s="48"/>
-      <c r="F255" s="49"/>
+      <c r="D255" s="47"/>
+      <c r="E255" s="49"/>
+      <c r="F255" s="47"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12017,21 +12017,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12048,49 +12076,21 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12219,13 +12219,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12235,13 +12235,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12253,9 +12253,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="47"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12263,9 +12263,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12425,13 +12425,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="47" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12441,13 +12441,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12459,9 +12459,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="47"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12469,9 +12469,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -12631,13 +12631,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="47" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -12647,13 +12647,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L27" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="47" t="s">
+      <c r="M27" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="49" t="s">
+      <c r="N27" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12665,9 +12665,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="47"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -12675,9 +12675,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -12837,13 +12837,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="47" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -12853,13 +12853,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="49" t="s">
+      <c r="L38" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="47" t="s">
+      <c r="M38" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="49" t="s">
+      <c r="N38" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12871,9 +12871,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="47"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -12881,9 +12881,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="49"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13019,13 +13019,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="47" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13041,9 +13041,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13144,13 +13144,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13162,9 +13162,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13209,22 +13209,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13241,6 +13225,22 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13250,8 +13250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13281,6 +13281,9 @@
       </c>
       <c r="B2" s="27" t="s">
         <v>106</v>
+      </c>
+      <c r="E2">
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -14232,7 +14235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="QuranResults" sheetId="5" r:id="rId4"/>
     <sheet name="QuranDERResults" sheetId="10" r:id="rId5"/>
     <sheet name="Atb3 Comparison" sheetId="8" r:id="rId6"/>
+    <sheet name="After Meeting 25 Dec" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="153">
   <si>
     <t>Doc Name</t>
   </si>
@@ -597,12 +598,167 @@
   <si>
     <t>3 hidden layers</t>
   </si>
+  <si>
+    <t>Quran</t>
+  </si>
+  <si>
+    <t>Randomized</t>
+  </si>
+  <si>
+    <t>70 IPS, 1 hidden, 250 nodes, OP 479</t>
+  </si>
+  <si>
+    <t>each letter represented 2 times</t>
+  </si>
+  <si>
+    <t>39 IPS, 1 hidden, 250 nodes, OP 479</t>
+  </si>
+  <si>
+    <t>one hot encoding applied for position</t>
+  </si>
+  <si>
+    <t>16 IPS, 1 hidden, 250 nodes, OP 16</t>
+  </si>
+  <si>
+    <t>One Hot Encoding IP, One Hot Encoding OP</t>
+  </si>
+  <si>
+    <t>ALEX Encoding IP, ALEX Encoding OP</t>
+  </si>
+  <si>
+    <t>Letters</t>
+  </si>
+  <si>
+    <t>Versis</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Not Considered</t>
+  </si>
+  <si>
+    <t>One Hot Encoding IP, One Hot Encoding OP (Diacritics Only)</t>
+  </si>
+  <si>
+    <t>Space, BOS, EOS Is consiedered</t>
+  </si>
+  <si>
+    <t>3 more input nodes for Space, BOS, and EOS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 more input nodes for Space, BOS, EOS, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and letter position</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40 IPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1 hidden, 100 nodes, OP 14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39 IPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1 hidden, 100 nodes, OP 14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40 IPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1 hidden, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nodes, OP 14</t>
+    </r>
+  </si>
+  <si>
+    <t>Space, BOS, EOS, Letter position Is consiedered</t>
+  </si>
+  <si>
+    <t>Shuffle = True</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,8 +797,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,8 +872,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -807,6 +976,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,7 +1007,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,13 +1113,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,6 +1129,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9257,8 +9482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:B146"/>
+    <sheetView topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252:F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9329,13 +9554,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9347,9 +9572,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9430,13 +9655,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9448,9 +9673,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -9531,13 +9756,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9549,9 +9774,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -9638,7 +9863,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="49" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9656,7 +9881,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -9737,13 +9962,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9755,9 +9980,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="47"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -9838,13 +10063,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9856,9 +10081,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="47"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -9942,13 +10167,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="F65" s="49" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -9961,9 +10186,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="47"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10055,13 +10280,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="47" t="s">
+      <c r="F75" s="49" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10074,9 +10299,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="47"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10165,13 +10390,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D85" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="47" t="s">
+      <c r="F85" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10183,9 +10408,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="47"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10274,13 +10499,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E96" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="47" t="s">
+      <c r="F96" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10292,9 +10517,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="47"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="47"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="49"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10419,13 +10644,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="47" t="s">
+      <c r="D107" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="48" t="s">
+      <c r="E107" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="47" t="s">
+      <c r="F107" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10435,13 +10660,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="47" t="s">
+      <c r="L107" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="48" t="s">
+      <c r="M107" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="47" t="s">
+      <c r="N107" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10453,9 +10678,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="47"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="47"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="49"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10463,9 +10688,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="47"/>
-      <c r="M108" s="49"/>
-      <c r="N108" s="47"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="49"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -10589,13 +10814,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="47" t="s">
+      <c r="D118" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="48" t="s">
+      <c r="E118" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="47" t="s">
+      <c r="F118" s="49" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -10608,9 +10833,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="47"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="47"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="49"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -10708,13 +10933,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="47" t="s">
+      <c r="D129" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="47" t="s">
+      <c r="F129" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10726,9 +10951,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="47"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="47"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="49"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -10823,13 +11048,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="47" t="s">
+      <c r="D140" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="48" t="s">
+      <c r="E140" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="47" t="s">
+      <c r="F140" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10841,9 +11066,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="47"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="47"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="49"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -10935,13 +11160,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="47" t="s">
+      <c r="D151" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="48" t="s">
+      <c r="E151" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="47" t="s">
+      <c r="F151" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10953,9 +11178,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="47"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="47"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="49"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11050,13 +11275,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="47" t="s">
+      <c r="D162" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="48" t="s">
+      <c r="E162" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="47" t="s">
+      <c r="F162" s="49" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11069,9 +11294,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="47"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="47"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="49"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11168,13 +11393,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="47" t="s">
+      <c r="D173" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="48" t="s">
+      <c r="E173" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="47" t="s">
+      <c r="F173" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11186,9 +11411,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="47"/>
-      <c r="E174" s="49"/>
-      <c r="F174" s="47"/>
+      <c r="D174" s="49"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="49"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11283,13 +11508,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="47" t="s">
+      <c r="D185" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="48" t="s">
+      <c r="E185" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="47" t="s">
+      <c r="F185" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11301,9 +11526,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="47"/>
-      <c r="E186" s="49"/>
-      <c r="F186" s="47"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="49"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11396,13 +11621,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="47" t="s">
+      <c r="D197" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="48" t="s">
+      <c r="E197" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="47" t="s">
+      <c r="F197" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11414,9 +11639,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="47"/>
-      <c r="E198" s="49"/>
-      <c r="F198" s="47"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="49"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11514,13 +11739,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="47" t="s">
+      <c r="D210" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="48" t="s">
+      <c r="E210" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="47" t="s">
+      <c r="F210" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11532,9 +11757,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="47"/>
-      <c r="E211" s="49"/>
-      <c r="F211" s="47"/>
+      <c r="D211" s="49"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="49"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -11624,13 +11849,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="47" t="s">
+      <c r="D221" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="48" t="s">
+      <c r="E221" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="47" t="s">
+      <c r="F221" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11642,9 +11867,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="47"/>
-      <c r="E222" s="49"/>
-      <c r="F222" s="47"/>
+      <c r="D222" s="49"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="49"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -11734,13 +11959,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="47" t="s">
+      <c r="D232" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="48" t="s">
+      <c r="E232" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="47" t="s">
+      <c r="F232" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11752,9 +11977,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="47"/>
-      <c r="E233" s="49"/>
-      <c r="F233" s="47"/>
+      <c r="D233" s="49"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="49"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -11844,13 +12069,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="47" t="s">
+      <c r="D243" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="48" t="s">
+      <c r="E243" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="47" t="s">
+      <c r="F243" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11862,9 +12087,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="47"/>
-      <c r="E244" s="49"/>
-      <c r="F244" s="47"/>
+      <c r="D244" s="49"/>
+      <c r="E244" s="48"/>
+      <c r="F244" s="49"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -11954,13 +12179,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="47" t="s">
+      <c r="D254" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="48" t="s">
+      <c r="E254" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="47" t="s">
+      <c r="F254" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11972,9 +12197,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="47"/>
-      <c r="E255" s="49"/>
-      <c r="F255" s="47"/>
+      <c r="D255" s="49"/>
+      <c r="E255" s="48"/>
+      <c r="F255" s="49"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12017,49 +12242,21 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12076,21 +12273,49 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12219,13 +12444,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12235,13 +12460,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12253,9 +12478,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12263,9 +12488,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="47"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12425,13 +12650,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12441,13 +12666,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12459,9 +12684,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="47"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12469,9 +12694,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="47"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -12631,13 +12856,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -12647,13 +12872,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="47" t="s">
+      <c r="N27" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12665,9 +12890,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="47"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -12675,9 +12900,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="47"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -12837,13 +13062,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -12853,13 +13078,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="47" t="s">
+      <c r="L38" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="48" t="s">
+      <c r="M38" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="47" t="s">
+      <c r="N38" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12871,9 +13096,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="47"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -12881,9 +13106,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="47"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="47"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13019,13 +13244,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="49" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13041,9 +13266,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="47"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13144,13 +13369,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="47" t="s">
+      <c r="F61" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13162,9 +13387,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="47"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13209,6 +13434,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13225,22 +13466,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13250,8 +13475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14612,4 +14837,718 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="56">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6236</v>
+      </c>
+      <c r="E2" s="1">
+        <v>330709</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="26">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6236</v>
+      </c>
+      <c r="M2" s="1">
+        <v>330709</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="26">
+        <v>32</v>
+      </c>
+      <c r="U2" s="1">
+        <f>SUM(U3:U5)</f>
+        <v>6236</v>
+      </c>
+      <c r="V2" s="1">
+        <f>SUM(V3:V5)</f>
+        <v>414742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="28">
+        <v>88.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5489</v>
+      </c>
+      <c r="E3" s="2">
+        <v>292956</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="28">
+        <f>(M3/M2)*100</f>
+        <v>88.166635924634647</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5489</v>
+      </c>
+      <c r="M3" s="2">
+        <v>291575</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="28">
+        <f>(V3/V2)*100</f>
+        <v>88.170959295176274</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5489</v>
+      </c>
+      <c r="V3" s="2">
+        <v>365682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="58">
+        <v>11.41</v>
+      </c>
+      <c r="D4" s="49">
+        <v>747</v>
+      </c>
+      <c r="E4" s="47">
+        <v>37753</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="58">
+        <f>(M4/M2)*100</f>
+        <v>11.833364075365353</v>
+      </c>
+      <c r="L4" s="49">
+        <v>747</v>
+      </c>
+      <c r="M4" s="47">
+        <v>39134</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="29"/>
+      <c r="T4" s="58">
+        <f>(V4/V2)*100</f>
+        <v>11.829040704823722</v>
+      </c>
+      <c r="U4" s="49">
+        <v>747</v>
+      </c>
+      <c r="V4" s="47">
+        <v>49060</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
+      <c r="R5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="59"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="T6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="R9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S9" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0.53480000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6236</v>
+      </c>
+      <c r="E13" s="1">
+        <v>330709</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="26">
+        <v>33</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="U13" s="64">
+        <f>SUM(U14:U16)</f>
+        <v>6236</v>
+      </c>
+      <c r="V13" s="64">
+        <f>SUM(V14:V16)</f>
+        <v>414742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="28">
+        <v>88.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5489</v>
+      </c>
+      <c r="E14" s="2">
+        <v>292956</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" s="28">
+        <f>(V14/V13)*100</f>
+        <v>88.170959295176274</v>
+      </c>
+      <c r="U14" s="2">
+        <v>5489</v>
+      </c>
+      <c r="V14" s="2">
+        <v>365682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D15" s="49">
+        <v>747</v>
+      </c>
+      <c r="E15" s="47">
+        <v>37753</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="29"/>
+      <c r="T15" s="58">
+        <f>(V15/V13)*100</f>
+        <v>11.829040704823722</v>
+      </c>
+      <c r="U15" s="49">
+        <v>747</v>
+      </c>
+      <c r="V15" s="47">
+        <v>49060</v>
+      </c>
+      <c r="W15" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="R16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="T16" s="59"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="49"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="T17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22">
+        <v>5.62E-2</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S20" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="R21" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="22">
+        <v>0.53820000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="26">
+        <v>34</v>
+      </c>
+      <c r="T25" s="43"/>
+      <c r="U25" s="64">
+        <f>SUM(U26:U28)</f>
+        <v>6236</v>
+      </c>
+      <c r="V25" s="64">
+        <f>SUM(V26:V28)</f>
+        <v>414742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="28">
+        <f>(V26/V25)*100</f>
+        <v>88.170959295176274</v>
+      </c>
+      <c r="U26" s="2">
+        <v>5489</v>
+      </c>
+      <c r="V26" s="2">
+        <v>365682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="29"/>
+      <c r="T27" s="58">
+        <f>(V27/V25)*100</f>
+        <v>11.829040704823722</v>
+      </c>
+      <c r="U27" s="49">
+        <v>747</v>
+      </c>
+      <c r="V27" s="47">
+        <v>49060</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="T28" s="59"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="48"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="T29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R32" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S32" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" s="22"/>
+    </row>
+    <row r="33" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R33" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="S33" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0.54520000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="154">
   <si>
     <t>Doc Name</t>
   </si>
@@ -753,6 +753,48 @@
   <si>
     <t>Shuffle = True</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70 IPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1 hidden, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nodes, OP 14</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1007,7 +1049,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,13 +1155,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,24 +1187,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1159,8 +1205,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9502,10 +9547,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -9554,13 +9599,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9572,9 +9617,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9655,13 +9700,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9673,9 +9718,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -9756,13 +9801,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9774,9 +9819,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -9863,7 +9908,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="53" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9881,7 +9926,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -9962,13 +10007,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9980,9 +10025,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10063,13 +10108,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10081,9 +10126,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="53"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10167,13 +10212,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" s="53" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10186,9 +10231,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="49"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10280,13 +10325,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="49" t="s">
+      <c r="F75" s="53" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10299,9 +10344,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="49"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10390,13 +10435,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="47" t="s">
+      <c r="E85" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10408,9 +10453,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="49"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="53"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10499,13 +10544,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="49" t="s">
+      <c r="F96" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10517,9 +10562,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="49"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="53"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10644,13 +10689,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="49" t="s">
+      <c r="D107" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="47" t="s">
+      <c r="E107" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="49" t="s">
+      <c r="F107" s="53" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10660,13 +10705,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="49" t="s">
+      <c r="L107" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="47" t="s">
+      <c r="M107" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="49" t="s">
+      <c r="N107" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10678,9 +10723,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="49"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="49"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="53"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10688,9 +10733,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="49"/>
-      <c r="M108" s="48"/>
-      <c r="N108" s="49"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="55"/>
+      <c r="N108" s="53"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -10814,13 +10859,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="49" t="s">
+      <c r="D118" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="47" t="s">
+      <c r="E118" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="49" t="s">
+      <c r="F118" s="53" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -10833,9 +10878,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="49"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="49"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="53"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -10933,13 +10978,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="49" t="s">
+      <c r="D129" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="47" t="s">
+      <c r="E129" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="49" t="s">
+      <c r="F129" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10951,9 +10996,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="49"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="49"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="53"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11048,13 +11093,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="49" t="s">
+      <c r="D140" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="47" t="s">
+      <c r="E140" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="49" t="s">
+      <c r="F140" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11066,9 +11111,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="49"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="49"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="53"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11160,13 +11205,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="49" t="s">
+      <c r="D151" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="47" t="s">
+      <c r="E151" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="49" t="s">
+      <c r="F151" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11178,9 +11223,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="49"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="49"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="53"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11275,13 +11320,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="49" t="s">
+      <c r="D162" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="47" t="s">
+      <c r="E162" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="49" t="s">
+      <c r="F162" s="53" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11294,9 +11339,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="49"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="49"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="53"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11393,13 +11438,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="49" t="s">
+      <c r="D173" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="47" t="s">
+      <c r="E173" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="49" t="s">
+      <c r="F173" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11411,9 +11456,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="49"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="49"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="53"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11508,13 +11553,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="49" t="s">
+      <c r="D185" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="47" t="s">
+      <c r="E185" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="49" t="s">
+      <c r="F185" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11526,9 +11571,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="49"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="49"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="53"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11621,13 +11666,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="49" t="s">
+      <c r="D197" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="47" t="s">
+      <c r="E197" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="49" t="s">
+      <c r="F197" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11639,9 +11684,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="49"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="49"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="53"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11739,13 +11784,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="49" t="s">
+      <c r="D210" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="47" t="s">
+      <c r="E210" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="49" t="s">
+      <c r="F210" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11757,9 +11802,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="49"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="49"/>
+      <c r="D211" s="53"/>
+      <c r="E211" s="55"/>
+      <c r="F211" s="53"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -11849,13 +11894,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="49" t="s">
+      <c r="D221" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="47" t="s">
+      <c r="E221" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="49" t="s">
+      <c r="F221" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11867,9 +11912,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="49"/>
-      <c r="E222" s="48"/>
-      <c r="F222" s="49"/>
+      <c r="D222" s="53"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="53"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -11959,13 +12004,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="49" t="s">
+      <c r="D232" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="47" t="s">
+      <c r="E232" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="49" t="s">
+      <c r="F232" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11977,9 +12022,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="49"/>
-      <c r="E233" s="48"/>
-      <c r="F233" s="49"/>
+      <c r="D233" s="53"/>
+      <c r="E233" s="55"/>
+      <c r="F233" s="53"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12069,13 +12114,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="49" t="s">
+      <c r="D243" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="47" t="s">
+      <c r="E243" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="49" t="s">
+      <c r="F243" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12087,9 +12132,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="49"/>
-      <c r="E244" s="48"/>
-      <c r="F244" s="49"/>
+      <c r="D244" s="53"/>
+      <c r="E244" s="55"/>
+      <c r="F244" s="53"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12179,13 +12224,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="49" t="s">
+      <c r="D254" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="47" t="s">
+      <c r="E254" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="49" t="s">
+      <c r="F254" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12197,9 +12242,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="49"/>
-      <c r="E255" s="48"/>
-      <c r="F255" s="49"/>
+      <c r="D255" s="53"/>
+      <c r="E255" s="55"/>
+      <c r="F255" s="53"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12242,21 +12287,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12273,49 +12346,21 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12347,22 +12392,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="I1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -12444,13 +12489,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="53" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12460,13 +12505,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12478,9 +12523,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12488,9 +12533,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12650,13 +12695,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="53" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12666,13 +12711,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12684,9 +12729,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="53"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12694,9 +12739,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="53"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -12856,13 +12901,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="53" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -12872,13 +12917,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L27" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="47" t="s">
+      <c r="M27" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="49" t="s">
+      <c r="N27" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12890,9 +12935,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="53"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -12900,9 +12945,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="53"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13062,13 +13107,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="53" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13078,13 +13123,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="49" t="s">
+      <c r="L38" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="47" t="s">
+      <c r="M38" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="49" t="s">
+      <c r="N38" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13096,9 +13141,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="53"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13106,9 +13151,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="49"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="53"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13244,13 +13289,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="53" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13266,9 +13311,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13369,13 +13414,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13387,9 +13432,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="53"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13434,22 +13479,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13466,6 +13495,22 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14230,16 +14275,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -14384,12 +14429,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
@@ -14841,12 +14886,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:T21"/>
+      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14872,33 +14917,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
       <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
@@ -14907,10 +14952,10 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="50">
         <v>30</v>
       </c>
       <c r="D2" s="1">
@@ -15000,50 +15045,50 @@
         <v>4</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="58">
+      <c r="C4" s="59">
         <v>11.41</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="53">
         <v>747</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="54">
         <v>37753</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="53" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="29"/>
-      <c r="K4" s="58">
+      <c r="K4" s="59">
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="53">
         <v>747</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="54">
         <v>39134</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="53" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="29"/>
-      <c r="T4" s="58">
+      <c r="T4" s="59">
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="49">
+      <c r="U4" s="53">
         <v>747</v>
       </c>
-      <c r="V4" s="47">
+      <c r="V4" s="54">
         <v>49060</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="W4" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -15054,30 +15099,30 @@
       <c r="B5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="53"/>
       <c r="I5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="53"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="59"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="49"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="53"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -15149,7 +15194,7 @@
       <c r="A9" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="53" t="b">
+      <c r="B9" s="47" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="22">
@@ -15158,32 +15203,32 @@
       <c r="I9" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="53" t="b">
+      <c r="J9" s="47" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="22"/>
       <c r="R9" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S9" s="53" t="b">
+      <c r="S9" s="47" t="b">
         <v>1</v>
       </c>
       <c r="T9" s="22"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="48" t="s">
         <v>142</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="R10" s="48" t="s">
         <v>142</v>
       </c>
       <c r="S10" s="33" t="s">
@@ -15194,9 +15239,9 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
@@ -15220,11 +15265,11 @@
         <v>33</v>
       </c>
       <c r="T13" s="43"/>
-      <c r="U13" s="64">
+      <c r="U13" s="52">
         <f>SUM(U14:U16)</f>
         <v>6236</v>
       </c>
-      <c r="V13" s="64">
+      <c r="V13" s="52">
         <f>SUM(V14:V16)</f>
         <v>414742</v>
       </c>
@@ -15270,30 +15315,30 @@
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="53">
         <v>747</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="54">
         <v>37753</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="53" t="s">
         <v>31</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S15" s="29"/>
-      <c r="T15" s="58">
+      <c r="T15" s="59">
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="53">
         <v>747</v>
       </c>
-      <c r="V15" s="47">
+      <c r="V15" s="54">
         <v>49060</v>
       </c>
-      <c r="W15" s="49" t="s">
+      <c r="W15" s="53" t="s">
         <v>31</v>
       </c>
     </row>
@@ -15307,19 +15352,19 @@
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="R16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T16" s="59"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="49"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="53"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
@@ -15373,7 +15418,7 @@
       <c r="A20" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="53" t="b">
+      <c r="B20" s="47" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="22">
@@ -15382,19 +15427,19 @@
       <c r="R20" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S20" s="53" t="b">
+      <c r="S20" s="47" t="b">
         <v>1</v>
       </c>
       <c r="T20" s="22"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="R21" s="54" t="s">
+      <c r="R21" s="48" t="s">
         <v>142</v>
       </c>
       <c r="S21" s="33" t="s">
@@ -15405,9 +15450,9 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
@@ -15419,11 +15464,11 @@
         <v>34</v>
       </c>
       <c r="T25" s="43"/>
-      <c r="U25" s="64">
+      <c r="U25" s="52">
         <f>SUM(U26:U28)</f>
         <v>6236</v>
       </c>
-      <c r="V25" s="64">
+      <c r="V25" s="52">
         <f>SUM(V26:V28)</f>
         <v>414742</v>
       </c>
@@ -15451,14 +15496,14 @@
         <v>4</v>
       </c>
       <c r="S27" s="29"/>
-      <c r="T27" s="58">
+      <c r="T27" s="59">
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="49">
+      <c r="U27" s="53">
         <v>747</v>
       </c>
-      <c r="V27" s="47">
+      <c r="V27" s="54">
         <v>49060</v>
       </c>
     </row>
@@ -15469,9 +15514,9 @@
       <c r="S28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T28" s="59"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="48"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="55"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R29" s="13" t="s">
@@ -15504,13 +15549,13 @@
       <c r="R32" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S32" s="53" t="b">
+      <c r="S32" s="47" t="b">
         <v>1</v>
       </c>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="18:20" x14ac:dyDescent="0.3">
-      <c r="R33" s="54" t="s">
+    <row r="33" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R33" s="48" t="s">
         <v>142</v>
       </c>
       <c r="S33" s="33" t="s">
@@ -15520,20 +15565,123 @@
         <v>0.54520000000000002</v>
       </c>
     </row>
+    <row r="35" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="26">
+        <v>29</v>
+      </c>
+      <c r="T35" s="43"/>
+      <c r="U35" s="52">
+        <f>SUM(U36:U38)</f>
+        <v>6236</v>
+      </c>
+      <c r="V35" s="52">
+        <f>SUM(V36:V38)</f>
+        <v>330709</v>
+      </c>
+    </row>
+    <row r="36" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="T36" s="28">
+        <f>(V36/V35)*100</f>
+        <v>88.584223592342511</v>
+      </c>
+      <c r="U36" s="2">
+        <v>5489</v>
+      </c>
+      <c r="V36" s="2">
+        <v>292956</v>
+      </c>
+    </row>
+    <row r="37" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" s="29"/>
+      <c r="T37" s="59">
+        <f>(V37/V35)*100</f>
+        <v>11.415776407657487</v>
+      </c>
+      <c r="U37" s="53">
+        <v>747</v>
+      </c>
+      <c r="V37" s="54">
+        <v>37753</v>
+      </c>
+    </row>
+    <row r="38" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="T38" s="60"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="55"/>
+    </row>
+    <row r="39" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="T39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R42" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S42" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" s="22"/>
+    </row>
+    <row r="43" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="R43" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="S43" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="T43" s="22">
+        <v>0.35649999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+  <mergeCells count="28">
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -15544,9 +15692,18 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MST\MST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Atb3 Comparison" sheetId="8" r:id="rId6"/>
     <sheet name="After Meeting 25 Dec" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="160">
   <si>
     <t>Doc Name</t>
   </si>
@@ -795,6 +795,24 @@
       <t xml:space="preserve"> nodes, OP 14</t>
     </r>
   </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t>Best Result</t>
+  </si>
+  <si>
+    <t>total error</t>
+  </si>
+  <si>
+    <t>Total Error without Last Char</t>
+  </si>
+  <si>
+    <t>sukun + fatha _ dictionary</t>
+  </si>
 </sst>
 </file>
 
@@ -847,7 +865,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,6 +935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1073,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,13 +1193,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,6 +1219,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1203,9 +1239,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9547,10 +9580,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -9599,13 +9632,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9617,9 +9650,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9700,13 +9733,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9718,9 +9751,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -9801,13 +9834,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9819,9 +9852,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="53"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -9908,7 +9941,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="60" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9926,7 +9959,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -10007,13 +10040,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10025,9 +10058,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="53"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10108,13 +10141,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="54" t="s">
+      <c r="E55" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10126,9 +10159,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="53"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10212,13 +10245,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="F65" s="60" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10231,9 +10264,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="53"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10325,13 +10358,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="53" t="s">
+      <c r="D75" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="54" t="s">
+      <c r="E75" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F75" s="60" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10344,9 +10377,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="53"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10435,13 +10468,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="54" t="s">
+      <c r="E85" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="53" t="s">
+      <c r="F85" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10453,9 +10486,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="53"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="60"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10544,13 +10577,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="53" t="s">
+      <c r="D96" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="54" t="s">
+      <c r="E96" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="53" t="s">
+      <c r="F96" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10562,9 +10595,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="53"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="60"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10689,13 +10722,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="53" t="s">
+      <c r="D107" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="54" t="s">
+      <c r="E107" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="53" t="s">
+      <c r="F107" s="60" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10705,13 +10738,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="53" t="s">
+      <c r="L107" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="54" t="s">
+      <c r="M107" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="53" t="s">
+      <c r="N107" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10723,9 +10756,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="53"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="53"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="60"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10733,9 +10766,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="53"/>
-      <c r="M108" s="55"/>
-      <c r="N108" s="53"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="60"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -10859,13 +10892,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="53" t="s">
+      <c r="D118" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="54" t="s">
+      <c r="E118" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="53" t="s">
+      <c r="F118" s="60" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -10878,9 +10911,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="53"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="53"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="60"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -10978,13 +11011,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="53" t="s">
+      <c r="D129" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="54" t="s">
+      <c r="E129" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="53" t="s">
+      <c r="F129" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10996,9 +11029,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="53"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="53"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="60"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11093,13 +11126,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="53" t="s">
+      <c r="D140" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="54" t="s">
+      <c r="E140" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="53" t="s">
+      <c r="F140" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11111,9 +11144,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="53"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="53"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="60"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11205,13 +11238,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="53" t="s">
+      <c r="D151" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="54" t="s">
+      <c r="E151" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="53" t="s">
+      <c r="F151" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11223,9 +11256,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="53"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="53"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="60"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11320,13 +11353,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="53" t="s">
+      <c r="D162" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="54" t="s">
+      <c r="E162" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="53" t="s">
+      <c r="F162" s="60" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11339,9 +11372,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="53"/>
-      <c r="E163" s="55"/>
-      <c r="F163" s="53"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="60"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11438,13 +11471,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="53" t="s">
+      <c r="D173" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="54" t="s">
+      <c r="E173" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="53" t="s">
+      <c r="F173" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11456,9 +11489,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="53"/>
-      <c r="E174" s="55"/>
-      <c r="F174" s="53"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="59"/>
+      <c r="F174" s="60"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11553,13 +11586,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="53" t="s">
+      <c r="D185" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="54" t="s">
+      <c r="E185" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="53" t="s">
+      <c r="F185" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11571,9 +11604,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="53"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="53"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="59"/>
+      <c r="F186" s="60"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11666,13 +11699,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="53" t="s">
+      <c r="D197" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="54" t="s">
+      <c r="E197" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="53" t="s">
+      <c r="F197" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11684,9 +11717,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="53"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="53"/>
+      <c r="D198" s="60"/>
+      <c r="E198" s="59"/>
+      <c r="F198" s="60"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11784,13 +11817,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="53" t="s">
+      <c r="D210" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="54" t="s">
+      <c r="E210" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="53" t="s">
+      <c r="F210" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11802,9 +11835,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="53"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="53"/>
+      <c r="D211" s="60"/>
+      <c r="E211" s="59"/>
+      <c r="F211" s="60"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -11894,13 +11927,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="53" t="s">
+      <c r="D221" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="54" t="s">
+      <c r="E221" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="53" t="s">
+      <c r="F221" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11912,9 +11945,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="53"/>
-      <c r="E222" s="55"/>
-      <c r="F222" s="53"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="59"/>
+      <c r="F222" s="60"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -12004,13 +12037,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="53" t="s">
+      <c r="D232" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="54" t="s">
+      <c r="E232" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="53" t="s">
+      <c r="F232" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12022,9 +12055,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="53"/>
-      <c r="E233" s="55"/>
-      <c r="F233" s="53"/>
+      <c r="D233" s="60"/>
+      <c r="E233" s="59"/>
+      <c r="F233" s="60"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12114,13 +12147,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="53" t="s">
+      <c r="D243" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="54" t="s">
+      <c r="E243" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="53" t="s">
+      <c r="F243" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12132,9 +12165,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="53"/>
-      <c r="E244" s="55"/>
-      <c r="F244" s="53"/>
+      <c r="D244" s="60"/>
+      <c r="E244" s="59"/>
+      <c r="F244" s="60"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12224,13 +12257,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="53" t="s">
+      <c r="D254" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="54" t="s">
+      <c r="E254" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="53" t="s">
+      <c r="F254" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12242,9 +12275,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="53"/>
-      <c r="E255" s="55"/>
-      <c r="F255" s="53"/>
+      <c r="D255" s="60"/>
+      <c r="E255" s="59"/>
+      <c r="F255" s="60"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12287,49 +12320,21 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12346,21 +12351,49 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12392,22 +12425,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="I1" s="57" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -12489,13 +12522,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="60" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12505,13 +12538,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12523,9 +12556,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="53"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12533,9 +12566,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="53"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12695,13 +12728,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="60" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12711,13 +12744,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="54" t="s">
+      <c r="M16" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12729,9 +12762,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="53"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12739,9 +12772,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="53"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -12901,13 +12934,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="60" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -12917,13 +12950,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="L27" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="54" t="s">
+      <c r="M27" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="53" t="s">
+      <c r="N27" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12935,9 +12968,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="53"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -12945,9 +12978,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="53"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="60"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13107,13 +13140,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="60" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13123,13 +13156,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="54" t="s">
+      <c r="M38" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N38" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13141,9 +13174,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="53"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13151,9 +13184,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="53"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="60"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13289,13 +13322,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="60" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13311,9 +13344,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="53"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13414,13 +13447,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F61" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13432,9 +13465,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="53"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="60"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13479,6 +13512,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13495,22 +13544,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14275,16 +14308,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="I1" s="58" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="I1" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -14429,12 +14462,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
@@ -14886,22 +14919,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -14916,42 +14950,48 @@
     <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="G1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
       <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
@@ -14963,6 +15003,9 @@
       </c>
       <c r="E2" s="1">
         <v>330709</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>11</v>
@@ -14990,8 +15033,11 @@
         <f>SUM(V3:V5)</f>
         <v>414742</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -15006,6 +15052,9 @@
       </c>
       <c r="E3" s="2">
         <v>292956</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>0</v>
@@ -15039,92 +15088,107 @@
       <c r="V3" s="2">
         <v>365682</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="59">
+      <c r="C4" s="65">
         <v>11.41</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="60">
         <v>747</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="58">
         <v>37753</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="60" t="s">
         <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>155</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="29"/>
-      <c r="K4" s="59">
+      <c r="K4" s="65">
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="60">
         <v>747</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="58">
         <v>39134</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="60" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="29"/>
-      <c r="T4" s="59">
+      <c r="T4" s="65">
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="53">
+      <c r="U4" s="60">
         <v>747</v>
       </c>
-      <c r="V4" s="54">
+      <c r="V4" s="58">
         <v>49060</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="60" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
       <c r="I5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="53"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="60"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="60"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="53"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T5" s="66"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="60"/>
+      <c r="X5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -15134,6 +15198,9 @@
       <c r="C6" t="s">
         <v>134</v>
       </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
       <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
@@ -15149,14 +15216,20 @@
       <c r="T6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="G7" t="s">
+        <v>155</v>
+      </c>
       <c r="I7" s="13" t="s">
         <v>24</v>
       </c>
@@ -15169,14 +15242,20 @@
       <c r="S7" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>152</v>
       </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
       <c r="I8" s="13" t="s">
         <v>42</v>
       </c>
@@ -15189,8 +15268,11 @@
       <c r="S8" s="30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>132</v>
       </c>
@@ -15199,6 +15281,9 @@
       </c>
       <c r="C9" s="22">
         <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>132</v>
@@ -15214,8 +15299,11 @@
         <v>1</v>
       </c>
       <c r="T9" s="22"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>142</v>
       </c>
@@ -15237,15 +15325,26 @@
       <c r="T10" s="22">
         <v>0.53480000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
       <c r="T12" s="51"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
@@ -15257,6 +15356,9 @@
       </c>
       <c r="E13" s="1">
         <v>330709</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>156</v>
       </c>
       <c r="R13" s="21" t="s">
         <v>11</v>
@@ -15273,8 +15375,11 @@
         <f>SUM(V14:V16)</f>
         <v>414742</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -15289,6 +15394,9 @@
       </c>
       <c r="E14" s="2">
         <v>292956</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>156</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>0</v>
@@ -15306,67 +15414,84 @@
       <c r="V14" s="2">
         <v>365682</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="22">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="60">
         <v>747</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="58">
         <v>37753</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="64" t="s">
         <v>31</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>156</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S15" s="29"/>
-      <c r="T15" s="59">
+      <c r="T15" s="65">
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="53">
+      <c r="U15" s="60">
         <v>747</v>
       </c>
-      <c r="V15" s="54">
+      <c r="V15" s="58">
         <v>49060</v>
       </c>
-      <c r="W15" s="53" t="s">
+      <c r="W15" s="60" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="54" t="s">
+        <v>156</v>
+      </c>
       <c r="R16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T16" s="60"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="53"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T16" s="66"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="60"/>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
@@ -15376,6 +15501,9 @@
       <c r="C17" t="s">
         <v>136</v>
       </c>
+      <c r="G17" s="54" t="s">
+        <v>156</v>
+      </c>
       <c r="R17" s="13" t="s">
         <v>22</v>
       </c>
@@ -15385,36 +15513,51 @@
       <c r="T17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="G18" s="54" t="s">
+        <v>156</v>
+      </c>
       <c r="R18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="S18" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>152</v>
       </c>
+      <c r="G19" s="54" t="s">
+        <v>156</v>
+      </c>
       <c r="R19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="S19" s="30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>132</v>
       </c>
@@ -15424,6 +15567,9 @@
       <c r="C20" s="22">
         <v>5.62E-2</v>
       </c>
+      <c r="G20" s="54" t="s">
+        <v>156</v>
+      </c>
       <c r="R20" s="13" t="s">
         <v>132</v>
       </c>
@@ -15431,14 +15577,27 @@
         <v>1</v>
       </c>
       <c r="T20" s="22"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>143</v>
       </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="G21" s="54" t="s">
+        <v>156</v>
+      </c>
       <c r="R21" s="48" t="s">
         <v>142</v>
       </c>
@@ -15448,15 +15607,61 @@
       <c r="T21" s="22">
         <v>0.53820000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="56">
+        <v>1855</v>
+      </c>
+      <c r="C22" s="22">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D22" s="46">
+        <v>1577</v>
+      </c>
+      <c r="E22" s="57">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="X22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="56">
+        <v>1270</v>
+      </c>
+      <c r="C23" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D23" s="46">
+        <v>989</v>
+      </c>
+      <c r="E23" s="57">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="X23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
       <c r="T24" s="51"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R25" s="21" t="s">
         <v>11</v>
       </c>
@@ -15472,8 +15677,11 @@
         <f>SUM(V26:V28)</f>
         <v>414742</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R26" s="6" t="s">
         <v>0</v>
       </c>
@@ -15490,35 +15698,44 @@
       <c r="V26" s="2">
         <v>365682</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S27" s="29"/>
-      <c r="T27" s="59">
+      <c r="T27" s="65">
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="53">
+      <c r="U27" s="60">
         <v>747</v>
       </c>
-      <c r="V27" s="54">
+      <c r="V27" s="58">
         <v>49060</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T28" s="60"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="55"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T28" s="66"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="59"/>
+      <c r="X28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R29" s="13" t="s">
         <v>22</v>
       </c>
@@ -15528,24 +15745,33 @@
       <c r="T29" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R30" s="13" t="s">
         <v>24</v>
       </c>
       <c r="S30" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R31" s="13" t="s">
         <v>42</v>
       </c>
       <c r="S31" s="30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R32" s="13" t="s">
         <v>132</v>
       </c>
@@ -15553,8 +15779,11 @@
         <v>1</v>
       </c>
       <c r="T32" s="22"/>
-    </row>
-    <row r="33" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R33" s="48" t="s">
         <v>142</v>
       </c>
@@ -15564,8 +15793,16 @@
       <c r="T33" s="22">
         <v>0.54520000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="X34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R35" s="21" t="s">
         <v>11</v>
       </c>
@@ -15581,8 +15818,11 @@
         <f>SUM(V36:V38)</f>
         <v>330709</v>
       </c>
-    </row>
-    <row r="36" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R36" s="6" t="s">
         <v>0</v>
       </c>
@@ -15599,35 +15839,44 @@
       <c r="V36" s="2">
         <v>292956</v>
       </c>
-    </row>
-    <row r="37" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R37" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S37" s="29"/>
-      <c r="T37" s="59">
+      <c r="T37" s="65">
         <f>(V37/V35)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U37" s="53">
+      <c r="U37" s="60">
         <v>747</v>
       </c>
-      <c r="V37" s="54">
+      <c r="V37" s="58">
         <v>37753</v>
       </c>
-    </row>
-    <row r="38" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R38" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S38" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T38" s="60"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="55"/>
-    </row>
-    <row r="39" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="T38" s="66"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="59"/>
+      <c r="X38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R39" s="13" t="s">
         <v>22</v>
       </c>
@@ -15637,24 +15886,33 @@
       <c r="T39" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R40" s="13" t="s">
         <v>24</v>
       </c>
       <c r="S40" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="41" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R41" s="13" t="s">
         <v>42</v>
       </c>
       <c r="S41" s="30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R42" s="13" t="s">
         <v>132</v>
       </c>
@@ -15662,26 +15920,35 @@
         <v>1</v>
       </c>
       <c r="T42" s="22"/>
-    </row>
-    <row r="43" spans="18:22" x14ac:dyDescent="0.3">
+      <c r="X42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R43" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="S43" s="65" t="s">
+      <c r="S43" s="53" t="s">
         <v>143</v>
       </c>
       <c r="T43" s="22">
         <v>0.35649999999999998</v>
       </c>
+      <c r="X43" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -15692,18 +15959,15 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="U15:U16"/>
     <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\MST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MST\MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="166">
   <si>
     <t>Doc Name</t>
   </si>
@@ -813,6 +813,146 @@
   <si>
     <t>sukun + fatha _ dictionary</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">39 IPS, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 250 nodes, OP 479</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>39 IPS, 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 250 nodes, OP 479</t>
+    </r>
+  </si>
+  <si>
+    <t>2 steps, first step with noise = 0, second step with noise = 0.075</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37 IPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1 hidden, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nodes, OP 14</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Considered</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39 IPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1 hidden, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nodes, OP 14</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -945,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1066,6 +1206,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1073,7 +1222,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,13 +1351,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,9 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,6 +1387,18 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9632,13 +9790,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9650,9 +9808,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9733,13 +9891,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9751,9 +9909,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -9834,13 +9992,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9852,9 +10010,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -9941,7 +10099,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="58" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9959,7 +10117,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="60"/>
+      <c r="F36" s="58"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -10040,13 +10198,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10058,9 +10216,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="58"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10141,13 +10299,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10159,9 +10317,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="58"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10245,13 +10403,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="58" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10264,9 +10422,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10358,13 +10516,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="D75" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="60" t="s">
+      <c r="F75" s="58" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10377,9 +10535,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10468,13 +10626,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D85" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="58" t="s">
+      <c r="E85" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F85" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10486,9 +10644,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="60"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="58"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10577,13 +10735,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="60" t="s">
+      <c r="D96" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="58" t="s">
+      <c r="E96" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="60" t="s">
+      <c r="F96" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10595,9 +10753,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="60"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="58"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10722,13 +10880,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="60" t="s">
+      <c r="D107" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="58" t="s">
+      <c r="E107" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="60" t="s">
+      <c r="F107" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10738,13 +10896,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="60" t="s">
+      <c r="L107" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="58" t="s">
+      <c r="M107" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="60" t="s">
+      <c r="N107" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10756,9 +10914,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="60"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="60"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="58"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10766,9 +10924,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="60"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="60"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="60"/>
+      <c r="N108" s="58"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -10892,13 +11050,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="60" t="s">
+      <c r="D118" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="58" t="s">
+      <c r="E118" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="60" t="s">
+      <c r="F118" s="58" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -10911,9 +11069,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="60"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="60"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="58"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -11011,13 +11169,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="D129" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="58" t="s">
+      <c r="E129" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="60" t="s">
+      <c r="F129" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11029,9 +11187,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="59"/>
-      <c r="F130" s="60"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="58"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11126,13 +11284,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="60" t="s">
+      <c r="D140" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="58" t="s">
+      <c r="E140" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="60" t="s">
+      <c r="F140" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11144,9 +11302,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="60"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="60"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="58"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11238,13 +11396,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="60" t="s">
+      <c r="D151" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="58" t="s">
+      <c r="E151" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="60" t="s">
+      <c r="F151" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11256,9 +11414,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="60"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="60"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="58"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11353,13 +11511,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="60" t="s">
+      <c r="D162" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="58" t="s">
+      <c r="E162" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="60" t="s">
+      <c r="F162" s="58" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11372,9 +11530,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="60"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="60"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="58"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11471,13 +11629,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="60" t="s">
+      <c r="D173" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="58" t="s">
+      <c r="E173" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="60" t="s">
+      <c r="F173" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11489,9 +11647,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="60"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="60"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="60"/>
+      <c r="F174" s="58"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11586,13 +11744,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="60" t="s">
+      <c r="D185" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="58" t="s">
+      <c r="E185" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="60" t="s">
+      <c r="F185" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11604,9 +11762,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="60"/>
-      <c r="E186" s="59"/>
-      <c r="F186" s="60"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="60"/>
+      <c r="F186" s="58"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11699,13 +11857,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="60" t="s">
+      <c r="D197" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="58" t="s">
+      <c r="E197" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="60" t="s">
+      <c r="F197" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11717,9 +11875,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="60"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="60"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="60"/>
+      <c r="F198" s="58"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11817,13 +11975,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="60" t="s">
+      <c r="D210" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="58" t="s">
+      <c r="E210" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="60" t="s">
+      <c r="F210" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11835,9 +11993,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="60"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="60"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="60"/>
+      <c r="F211" s="58"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -11927,13 +12085,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="60" t="s">
+      <c r="D221" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="58" t="s">
+      <c r="E221" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="60" t="s">
+      <c r="F221" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11945,9 +12103,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="60"/>
-      <c r="E222" s="59"/>
-      <c r="F222" s="60"/>
+      <c r="D222" s="58"/>
+      <c r="E222" s="60"/>
+      <c r="F222" s="58"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -12037,13 +12195,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="60" t="s">
+      <c r="D232" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="58" t="s">
+      <c r="E232" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="60" t="s">
+      <c r="F232" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12055,9 +12213,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="60"/>
-      <c r="E233" s="59"/>
-      <c r="F233" s="60"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="60"/>
+      <c r="F233" s="58"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12147,13 +12305,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="60" t="s">
+      <c r="D243" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="58" t="s">
+      <c r="E243" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="60" t="s">
+      <c r="F243" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12165,9 +12323,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="60"/>
-      <c r="E244" s="59"/>
-      <c r="F244" s="60"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="60"/>
+      <c r="F244" s="58"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12257,13 +12415,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="60" t="s">
+      <c r="D254" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="58" t="s">
+      <c r="E254" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="60" t="s">
+      <c r="F254" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12275,9 +12433,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="60"/>
-      <c r="E255" s="59"/>
-      <c r="F255" s="60"/>
+      <c r="D255" s="58"/>
+      <c r="E255" s="60"/>
+      <c r="F255" s="58"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12320,21 +12478,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12351,49 +12537,21 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12522,13 +12680,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12538,13 +12696,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12556,9 +12714,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="58"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12566,9 +12724,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12728,13 +12886,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12744,13 +12902,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="60" t="s">
+      <c r="N16" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12762,9 +12920,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="58"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12772,9 +12930,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -12934,13 +13092,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -12950,13 +13108,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M27" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="60" t="s">
+      <c r="N27" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12968,9 +13126,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="58"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -12978,9 +13136,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13140,13 +13298,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13156,13 +13314,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="60" t="s">
+      <c r="L38" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="58" t="s">
+      <c r="M38" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="60" t="s">
+      <c r="N38" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13174,9 +13332,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="58"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13184,9 +13342,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="60"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="58"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13322,13 +13480,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="58" t="s">
+      <c r="E50" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="60" t="s">
+      <c r="F50" s="58" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13344,9 +13502,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13447,13 +13605,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="58" t="s">
+      <c r="E61" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13465,9 +13623,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="58"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13512,22 +13670,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13544,6 +13686,22 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14919,19 +15077,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -14951,11 +15109,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
@@ -14965,22 +15123,22 @@
       <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15097,16 +15255,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="65">
+      <c r="C4" s="64">
         <v>11.41</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="58">
         <v>747</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="59">
         <v>37753</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="58" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
@@ -15116,34 +15274,34 @@
         <v>4</v>
       </c>
       <c r="J4" s="29"/>
-      <c r="K4" s="65">
+      <c r="K4" s="64">
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="58">
         <v>747</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="59">
         <v>39134</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="58" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="29"/>
-      <c r="T4" s="65">
+      <c r="T4" s="64">
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="60">
+      <c r="U4" s="58">
         <v>747</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="59">
         <v>49060</v>
       </c>
-      <c r="W4" s="60" t="s">
+      <c r="W4" s="58" t="s">
         <v>31</v>
       </c>
       <c r="X4" t="s">
@@ -15157,10 +15315,10 @@
       <c r="B5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="58"/>
       <c r="G5" t="s">
         <v>155</v>
       </c>
@@ -15170,20 +15328,20 @@
       <c r="J5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="58"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="60"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="58"/>
       <c r="X5" t="s">
         <v>155</v>
       </c>
@@ -15428,13 +15586,13 @@
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="58">
         <v>747</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="59">
         <v>37753</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="70" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="54" t="s">
@@ -15444,17 +15602,17 @@
         <v>4</v>
       </c>
       <c r="S15" s="29"/>
-      <c r="T15" s="65">
+      <c r="T15" s="64">
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="60">
+      <c r="U15" s="58">
         <v>747</v>
       </c>
-      <c r="V15" s="58">
+      <c r="V15" s="59">
         <v>49060</v>
       </c>
-      <c r="W15" s="60" t="s">
+      <c r="W15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="X15" t="s">
@@ -15471,9 +15629,9 @@
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="64"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="54" t="s">
         <v>156</v>
       </c>
@@ -15483,10 +15641,10 @@
       <c r="S16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T16" s="66"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="60"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="58"/>
       <c r="X16" t="s">
         <v>155</v>
       </c>
@@ -15662,6 +15820,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G25" s="71"/>
       <c r="R25" s="21" t="s">
         <v>11</v>
       </c>
@@ -15682,6 +15841,19 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="26">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6236</v>
+      </c>
+      <c r="E26" s="1">
+        <v>330709</v>
+      </c>
+      <c r="G26" s="71"/>
       <c r="R26" s="6" t="s">
         <v>0</v>
       </c>
@@ -15703,18 +15875,34 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="28">
+        <v>88.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5489</v>
+      </c>
+      <c r="E27" s="2">
+        <v>292956</v>
+      </c>
+      <c r="G27" s="71"/>
       <c r="R27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S27" s="29"/>
-      <c r="T27" s="65">
+      <c r="T27" s="64">
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="60">
+      <c r="U27" s="58">
         <v>747</v>
       </c>
-      <c r="V27" s="58">
+      <c r="V27" s="59">
         <v>49060</v>
       </c>
       <c r="X27" t="s">
@@ -15722,20 +15910,48 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D28" s="58">
+        <v>747</v>
+      </c>
+      <c r="E28" s="59">
+        <v>37753</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="71"/>
       <c r="R28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T28" s="66"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="59"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="60"/>
       <c r="X28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
       <c r="R29" s="13" t="s">
         <v>22</v>
       </c>
@@ -15750,6 +15966,16 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="71"/>
       <c r="R30" s="13" t="s">
         <v>24</v>
       </c>
@@ -15761,6 +15987,13 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G31" s="71"/>
       <c r="R31" s="13" t="s">
         <v>42</v>
       </c>
@@ -15772,6 +16005,13 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="71"/>
       <c r="R32" s="13" t="s">
         <v>132</v>
       </c>
@@ -15783,7 +16023,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
       <c r="R33" s="48" t="s">
         <v>142</v>
       </c>
@@ -15797,12 +16048,32 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
       <c r="X34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
       <c r="R35" s="21" t="s">
         <v>11</v>
       </c>
@@ -15822,7 +16093,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
       <c r="R36" s="6" t="s">
         <v>0</v>
       </c>
@@ -15843,40 +16123,57 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
       <c r="R37" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S37" s="29"/>
-      <c r="T37" s="65">
+      <c r="T37" s="64">
         <f>(V37/V35)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U37" s="60">
+      <c r="U37" s="58">
         <v>747</v>
       </c>
-      <c r="V37" s="58">
+      <c r="V37" s="59">
         <v>37753</v>
       </c>
       <c r="X37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G38" s="71"/>
       <c r="R38" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S38" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="T38" s="66"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="59"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="60"/>
       <c r="X38" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="26">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6236</v>
+      </c>
+      <c r="E39" s="1">
+        <v>330709</v>
+      </c>
+      <c r="G39" s="71"/>
       <c r="R39" s="13" t="s">
         <v>22</v>
       </c>
@@ -15890,7 +16187,23 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="28">
+        <v>88.5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5489</v>
+      </c>
+      <c r="E40" s="2">
+        <v>292956</v>
+      </c>
+      <c r="G40" s="71"/>
       <c r="R40" s="13" t="s">
         <v>24</v>
       </c>
@@ -15901,7 +16214,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D41" s="58">
+        <v>747</v>
+      </c>
+      <c r="E41" s="59">
+        <v>37753</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="71"/>
       <c r="R41" s="13" t="s">
         <v>42</v>
       </c>
@@ -15912,7 +16242,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
       <c r="R42" s="13" t="s">
         <v>132</v>
       </c>
@@ -15924,7 +16265,17 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="71"/>
       <c r="R43" s="48" t="s">
         <v>142</v>
       </c>
@@ -15938,17 +16289,302 @@
         <v>155</v>
       </c>
     </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="71"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="71"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="R46" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S46" s="26">
+        <v>38</v>
+      </c>
+      <c r="T46" s="43"/>
+      <c r="U46" s="52">
+        <f>SUM(U47:U49)</f>
+        <v>6236</v>
+      </c>
+      <c r="V46" s="52">
+        <f>SUM(V47:V49)</f>
+        <v>330709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="R47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="T47" s="28">
+        <f>(V47/V46)*100</f>
+        <v>88.584223592342511</v>
+      </c>
+      <c r="U47" s="2">
+        <v>5489</v>
+      </c>
+      <c r="V47" s="2">
+        <v>292956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="74"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="R48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="29"/>
+      <c r="T48" s="64">
+        <f>(V48/V46)*100</f>
+        <v>11.415776407657487</v>
+      </c>
+      <c r="U48" s="58">
+        <v>747</v>
+      </c>
+      <c r="V48" s="59">
+        <v>37753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="74"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="R49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" s="30"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="60"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="R50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="R51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S52" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R53" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S53" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" s="22"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R54" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="S54" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="T54" s="22"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S56" s="26">
+        <v>39</v>
+      </c>
+      <c r="T56" s="43"/>
+      <c r="U56" s="52">
+        <f>SUM(U57:U59)</f>
+        <v>6236</v>
+      </c>
+      <c r="V56" s="52">
+        <f>SUM(V57:V59)</f>
+        <v>330709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="T57" s="28">
+        <f>(V57/V56)*100</f>
+        <v>88.584223592342511</v>
+      </c>
+      <c r="U57" s="2">
+        <v>5489</v>
+      </c>
+      <c r="V57" s="2">
+        <v>292956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="29"/>
+      <c r="T58" s="64">
+        <f>(V58/V56)*100</f>
+        <v>11.415776407657487</v>
+      </c>
+      <c r="U58" s="58">
+        <v>747</v>
+      </c>
+      <c r="V58" s="59">
+        <v>37753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S59" s="30"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="60"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R60" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S60" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R61" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R62" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S62" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R63" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S63" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63" s="22"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R64" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="S64" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="T64" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+  <mergeCells count="40">
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -15959,15 +16595,15 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="167">
   <si>
     <t>Doc Name</t>
   </si>
@@ -953,6 +953,9 @@
       <t xml:space="preserve"> nodes, OP 14</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">sukun + fatha </t>
+  </si>
 </sst>
 </file>
 
@@ -1222,7 +1225,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,13 +1354,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1375,6 +1387,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1387,18 +1402,9 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9738,10 +9744,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -9790,13 +9796,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9808,9 +9814,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="58"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9891,13 +9897,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9909,9 +9915,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -9992,13 +9998,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10010,9 +10016,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="58"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -10099,7 +10105,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="65" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10117,7 +10123,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="58"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -10198,13 +10204,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D45" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10216,9 +10222,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="58"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10299,13 +10305,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10317,9 +10323,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="58"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10403,13 +10409,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="59" t="s">
+      <c r="E65" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="58" t="s">
+      <c r="F65" s="65" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10422,9 +10428,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="58"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="65"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10516,13 +10522,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="59" t="s">
+      <c r="E75" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="58" t="s">
+      <c r="F75" s="65" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10535,9 +10541,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="58"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10626,13 +10632,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="59" t="s">
+      <c r="E85" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="58" t="s">
+      <c r="F85" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10644,9 +10650,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="58"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="65"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10735,13 +10741,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="58" t="s">
+      <c r="D96" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="59" t="s">
+      <c r="E96" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="58" t="s">
+      <c r="F96" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10753,9 +10759,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="58"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="65"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10880,13 +10886,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="58" t="s">
+      <c r="D107" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="58" t="s">
+      <c r="F107" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10896,13 +10902,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="58" t="s">
+      <c r="L107" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="59" t="s">
+      <c r="M107" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="58" t="s">
+      <c r="N107" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10914,9 +10920,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="58"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="58"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="65"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10924,9 +10930,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="58"/>
-      <c r="M108" s="60"/>
-      <c r="N108" s="58"/>
+      <c r="L108" s="65"/>
+      <c r="M108" s="64"/>
+      <c r="N108" s="65"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -11050,13 +11056,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="58" t="s">
+      <c r="D118" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="59" t="s">
+      <c r="E118" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="58" t="s">
+      <c r="F118" s="65" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -11069,9 +11075,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="58"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="58"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="65"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -11169,13 +11175,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="59" t="s">
+      <c r="E129" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="58" t="s">
+      <c r="F129" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11187,9 +11193,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="58"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="58"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="65"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11284,13 +11290,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="58" t="s">
+      <c r="D140" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="59" t="s">
+      <c r="E140" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="58" t="s">
+      <c r="F140" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11302,9 +11308,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="58"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="58"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="64"/>
+      <c r="F141" s="65"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11396,13 +11402,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="58" t="s">
+      <c r="D151" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="59" t="s">
+      <c r="E151" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="58" t="s">
+      <c r="F151" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11414,9 +11420,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="58"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="58"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="64"/>
+      <c r="F152" s="65"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11511,13 +11517,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="58" t="s">
+      <c r="D162" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="59" t="s">
+      <c r="E162" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="58" t="s">
+      <c r="F162" s="65" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11530,9 +11536,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="58"/>
-      <c r="E163" s="60"/>
-      <c r="F163" s="58"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="65"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11629,13 +11635,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="58" t="s">
+      <c r="D173" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="59" t="s">
+      <c r="E173" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="58" t="s">
+      <c r="F173" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11647,9 +11653,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="58"/>
-      <c r="E174" s="60"/>
-      <c r="F174" s="58"/>
+      <c r="D174" s="65"/>
+      <c r="E174" s="64"/>
+      <c r="F174" s="65"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11744,13 +11750,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="58" t="s">
+      <c r="D185" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="59" t="s">
+      <c r="E185" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="58" t="s">
+      <c r="F185" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11762,9 +11768,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="58"/>
-      <c r="E186" s="60"/>
-      <c r="F186" s="58"/>
+      <c r="D186" s="65"/>
+      <c r="E186" s="64"/>
+      <c r="F186" s="65"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11857,13 +11863,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="58" t="s">
+      <c r="D197" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="59" t="s">
+      <c r="E197" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="58" t="s">
+      <c r="F197" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11875,9 +11881,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="58"/>
-      <c r="E198" s="60"/>
-      <c r="F198" s="58"/>
+      <c r="D198" s="65"/>
+      <c r="E198" s="64"/>
+      <c r="F198" s="65"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11975,13 +11981,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="58" t="s">
+      <c r="D210" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="59" t="s">
+      <c r="E210" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="58" t="s">
+      <c r="F210" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11993,9 +11999,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="58"/>
-      <c r="E211" s="60"/>
-      <c r="F211" s="58"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="64"/>
+      <c r="F211" s="65"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -12085,13 +12091,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="58" t="s">
+      <c r="D221" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="59" t="s">
+      <c r="E221" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="58" t="s">
+      <c r="F221" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12103,9 +12109,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="58"/>
-      <c r="E222" s="60"/>
-      <c r="F222" s="58"/>
+      <c r="D222" s="65"/>
+      <c r="E222" s="64"/>
+      <c r="F222" s="65"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -12195,13 +12201,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="58" t="s">
+      <c r="D232" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="59" t="s">
+      <c r="E232" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="58" t="s">
+      <c r="F232" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12213,9 +12219,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="58"/>
-      <c r="E233" s="60"/>
-      <c r="F233" s="58"/>
+      <c r="D233" s="65"/>
+      <c r="E233" s="64"/>
+      <c r="F233" s="65"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12305,13 +12311,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="58" t="s">
+      <c r="D243" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="59" t="s">
+      <c r="E243" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="58" t="s">
+      <c r="F243" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12323,9 +12329,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="58"/>
-      <c r="E244" s="60"/>
-      <c r="F244" s="58"/>
+      <c r="D244" s="65"/>
+      <c r="E244" s="64"/>
+      <c r="F244" s="65"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12415,13 +12421,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="58" t="s">
+      <c r="D254" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="59" t="s">
+      <c r="E254" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="58" t="s">
+      <c r="F254" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12433,9 +12439,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="58"/>
-      <c r="E255" s="60"/>
-      <c r="F255" s="58"/>
+      <c r="D255" s="65"/>
+      <c r="E255" s="64"/>
+      <c r="F255" s="65"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12478,49 +12484,21 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12537,21 +12515,49 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12583,22 +12589,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="I1" s="62" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -12680,13 +12686,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12696,13 +12702,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12714,9 +12720,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="58"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12724,9 +12730,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="58"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12886,13 +12892,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12902,13 +12908,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="59" t="s">
+      <c r="M16" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="58" t="s">
+      <c r="N16" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12920,9 +12926,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="58"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12930,9 +12936,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="58"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -13092,13 +13098,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -13108,13 +13114,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="58" t="s">
+      <c r="L27" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="58" t="s">
+      <c r="N27" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13126,9 +13132,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="58"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -13136,9 +13142,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="58"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="65"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13298,13 +13304,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="65" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13314,13 +13320,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="58" t="s">
+      <c r="L38" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="59" t="s">
+      <c r="M38" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="58" t="s">
+      <c r="N38" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13332,9 +13338,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="58"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13342,9 +13348,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="58"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="58"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="65"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13480,13 +13486,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="65" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13502,9 +13508,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="58"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13605,13 +13611,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D61" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="59" t="s">
+      <c r="E61" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13623,9 +13629,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="58"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="65"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13670,6 +13676,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13686,22 +13708,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14466,16 +14472,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="I1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -14620,12 +14626,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
@@ -15079,10 +15085,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15109,11 +15115,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15123,22 +15129,22 @@
       <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15255,16 +15261,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="64">
+      <c r="C4" s="69">
         <v>11.41</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="65">
         <v>747</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="63">
         <v>37753</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="65" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
@@ -15274,34 +15280,34 @@
         <v>4</v>
       </c>
       <c r="J4" s="29"/>
-      <c r="K4" s="64">
+      <c r="K4" s="69">
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="65">
         <v>747</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="63">
         <v>39134</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="65" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="29"/>
-      <c r="T4" s="64">
+      <c r="T4" s="69">
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="58">
+      <c r="U4" s="65">
         <v>747</v>
       </c>
-      <c r="V4" s="59">
+      <c r="V4" s="63">
         <v>49060</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="65" t="s">
         <v>31</v>
       </c>
       <c r="X4" t="s">
@@ -15315,10 +15321,10 @@
       <c r="B5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
       <c r="G5" t="s">
         <v>155</v>
       </c>
@@ -15328,20 +15334,20 @@
       <c r="J5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="58"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="65"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="58"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="65"/>
       <c r="X5" t="s">
         <v>155</v>
       </c>
@@ -15586,13 +15592,13 @@
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="65">
         <v>747</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="63">
         <v>37753</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="71" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="54" t="s">
@@ -15602,17 +15608,17 @@
         <v>4</v>
       </c>
       <c r="S15" s="29"/>
-      <c r="T15" s="64">
+      <c r="T15" s="69">
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="58">
+      <c r="U15" s="65">
         <v>747</v>
       </c>
-      <c r="V15" s="59">
+      <c r="V15" s="63">
         <v>49060</v>
       </c>
-      <c r="W15" s="58" t="s">
+      <c r="W15" s="65" t="s">
         <v>31</v>
       </c>
       <c r="X15" t="s">
@@ -15629,9 +15635,9 @@
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="70"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="54" t="s">
         <v>156</v>
       </c>
@@ -15641,10 +15647,10 @@
       <c r="S16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T16" s="65"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="58"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="65"/>
       <c r="X16" t="s">
         <v>155</v>
       </c>
@@ -15820,7 +15826,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G25" s="71"/>
+      <c r="G25" s="58"/>
       <c r="R25" s="21" t="s">
         <v>11</v>
       </c>
@@ -15853,7 +15859,7 @@
       <c r="E26" s="1">
         <v>330709</v>
       </c>
-      <c r="G26" s="71"/>
+      <c r="G26" s="58"/>
       <c r="R26" s="6" t="s">
         <v>0</v>
       </c>
@@ -15890,19 +15896,19 @@
       <c r="E27" s="2">
         <v>292956</v>
       </c>
-      <c r="G27" s="71"/>
+      <c r="G27" s="58"/>
       <c r="R27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S27" s="29"/>
-      <c r="T27" s="64">
+      <c r="T27" s="69">
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="58">
+      <c r="U27" s="65">
         <v>747</v>
       </c>
-      <c r="V27" s="59">
+      <c r="V27" s="63">
         <v>49060</v>
       </c>
       <c r="X27" t="s">
@@ -15913,29 +15919,31 @@
       <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="76">
+        <v>3.9E-2</v>
+      </c>
       <c r="C28" s="28">
         <v>11.41</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="65">
         <v>747</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="63">
         <v>37753</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="71"/>
+      <c r="G28" s="58"/>
       <c r="R28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T28" s="65"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="60"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="64"/>
       <c r="X28" t="s">
         <v>155</v>
       </c>
@@ -15944,14 +15952,16 @@
       <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="C29" s="28">
         <v>11.41</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="58"/>
       <c r="R29" s="13" t="s">
         <v>22</v>
       </c>
@@ -15975,7 +15985,7 @@
       <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="71"/>
+      <c r="G30" s="58"/>
       <c r="R30" s="13" t="s">
         <v>24</v>
       </c>
@@ -15993,7 +16003,7 @@
       <c r="B31" s="30">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G31" s="71"/>
+      <c r="G31" s="58"/>
       <c r="R31" s="13" t="s">
         <v>42</v>
       </c>
@@ -16011,7 +16021,7 @@
       <c r="B32" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G32" s="71"/>
+      <c r="G32" s="58"/>
       <c r="R32" s="13" t="s">
         <v>132</v>
       </c>
@@ -16027,14 +16037,16 @@
       <c r="A33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="72" t="b">
+      <c r="B33" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
       <c r="R33" s="48" t="s">
         <v>142</v>
       </c>
@@ -16052,14 +16064,18 @@
       <c r="A34" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="46">
+        <v>1485</v>
+      </c>
+      <c r="E34" s="57">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
       <c r="X34" t="s">
         <v>155</v>
       </c>
@@ -16068,12 +16084,18 @@
       <c r="A35" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
+      <c r="B35" s="61">
+        <v>1485</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="46">
+        <v>919</v>
+      </c>
+      <c r="E35" s="57">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="R35" s="21" t="s">
         <v>11</v>
       </c>
@@ -16097,12 +16119,14 @@
       <c r="A36" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
+      <c r="B36" s="61">
+        <v>919</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
       <c r="R36" s="6" t="s">
         <v>0</v>
       </c>
@@ -16124,23 +16148,23 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
       <c r="R37" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S37" s="29"/>
-      <c r="T37" s="64">
+      <c r="T37" s="69">
         <f>(V37/V35)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U37" s="58">
+      <c r="U37" s="65">
         <v>747</v>
       </c>
-      <c r="V37" s="59">
+      <c r="V37" s="63">
         <v>37753</v>
       </c>
       <c r="X37" t="s">
@@ -16148,14 +16172,14 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G38" s="71"/>
+      <c r="G38" s="58"/>
       <c r="R38" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S38" s="30"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="60"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="64"/>
       <c r="X38" t="s">
         <v>155</v>
       </c>
@@ -16173,7 +16197,7 @@
       <c r="E39" s="1">
         <v>330709</v>
       </c>
-      <c r="G39" s="71"/>
+      <c r="G39" s="58"/>
       <c r="R39" s="13" t="s">
         <v>22</v>
       </c>
@@ -16203,7 +16227,7 @@
       <c r="E40" s="2">
         <v>292956</v>
       </c>
-      <c r="G40" s="71"/>
+      <c r="G40" s="58"/>
       <c r="R40" s="13" t="s">
         <v>24</v>
       </c>
@@ -16218,20 +16242,22 @@
       <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="76">
+        <v>4.5900000000000003E-2</v>
+      </c>
       <c r="C41" s="28">
         <v>11.41</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="65">
         <v>747</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="63">
         <v>37753</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="71"/>
+      <c r="G41" s="58"/>
       <c r="R41" s="13" t="s">
         <v>42</v>
       </c>
@@ -16250,10 +16276,10 @@
       <c r="C42" s="28">
         <v>11.41</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="58"/>
       <c r="R42" s="13" t="s">
         <v>132</v>
       </c>
@@ -16275,7 +16301,7 @@
       <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="71"/>
+      <c r="G43" s="58"/>
       <c r="R43" s="48" t="s">
         <v>142</v>
       </c>
@@ -16299,7 +16325,7 @@
       <c r="C44" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="71"/>
+      <c r="G44" s="58"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
@@ -16308,20 +16334,20 @@
       <c r="B45" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G45" s="71"/>
+      <c r="G45" s="58"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="72" t="b">
+      <c r="B46" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
       <c r="R46" s="21" t="s">
         <v>11</v>
       </c>
@@ -16342,14 +16368,16 @@
       <c r="A47" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="R47" s="6" t="s">
         <v>0</v>
       </c>
@@ -16371,24 +16399,30 @@
       <c r="A48" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="74"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
+      <c r="B48" s="61">
+        <v>1733</v>
+      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="46">
+        <v>1733</v>
+      </c>
+      <c r="E48" s="57">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
       <c r="R48" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S48" s="29"/>
-      <c r="T48" s="64">
+      <c r="T48" s="69">
         <f>(V48/V46)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U48" s="58">
+      <c r="U48" s="65">
         <v>747</v>
       </c>
-      <c r="V48" s="59">
+      <c r="V48" s="63">
         <v>37753</v>
       </c>
     </row>
@@ -16396,25 +16430,31 @@
       <c r="A49" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
+      <c r="B49" s="61">
+        <v>1169</v>
+      </c>
+      <c r="C49" s="62"/>
+      <c r="D49" s="46">
+        <v>1169</v>
+      </c>
+      <c r="E49" s="57">
+        <v>3.09E-2</v>
+      </c>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
       <c r="R49" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S49" s="30"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="60"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="65"/>
+      <c r="V49" s="64"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
       <c r="R50" s="13" t="s">
         <v>22</v>
       </c>
@@ -16423,10 +16463,10 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
       <c r="R51" s="13" t="s">
         <v>24</v>
       </c>
@@ -16500,14 +16540,14 @@
         <v>4</v>
       </c>
       <c r="S58" s="29"/>
-      <c r="T58" s="64">
+      <c r="T58" s="69">
         <f>(V58/V56)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U58" s="58">
+      <c r="U58" s="65">
         <v>747</v>
       </c>
-      <c r="V58" s="59">
+      <c r="V58" s="63">
         <v>37753</v>
       </c>
     </row>
@@ -16516,9 +16556,9 @@
         <v>12</v>
       </c>
       <c r="S59" s="30"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="60"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="64"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R60" s="13" t="s">
@@ -16564,15 +16604,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="V37:V38"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -16585,25 +16635,15 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="168">
   <si>
     <t>Doc Name</t>
   </si>
@@ -956,6 +956,9 @@
   <si>
     <t xml:space="preserve">sukun + fatha </t>
   </si>
+  <si>
+    <t>39 IPS, 2 hidden, 250 nodes, OP 450</t>
+  </si>
 </sst>
 </file>
 
@@ -1363,13 +1366,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,9 +1393,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1402,8 +1405,8 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9744,10 +9747,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -9796,13 +9799,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9814,9 +9817,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9897,13 +9900,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9915,9 +9918,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -9998,13 +10001,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10016,9 +10019,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -10105,7 +10108,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="64" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10123,7 +10126,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="65"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -10204,13 +10207,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="E45" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="65" t="s">
+      <c r="F45" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10222,9 +10225,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10305,13 +10308,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="63" t="s">
+      <c r="E55" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="F55" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10323,9 +10326,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="64"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10409,13 +10412,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="65" t="s">
+      <c r="D65" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="63" t="s">
+      <c r="E65" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="65" t="s">
+      <c r="F65" s="64" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10428,9 +10431,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="65"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10522,13 +10525,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="65" t="s">
+      <c r="D75" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="65" t="s">
+      <c r="F75" s="64" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10541,9 +10544,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="65"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10632,13 +10635,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="65" t="s">
+      <c r="D85" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="63" t="s">
+      <c r="E85" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="65" t="s">
+      <c r="F85" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10650,9 +10653,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="65"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="65"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="64"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10741,13 +10744,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="63" t="s">
+      <c r="E96" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="65" t="s">
+      <c r="F96" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10759,9 +10762,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="65"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="64"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10886,13 +10889,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="65" t="s">
+      <c r="D107" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="63" t="s">
+      <c r="E107" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="65" t="s">
+      <c r="F107" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10902,13 +10905,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="65" t="s">
+      <c r="L107" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="63" t="s">
+      <c r="M107" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="65" t="s">
+      <c r="N107" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10920,9 +10923,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="65"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="64"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10930,9 +10933,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="65"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="65"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="66"/>
+      <c r="N108" s="64"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -11056,13 +11059,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="65" t="s">
+      <c r="D118" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="63" t="s">
+      <c r="E118" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="65" t="s">
+      <c r="F118" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -11075,9 +11078,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="65"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="65"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="64"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -11175,13 +11178,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="65" t="s">
+      <c r="D129" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="63" t="s">
+      <c r="E129" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="65" t="s">
+      <c r="F129" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11193,9 +11196,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="65"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="64"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11290,13 +11293,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="65" t="s">
+      <c r="D140" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="63" t="s">
+      <c r="E140" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="65" t="s">
+      <c r="F140" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11308,9 +11311,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="64"/>
-      <c r="F141" s="65"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="64"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11402,13 +11405,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="65" t="s">
+      <c r="D151" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="63" t="s">
+      <c r="E151" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="65" t="s">
+      <c r="F151" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11420,9 +11423,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="65"/>
-      <c r="E152" s="64"/>
-      <c r="F152" s="65"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="64"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11517,13 +11520,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="65" t="s">
+      <c r="D162" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="63" t="s">
+      <c r="E162" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="65" t="s">
+      <c r="F162" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11536,9 +11539,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="65"/>
-      <c r="E163" s="64"/>
-      <c r="F163" s="65"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="64"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11635,13 +11638,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="65" t="s">
+      <c r="D173" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="63" t="s">
+      <c r="E173" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="65" t="s">
+      <c r="F173" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11653,9 +11656,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="65"/>
-      <c r="E174" s="64"/>
-      <c r="F174" s="65"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="66"/>
+      <c r="F174" s="64"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11750,13 +11753,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="65" t="s">
+      <c r="D185" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="63" t="s">
+      <c r="E185" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="65" t="s">
+      <c r="F185" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11768,9 +11771,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="65"/>
-      <c r="E186" s="64"/>
-      <c r="F186" s="65"/>
+      <c r="D186" s="64"/>
+      <c r="E186" s="66"/>
+      <c r="F186" s="64"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11863,13 +11866,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="65" t="s">
+      <c r="D197" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="63" t="s">
+      <c r="E197" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="65" t="s">
+      <c r="F197" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11881,9 +11884,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="65"/>
-      <c r="E198" s="64"/>
-      <c r="F198" s="65"/>
+      <c r="D198" s="64"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="64"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11981,13 +11984,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="65" t="s">
+      <c r="D210" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="63" t="s">
+      <c r="E210" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="65" t="s">
+      <c r="F210" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11999,9 +12002,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="65"/>
-      <c r="E211" s="64"/>
-      <c r="F211" s="65"/>
+      <c r="D211" s="64"/>
+      <c r="E211" s="66"/>
+      <c r="F211" s="64"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -12091,13 +12094,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="65" t="s">
+      <c r="D221" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="63" t="s">
+      <c r="E221" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="65" t="s">
+      <c r="F221" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12109,9 +12112,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="65"/>
-      <c r="E222" s="64"/>
-      <c r="F222" s="65"/>
+      <c r="D222" s="64"/>
+      <c r="E222" s="66"/>
+      <c r="F222" s="64"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -12201,13 +12204,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="65" t="s">
+      <c r="D232" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="63" t="s">
+      <c r="E232" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="65" t="s">
+      <c r="F232" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12219,9 +12222,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="65"/>
-      <c r="E233" s="64"/>
-      <c r="F233" s="65"/>
+      <c r="D233" s="64"/>
+      <c r="E233" s="66"/>
+      <c r="F233" s="64"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12311,13 +12314,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="65" t="s">
+      <c r="D243" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="63" t="s">
+      <c r="E243" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="65" t="s">
+      <c r="F243" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12329,9 +12332,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="65"/>
-      <c r="E244" s="64"/>
-      <c r="F244" s="65"/>
+      <c r="D244" s="64"/>
+      <c r="E244" s="66"/>
+      <c r="F244" s="64"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12421,13 +12424,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="65" t="s">
+      <c r="D254" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="63" t="s">
+      <c r="E254" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="65" t="s">
+      <c r="F254" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12439,9 +12442,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="65"/>
-      <c r="E255" s="64"/>
-      <c r="F255" s="65"/>
+      <c r="D255" s="64"/>
+      <c r="E255" s="66"/>
+      <c r="F255" s="64"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12484,21 +12487,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12515,49 +12546,21 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12589,22 +12592,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="I1" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -12686,13 +12689,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12702,13 +12705,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12720,9 +12723,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="64"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12730,9 +12733,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="65"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12892,13 +12895,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12908,13 +12911,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="65" t="s">
+      <c r="L16" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12926,9 +12929,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12936,9 +12939,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="64"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -13098,13 +13101,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -13114,13 +13117,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="65" t="s">
+      <c r="L27" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="63" t="s">
+      <c r="M27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="65" t="s">
+      <c r="N27" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13132,9 +13135,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="64"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -13142,9 +13145,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="65"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="64"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13304,13 +13307,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13320,13 +13323,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="L38" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="63" t="s">
+      <c r="M38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="65" t="s">
+      <c r="N38" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13338,9 +13341,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="64"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13348,9 +13351,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="65"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="65"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="64"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13486,13 +13489,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="63" t="s">
+      <c r="E50" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="65" t="s">
+      <c r="F50" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13508,9 +13511,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="65"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13611,13 +13614,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="63" t="s">
+      <c r="E61" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13629,9 +13632,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="65"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="65"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="64"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13676,22 +13679,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13708,6 +13695,22 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13715,10 +13718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14445,6 +14448,88 @@
       </c>
       <c r="B95" s="41">
         <v>3893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="29">
+        <f>(B105/E1)*100</f>
+        <v>3.7183255528019514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="29">
+        <f>(B106/E1)*100</f>
+        <v>1.6103778840796878</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="41">
+        <v>7742</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="41">
+        <v>3353</v>
       </c>
     </row>
   </sheetData>
@@ -14472,16 +14557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="I1" s="68" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="I1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -14626,12 +14711,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
@@ -15085,7 +15170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
@@ -15261,16 +15346,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="69">
+      <c r="C4" s="70">
         <v>11.41</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <v>747</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="65">
         <v>37753</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
@@ -15280,34 +15365,34 @@
         <v>4</v>
       </c>
       <c r="J4" s="29"/>
-      <c r="K4" s="69">
+      <c r="K4" s="70">
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="64">
         <v>747</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="65">
         <v>39134</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="29"/>
-      <c r="T4" s="69">
+      <c r="T4" s="70">
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="65">
+      <c r="U4" s="64">
         <v>747</v>
       </c>
-      <c r="V4" s="63">
+      <c r="V4" s="65">
         <v>49060</v>
       </c>
-      <c r="W4" s="65" t="s">
+      <c r="W4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="X4" t="s">
@@ -15321,10 +15406,10 @@
       <c r="B5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="64"/>
       <c r="G5" t="s">
         <v>155</v>
       </c>
@@ -15334,20 +15419,20 @@
       <c r="J5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="64"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="70"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="65"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="64"/>
       <c r="X5" t="s">
         <v>155</v>
       </c>
@@ -15592,13 +15677,13 @@
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="64">
         <v>747</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="65">
         <v>37753</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="76" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="54" t="s">
@@ -15608,17 +15693,17 @@
         <v>4</v>
       </c>
       <c r="S15" s="29"/>
-      <c r="T15" s="69">
+      <c r="T15" s="70">
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="65">
+      <c r="U15" s="64">
         <v>747</v>
       </c>
-      <c r="V15" s="63">
+      <c r="V15" s="65">
         <v>49060</v>
       </c>
-      <c r="W15" s="65" t="s">
+      <c r="W15" s="64" t="s">
         <v>31</v>
       </c>
       <c r="X15" t="s">
@@ -15635,9 +15720,9 @@
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="71"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="54" t="s">
         <v>156</v>
       </c>
@@ -15647,10 +15732,10 @@
       <c r="S16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T16" s="70"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="65"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="64"/>
       <c r="X16" t="s">
         <v>155</v>
       </c>
@@ -15901,14 +15986,14 @@
         <v>4</v>
       </c>
       <c r="S27" s="29"/>
-      <c r="T27" s="69">
+      <c r="T27" s="70">
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="65">
+      <c r="U27" s="64">
         <v>747</v>
       </c>
-      <c r="V27" s="63">
+      <c r="V27" s="65">
         <v>49060</v>
       </c>
       <c r="X27" t="s">
@@ -15919,19 +16004,19 @@
       <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="63">
         <v>3.9E-2</v>
       </c>
       <c r="C28" s="28">
         <v>11.41</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="64">
         <v>747</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="65">
         <v>37753</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="76" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="58"/>
@@ -15941,9 +16026,9 @@
       <c r="S28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="T28" s="70"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="64"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="66"/>
       <c r="X28" t="s">
         <v>155</v>
       </c>
@@ -15958,9 +16043,9 @@
       <c r="C29" s="28">
         <v>11.41</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="71"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="58"/>
       <c r="R29" s="13" t="s">
         <v>22</v>
@@ -16157,14 +16242,14 @@
         <v>4</v>
       </c>
       <c r="S37" s="29"/>
-      <c r="T37" s="69">
+      <c r="T37" s="70">
         <f>(V37/V35)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U37" s="65">
+      <c r="U37" s="64">
         <v>747</v>
       </c>
-      <c r="V37" s="63">
+      <c r="V37" s="65">
         <v>37753</v>
       </c>
       <c r="X37" t="s">
@@ -16177,9 +16262,9 @@
         <v>12</v>
       </c>
       <c r="S38" s="30"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="64"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="66"/>
       <c r="X38" t="s">
         <v>155</v>
       </c>
@@ -16242,19 +16327,19 @@
       <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="63">
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="C41" s="28">
         <v>11.41</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="64">
         <v>747</v>
       </c>
-      <c r="E41" s="63">
+      <c r="E41" s="65">
         <v>37753</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="76" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="58"/>
@@ -16276,9 +16361,9 @@
       <c r="C42" s="28">
         <v>11.41</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="71"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="58"/>
       <c r="R42" s="13" t="s">
         <v>132</v>
@@ -16415,14 +16500,14 @@
         <v>4</v>
       </c>
       <c r="S48" s="29"/>
-      <c r="T48" s="69">
+      <c r="T48" s="70">
         <f>(V48/V46)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U48" s="65">
+      <c r="U48" s="64">
         <v>747</v>
       </c>
-      <c r="V48" s="63">
+      <c r="V48" s="65">
         <v>37753</v>
       </c>
     </row>
@@ -16446,9 +16531,9 @@
         <v>12</v>
       </c>
       <c r="S49" s="30"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="64"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="66"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C50" s="58"/>
@@ -16540,14 +16625,14 @@
         <v>4</v>
       </c>
       <c r="S58" s="29"/>
-      <c r="T58" s="69">
+      <c r="T58" s="70">
         <f>(V58/V56)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U58" s="65">
+      <c r="U58" s="64">
         <v>747</v>
       </c>
-      <c r="V58" s="63">
+      <c r="V58" s="65">
         <v>37753</v>
       </c>
     </row>
@@ -16556,9 +16641,9 @@
         <v>12</v>
       </c>
       <c r="S59" s="30"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="64"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="66"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R60" s="13" t="s">
@@ -16604,25 +16689,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
     <mergeCell ref="V37:V38"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -16635,15 +16710,25 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
@@ -1369,13 +1369,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1393,6 +1393,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1404,9 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9799,13 +9799,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9817,9 +9817,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="64"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9900,13 +9900,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9918,9 +9918,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="64"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -10001,13 +10001,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10019,9 +10019,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="64"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -10108,7 +10108,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="66" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="66"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -10207,13 +10207,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10225,9 +10225,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="64"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10308,13 +10308,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10326,9 +10326,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="66"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10412,13 +10412,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="65" t="s">
+      <c r="E65" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="64" t="s">
+      <c r="F65" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10431,9 +10431,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="66"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10525,13 +10525,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="64" t="s">
+      <c r="D75" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="65" t="s">
+      <c r="E75" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="64" t="s">
+      <c r="F75" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10544,9 +10544,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="66"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10635,13 +10635,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="64" t="s">
+      <c r="D85" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="65" t="s">
+      <c r="E85" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="64" t="s">
+      <c r="F85" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10653,9 +10653,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="64"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="66"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10744,13 +10744,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="64" t="s">
+      <c r="D96" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="64" t="s">
+      <c r="F96" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10762,9 +10762,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="64"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="66"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10889,13 +10889,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="64" t="s">
+      <c r="D107" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="65" t="s">
+      <c r="E107" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="64" t="s">
+      <c r="F107" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10905,13 +10905,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="64" t="s">
+      <c r="L107" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="65" t="s">
+      <c r="M107" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="64" t="s">
+      <c r="N107" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10923,9 +10923,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="64"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="64"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="66"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10933,9 +10933,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="64"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="64"/>
+      <c r="L108" s="66"/>
+      <c r="M108" s="65"/>
+      <c r="N108" s="66"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -11059,13 +11059,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="64" t="s">
+      <c r="D118" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="65" t="s">
+      <c r="E118" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="64" t="s">
+      <c r="F118" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -11078,9 +11078,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="64"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="64"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="66"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -11178,13 +11178,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="64" t="s">
+      <c r="D129" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="65" t="s">
+      <c r="E129" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="64" t="s">
+      <c r="F129" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11196,9 +11196,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="64"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="64"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="66"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11293,13 +11293,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="64" t="s">
+      <c r="D140" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="65" t="s">
+      <c r="E140" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="64" t="s">
+      <c r="F140" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11311,9 +11311,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="64"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="64"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="66"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11405,13 +11405,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="64" t="s">
+      <c r="D151" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="65" t="s">
+      <c r="E151" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="64" t="s">
+      <c r="F151" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11423,9 +11423,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="64"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="64"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="66"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11520,13 +11520,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="64" t="s">
+      <c r="D162" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="65" t="s">
+      <c r="E162" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="64" t="s">
+      <c r="F162" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11539,9 +11539,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="64"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="64"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="66"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11638,13 +11638,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="64" t="s">
+      <c r="D173" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="65" t="s">
+      <c r="E173" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="64" t="s">
+      <c r="F173" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11656,9 +11656,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="64"/>
-      <c r="E174" s="66"/>
-      <c r="F174" s="64"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="65"/>
+      <c r="F174" s="66"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11753,13 +11753,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="64" t="s">
+      <c r="D185" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="65" t="s">
+      <c r="E185" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="64" t="s">
+      <c r="F185" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11771,9 +11771,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="64"/>
-      <c r="E186" s="66"/>
-      <c r="F186" s="64"/>
+      <c r="D186" s="66"/>
+      <c r="E186" s="65"/>
+      <c r="F186" s="66"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11866,13 +11866,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="64" t="s">
+      <c r="D197" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="65" t="s">
+      <c r="E197" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="64" t="s">
+      <c r="F197" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11884,9 +11884,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="64"/>
-      <c r="E198" s="66"/>
-      <c r="F198" s="64"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="65"/>
+      <c r="F198" s="66"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11984,13 +11984,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="64" t="s">
+      <c r="D210" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="65" t="s">
+      <c r="E210" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="64" t="s">
+      <c r="F210" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12002,9 +12002,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="64"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="64"/>
+      <c r="D211" s="66"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="66"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -12094,13 +12094,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="64" t="s">
+      <c r="D221" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="65" t="s">
+      <c r="E221" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="64" t="s">
+      <c r="F221" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12112,9 +12112,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="64"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="64"/>
+      <c r="D222" s="66"/>
+      <c r="E222" s="65"/>
+      <c r="F222" s="66"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -12204,13 +12204,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="64" t="s">
+      <c r="D232" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="65" t="s">
+      <c r="E232" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="64" t="s">
+      <c r="F232" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12222,9 +12222,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="64"/>
-      <c r="E233" s="66"/>
-      <c r="F233" s="64"/>
+      <c r="D233" s="66"/>
+      <c r="E233" s="65"/>
+      <c r="F233" s="66"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12314,13 +12314,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="64" t="s">
+      <c r="D243" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="65" t="s">
+      <c r="E243" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="64" t="s">
+      <c r="F243" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12332,9 +12332,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="64"/>
-      <c r="E244" s="66"/>
-      <c r="F244" s="64"/>
+      <c r="D244" s="66"/>
+      <c r="E244" s="65"/>
+      <c r="F244" s="66"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12424,13 +12424,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="64" t="s">
+      <c r="D254" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="65" t="s">
+      <c r="E254" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="64" t="s">
+      <c r="F254" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12442,9 +12442,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="64"/>
-      <c r="E255" s="66"/>
-      <c r="F255" s="64"/>
+      <c r="D255" s="66"/>
+      <c r="E255" s="65"/>
+      <c r="F255" s="66"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12487,49 +12487,21 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12546,21 +12518,49 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12689,13 +12689,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12705,13 +12705,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12723,9 +12723,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="64"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12733,9 +12733,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="64"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12895,13 +12895,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12911,13 +12911,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="64" t="s">
+      <c r="N16" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12929,9 +12929,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12939,9 +12939,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="64"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="64"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -13101,13 +13101,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -13117,13 +13117,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="64" t="s">
+      <c r="N27" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13135,9 +13135,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -13145,9 +13145,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="64"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13307,13 +13307,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13323,13 +13323,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="64" t="s">
+      <c r="L38" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="65" t="s">
+      <c r="M38" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13341,9 +13341,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="64"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="66"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13351,9 +13351,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="64"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="64"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="66"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13489,13 +13489,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13511,9 +13511,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="64"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13614,13 +13614,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="65" t="s">
+      <c r="E61" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13632,9 +13632,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="64"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="66"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13679,6 +13679,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13695,22 +13711,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13720,8 +13720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14450,7 +14450,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
         <v>11</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>0</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>4</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>3.7183255528019514</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>109</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>1.6103778840796878</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>12</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>22</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>24</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
         <v>42</v>
       </c>
@@ -14516,20 +14516,36 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="40" t="s">
         <v>114</v>
       </c>
       <c r="B105" s="41">
         <v>7742</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <f>B105-358</f>
+        <v>7384</v>
+      </c>
+      <c r="E105">
+        <f>(D105/E1)*100</f>
+        <v>3.5463854148656182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="40" t="s">
         <v>115</v>
       </c>
       <c r="B106" s="41">
         <v>3353</v>
+      </c>
+      <c r="D106">
+        <f>B106-358</f>
+        <v>2995</v>
+      </c>
+      <c r="E106">
+        <f>(D106/E1)*100</f>
+        <v>1.438437746143354</v>
       </c>
     </row>
   </sheetData>
@@ -15170,7 +15186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
@@ -15200,11 +15216,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15214,22 +15230,22 @@
       <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15349,13 +15365,13 @@
       <c r="C4" s="70">
         <v>11.41</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="66">
         <v>747</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="64">
         <v>37753</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
@@ -15369,13 +15385,13 @@
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="66">
         <v>747</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="64">
         <v>39134</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="66" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -15386,13 +15402,13 @@
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="66">
         <v>747</v>
       </c>
-      <c r="V4" s="65">
+      <c r="V4" s="64">
         <v>49060</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="W4" s="66" t="s">
         <v>31</v>
       </c>
       <c r="X4" t="s">
@@ -15407,9 +15423,9 @@
         <v>108</v>
       </c>
       <c r="C5" s="71"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
       <c r="G5" t="s">
         <v>155</v>
       </c>
@@ -15420,9 +15436,9 @@
         <v>108</v>
       </c>
       <c r="K5" s="71"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="64"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
@@ -15430,9 +15446,9 @@
         <v>108</v>
       </c>
       <c r="T5" s="71"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="64"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="66"/>
       <c r="X5" t="s">
         <v>155</v>
       </c>
@@ -15677,13 +15693,13 @@
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="66">
         <v>747</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <v>37753</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="54" t="s">
@@ -15697,13 +15713,13 @@
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="64">
+      <c r="U15" s="66">
         <v>747</v>
       </c>
-      <c r="V15" s="65">
+      <c r="V15" s="64">
         <v>49060</v>
       </c>
-      <c r="W15" s="64" t="s">
+      <c r="W15" s="66" t="s">
         <v>31</v>
       </c>
       <c r="X15" t="s">
@@ -15720,9 +15736,9 @@
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="76"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="54" t="s">
         <v>156</v>
       </c>
@@ -15733,9 +15749,9 @@
         <v>108</v>
       </c>
       <c r="T16" s="71"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="64"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="66"/>
       <c r="X16" t="s">
         <v>155</v>
       </c>
@@ -15990,10 +16006,10 @@
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="64">
+      <c r="U27" s="66">
         <v>747</v>
       </c>
-      <c r="V27" s="65">
+      <c r="V27" s="64">
         <v>49060</v>
       </c>
       <c r="X27" t="s">
@@ -16010,13 +16026,13 @@
       <c r="C28" s="28">
         <v>11.41</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="66">
         <v>747</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="64">
         <v>37753</v>
       </c>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="58"/>
@@ -16027,8 +16043,8 @@
         <v>108</v>
       </c>
       <c r="T28" s="71"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="65"/>
       <c r="X28" t="s">
         <v>155</v>
       </c>
@@ -16043,9 +16059,9 @@
       <c r="C29" s="28">
         <v>11.41</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="76"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="58"/>
       <c r="R29" s="13" t="s">
         <v>22</v>
@@ -16246,10 +16262,10 @@
         <f>(V37/V35)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U37" s="64">
+      <c r="U37" s="66">
         <v>747</v>
       </c>
-      <c r="V37" s="65">
+      <c r="V37" s="64">
         <v>37753</v>
       </c>
       <c r="X37" t="s">
@@ -16263,8 +16279,8 @@
       </c>
       <c r="S38" s="30"/>
       <c r="T38" s="71"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="65"/>
       <c r="X38" t="s">
         <v>155</v>
       </c>
@@ -16333,13 +16349,13 @@
       <c r="C41" s="28">
         <v>11.41</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="66">
         <v>747</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="64">
         <v>37753</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="58"/>
@@ -16361,9 +16377,9 @@
       <c r="C42" s="28">
         <v>11.41</v>
       </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="76"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="58"/>
       <c r="R42" s="13" t="s">
         <v>132</v>
@@ -16504,10 +16520,10 @@
         <f>(V48/V46)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U48" s="64">
+      <c r="U48" s="66">
         <v>747</v>
       </c>
-      <c r="V48" s="65">
+      <c r="V48" s="64">
         <v>37753</v>
       </c>
     </row>
@@ -16532,8 +16548,8 @@
       </c>
       <c r="S49" s="30"/>
       <c r="T49" s="71"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="65"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C50" s="58"/>
@@ -16629,10 +16645,10 @@
         <f>(V58/V56)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U58" s="64">
+      <c r="U58" s="66">
         <v>747</v>
       </c>
-      <c r="V58" s="65">
+      <c r="V58" s="64">
         <v>37753</v>
       </c>
     </row>
@@ -16642,8 +16658,8 @@
       </c>
       <c r="S59" s="30"/>
       <c r="T59" s="71"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="65"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R60" s="13" t="s">
@@ -16689,15 +16705,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="V37:V38"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -16710,25 +16736,15 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
@@ -1369,13 +1369,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1393,9 +1393,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,6 +1404,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9799,13 +9799,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9817,9 +9817,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9900,13 +9900,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9918,9 +9918,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -10001,13 +10001,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10019,9 +10019,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -10108,7 +10108,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="64" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="66"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -10207,13 +10207,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10225,9 +10225,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10308,13 +10308,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="66" t="s">
+      <c r="F55" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10326,9 +10326,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="64"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10412,13 +10412,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="64" t="s">
+      <c r="E65" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="64" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10431,9 +10431,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="66"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10525,13 +10525,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="66" t="s">
+      <c r="D75" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="64" t="s">
+      <c r="E75" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="66" t="s">
+      <c r="F75" s="64" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10544,9 +10544,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="66"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="66"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10635,13 +10635,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="66" t="s">
+      <c r="D85" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="64" t="s">
+      <c r="E85" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="66" t="s">
+      <c r="F85" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10653,9 +10653,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="66"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="64"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10744,13 +10744,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="66" t="s">
+      <c r="D96" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="64" t="s">
+      <c r="E96" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="66" t="s">
+      <c r="F96" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10762,9 +10762,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="66"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="66"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="64"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10889,13 +10889,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="66" t="s">
+      <c r="D107" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="64" t="s">
+      <c r="E107" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="66" t="s">
+      <c r="F107" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10905,13 +10905,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="66" t="s">
+      <c r="L107" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="64" t="s">
+      <c r="M107" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="66" t="s">
+      <c r="N107" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10923,9 +10923,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="66"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="66"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="64"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10933,9 +10933,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="66"/>
-      <c r="M108" s="65"/>
-      <c r="N108" s="66"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="66"/>
+      <c r="N108" s="64"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -11059,13 +11059,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="66" t="s">
+      <c r="D118" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="64" t="s">
+      <c r="E118" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="66" t="s">
+      <c r="F118" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -11078,9 +11078,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="66"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="66"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="64"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -11178,13 +11178,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="66" t="s">
+      <c r="D129" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="64" t="s">
+      <c r="E129" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="66" t="s">
+      <c r="F129" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11196,9 +11196,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="66"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="66"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="64"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11293,13 +11293,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="66" t="s">
+      <c r="D140" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="64" t="s">
+      <c r="E140" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="66" t="s">
+      <c r="F140" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11311,9 +11311,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="66"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="66"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="64"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11405,13 +11405,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="66" t="s">
+      <c r="D151" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="64" t="s">
+      <c r="E151" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="66" t="s">
+      <c r="F151" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11423,9 +11423,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="66"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="66"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="64"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11520,13 +11520,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="66" t="s">
+      <c r="D162" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="64" t="s">
+      <c r="E162" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="66" t="s">
+      <c r="F162" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11539,9 +11539,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="66"/>
-      <c r="E163" s="65"/>
-      <c r="F163" s="66"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="64"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11638,13 +11638,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="66" t="s">
+      <c r="D173" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="64" t="s">
+      <c r="E173" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="66" t="s">
+      <c r="F173" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11656,9 +11656,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="66"/>
-      <c r="E174" s="65"/>
-      <c r="F174" s="66"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="66"/>
+      <c r="F174" s="64"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11753,13 +11753,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="66" t="s">
+      <c r="D185" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="64" t="s">
+      <c r="E185" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="66" t="s">
+      <c r="F185" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11771,9 +11771,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="66"/>
-      <c r="E186" s="65"/>
-      <c r="F186" s="66"/>
+      <c r="D186" s="64"/>
+      <c r="E186" s="66"/>
+      <c r="F186" s="64"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11866,13 +11866,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="66" t="s">
+      <c r="D197" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="64" t="s">
+      <c r="E197" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="66" t="s">
+      <c r="F197" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11884,9 +11884,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="66"/>
-      <c r="E198" s="65"/>
-      <c r="F198" s="66"/>
+      <c r="D198" s="64"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="64"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11984,13 +11984,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="66" t="s">
+      <c r="D210" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="64" t="s">
+      <c r="E210" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="66" t="s">
+      <c r="F210" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12002,9 +12002,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="66"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="66"/>
+      <c r="D211" s="64"/>
+      <c r="E211" s="66"/>
+      <c r="F211" s="64"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -12094,13 +12094,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="66" t="s">
+      <c r="D221" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="64" t="s">
+      <c r="E221" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="66" t="s">
+      <c r="F221" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12112,9 +12112,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="66"/>
-      <c r="E222" s="65"/>
-      <c r="F222" s="66"/>
+      <c r="D222" s="64"/>
+      <c r="E222" s="66"/>
+      <c r="F222" s="64"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -12204,13 +12204,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="66" t="s">
+      <c r="D232" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="64" t="s">
+      <c r="E232" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="66" t="s">
+      <c r="F232" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12222,9 +12222,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="66"/>
-      <c r="E233" s="65"/>
-      <c r="F233" s="66"/>
+      <c r="D233" s="64"/>
+      <c r="E233" s="66"/>
+      <c r="F233" s="64"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12314,13 +12314,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="66" t="s">
+      <c r="D243" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="64" t="s">
+      <c r="E243" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="66" t="s">
+      <c r="F243" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12332,9 +12332,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="66"/>
-      <c r="E244" s="65"/>
-      <c r="F244" s="66"/>
+      <c r="D244" s="64"/>
+      <c r="E244" s="66"/>
+      <c r="F244" s="64"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12424,13 +12424,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="66" t="s">
+      <c r="D254" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="64" t="s">
+      <c r="E254" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="66" t="s">
+      <c r="F254" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12442,9 +12442,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="66"/>
-      <c r="E255" s="65"/>
-      <c r="F255" s="66"/>
+      <c r="D255" s="64"/>
+      <c r="E255" s="66"/>
+      <c r="F255" s="64"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12487,21 +12487,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12518,49 +12546,21 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12689,13 +12689,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12705,13 +12705,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12723,9 +12723,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="64"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12733,9 +12733,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12895,13 +12895,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12911,13 +12911,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="64" t="s">
+      <c r="M16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="66" t="s">
+      <c r="N16" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12929,9 +12929,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12939,9 +12939,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="66"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="64"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -13101,13 +13101,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -13117,13 +13117,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="66" t="s">
+      <c r="L27" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="64" t="s">
+      <c r="M27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="66" t="s">
+      <c r="N27" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13135,9 +13135,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="64"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -13145,9 +13145,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="64"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13307,13 +13307,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="64" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13323,13 +13323,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="66" t="s">
+      <c r="L38" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="64" t="s">
+      <c r="M38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="66" t="s">
+      <c r="N38" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13341,9 +13341,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="66"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="64"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13351,9 +13351,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="66"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="64"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13489,13 +13489,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13511,9 +13511,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13614,13 +13614,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="64" t="s">
+      <c r="E61" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="66" t="s">
+      <c r="F61" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13632,9 +13632,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="66"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="66"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="64"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13679,22 +13679,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13711,6 +13695,22 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13720,8 +13720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="B99" s="29">
         <f>(B105/E1)*100</f>
-        <v>3.7183255528019514</v>
+        <v>3.5881697500624368</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="B100" s="29">
         <f>(B106/E1)*100</f>
-        <v>1.6103778840796878</v>
+        <v>1.7851997003054578</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -14521,15 +14521,15 @@
         <v>114</v>
       </c>
       <c r="B105" s="41">
-        <v>7742</v>
+        <v>7471</v>
       </c>
       <c r="D105">
         <f>B105-358</f>
-        <v>7384</v>
+        <v>7113</v>
       </c>
       <c r="E105">
         <f>(D105/E1)*100</f>
-        <v>3.5463854148656182</v>
+        <v>3.4162296121261022</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -14537,15 +14537,15 @@
         <v>115</v>
       </c>
       <c r="B106" s="41">
-        <v>3353</v>
+        <v>3717</v>
       </c>
       <c r="D106">
         <f>B106-358</f>
-        <v>2995</v>
+        <v>3359</v>
       </c>
       <c r="E106">
         <f>(D106/E1)*100</f>
-        <v>1.438437746143354</v>
+        <v>1.6132595623691237</v>
       </c>
     </row>
   </sheetData>
@@ -15186,10 +15186,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15216,11 +15216,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15230,22 +15230,22 @@
       <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15365,13 +15365,13 @@
       <c r="C4" s="70">
         <v>11.41</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="64">
         <v>747</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="65">
         <v>37753</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
@@ -15385,13 +15385,13 @@
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="64">
         <v>747</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="65">
         <v>39134</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -15402,13 +15402,13 @@
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="66">
+      <c r="U4" s="64">
         <v>747</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="65">
         <v>49060</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="64" t="s">
         <v>31</v>
       </c>
       <c r="X4" t="s">
@@ -15423,9 +15423,9 @@
         <v>108</v>
       </c>
       <c r="C5" s="71"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="64"/>
       <c r="G5" t="s">
         <v>155</v>
       </c>
@@ -15436,9 +15436,9 @@
         <v>108</v>
       </c>
       <c r="K5" s="71"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="64"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
@@ -15446,9 +15446,9 @@
         <v>108</v>
       </c>
       <c r="T5" s="71"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="66"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="64"/>
       <c r="X5" t="s">
         <v>155</v>
       </c>
@@ -15693,13 +15693,13 @@
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="64">
         <v>747</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="65">
         <v>37753</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="76" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="54" t="s">
@@ -15713,13 +15713,13 @@
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="66">
+      <c r="U15" s="64">
         <v>747</v>
       </c>
-      <c r="V15" s="64">
+      <c r="V15" s="65">
         <v>49060</v>
       </c>
-      <c r="W15" s="66" t="s">
+      <c r="W15" s="64" t="s">
         <v>31</v>
       </c>
       <c r="X15" t="s">
@@ -15736,9 +15736,9 @@
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="72"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="54" t="s">
         <v>156</v>
       </c>
@@ -15749,9 +15749,9 @@
         <v>108</v>
       </c>
       <c r="T16" s="71"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="66"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="64"/>
       <c r="X16" t="s">
         <v>155</v>
       </c>
@@ -16006,10 +16006,10 @@
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="66">
+      <c r="U27" s="64">
         <v>747</v>
       </c>
-      <c r="V27" s="64">
+      <c r="V27" s="65">
         <v>49060</v>
       </c>
       <c r="X27" t="s">
@@ -16026,13 +16026,13 @@
       <c r="C28" s="28">
         <v>11.41</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="64">
         <v>747</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="65">
         <v>37753</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="76" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="58"/>
@@ -16043,8 +16043,8 @@
         <v>108</v>
       </c>
       <c r="T28" s="71"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="65"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="66"/>
       <c r="X28" t="s">
         <v>155</v>
       </c>
@@ -16059,9 +16059,9 @@
       <c r="C29" s="28">
         <v>11.41</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="72"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="58"/>
       <c r="R29" s="13" t="s">
         <v>22</v>
@@ -16262,10 +16262,10 @@
         <f>(V37/V35)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U37" s="66">
+      <c r="U37" s="64">
         <v>747</v>
       </c>
-      <c r="V37" s="64">
+      <c r="V37" s="65">
         <v>37753</v>
       </c>
       <c r="X37" t="s">
@@ -16279,8 +16279,8 @@
       </c>
       <c r="S38" s="30"/>
       <c r="T38" s="71"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="65"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="66"/>
       <c r="X38" t="s">
         <v>155</v>
       </c>
@@ -16349,13 +16349,13 @@
       <c r="C41" s="28">
         <v>11.41</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="64">
         <v>747</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="65">
         <v>37753</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="76" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="58"/>
@@ -16377,9 +16377,9 @@
       <c r="C42" s="28">
         <v>11.41</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="72"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="58"/>
       <c r="R42" s="13" t="s">
         <v>132</v>
@@ -16520,10 +16520,10 @@
         <f>(V48/V46)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U48" s="66">
+      <c r="U48" s="64">
         <v>747</v>
       </c>
-      <c r="V48" s="64">
+      <c r="V48" s="65">
         <v>37753</v>
       </c>
     </row>
@@ -16548,8 +16548,8 @@
       </c>
       <c r="S49" s="30"/>
       <c r="T49" s="71"/>
-      <c r="U49" s="66"/>
-      <c r="V49" s="65"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="66"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C50" s="58"/>
@@ -16645,10 +16645,10 @@
         <f>(V58/V56)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U58" s="66">
+      <c r="U58" s="64">
         <v>747</v>
       </c>
-      <c r="V58" s="64">
+      <c r="V58" s="65">
         <v>37753</v>
       </c>
     </row>
@@ -16658,8 +16658,8 @@
       </c>
       <c r="S59" s="30"/>
       <c r="T59" s="71"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="65"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="66"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R60" s="13" t="s">
@@ -16705,25 +16705,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
     <mergeCell ref="V37:V38"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -16736,15 +16726,25 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/New Analysis.xlsx
+++ b/New Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" tabRatio="668" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All Results" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="169">
   <si>
     <t>Doc Name</t>
   </si>
@@ -959,6 +959,31 @@
   <si>
     <t>39 IPS, 2 hidden, 250 nodes, OP 450</t>
   </si>
+  <si>
+    <r>
+      <t>39 IPS, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 250 nodes, OP 49</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1228,7 +1253,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1369,13 +1394,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1393,6 +1418,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1405,8 +1433,8 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9727,7 +9755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C252" sqref="C252:F255"/>
     </sheetView>
   </sheetViews>
@@ -9799,13 +9827,13 @@
       <c r="C5" s="3">
         <v>0.15</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9817,9 +9845,9 @@
       <c r="C6" s="3">
         <v>0.15</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="64"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -9900,13 +9928,13 @@
       <c r="C15" s="3">
         <v>0.15</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9918,9 +9946,9 @@
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="64"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -10001,13 +10029,13 @@
       <c r="C25" s="3">
         <v>0.12</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F25" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10019,9 +10047,9 @@
       <c r="C26" s="3">
         <v>0.12</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="64"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -10108,7 +10136,7 @@
       <c r="E35" s="10">
         <v>49630</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="66" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10126,7 +10154,7 @@
       <c r="E36" s="10">
         <v>49479</v>
       </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="66"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
@@ -10207,13 +10235,13 @@
       <c r="C45" s="3">
         <v>0.15</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10225,9 +10253,9 @@
       <c r="C46" s="3">
         <v>0.15</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="64"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
@@ -10308,13 +10336,13 @@
       <c r="C55" s="3">
         <v>0.15</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10326,9 +10354,9 @@
       <c r="C56" s="3">
         <v>0.15</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="66"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -10412,13 +10440,13 @@
       <c r="C65" s="3">
         <v>0.15</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="65" t="s">
+      <c r="E65" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="64" t="s">
+      <c r="F65" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="17"/>
@@ -10431,9 +10459,9 @@
       <c r="C66" s="3">
         <v>0.15</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="66"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -10525,13 +10553,13 @@
       <c r="C75" s="3">
         <v>0.15</v>
       </c>
-      <c r="D75" s="64" t="s">
+      <c r="D75" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="65" t="s">
+      <c r="E75" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="64" t="s">
+      <c r="F75" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="17"/>
@@ -10544,9 +10572,9 @@
       <c r="C76" s="3">
         <v>0.15</v>
       </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="66"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10635,13 +10663,13 @@
       <c r="C85" s="3">
         <v>0.12</v>
       </c>
-      <c r="D85" s="64" t="s">
+      <c r="D85" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="65" t="s">
+      <c r="E85" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="64" t="s">
+      <c r="F85" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10653,9 +10681,9 @@
       <c r="C86" s="3">
         <v>0.12</v>
       </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="64"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="66"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
@@ -10744,13 +10772,13 @@
       <c r="C96" s="3">
         <v>0.12</v>
       </c>
-      <c r="D96" s="64" t="s">
+      <c r="D96" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F96" s="64" t="s">
+      <c r="F96" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10762,9 +10790,9 @@
       <c r="C97" s="3">
         <v>0.12</v>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="64"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="66"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
@@ -10889,13 +10917,13 @@
       <c r="C107" s="3">
         <v>0.12</v>
       </c>
-      <c r="D107" s="64" t="s">
+      <c r="D107" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E107" s="65" t="s">
+      <c r="E107" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="64" t="s">
+      <c r="F107" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I107" s="1"/>
@@ -10905,13 +10933,13 @@
       <c r="K107" s="3">
         <v>0.12</v>
       </c>
-      <c r="L107" s="64" t="s">
+      <c r="L107" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M107" s="65" t="s">
+      <c r="M107" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N107" s="64" t="s">
+      <c r="N107" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10923,9 +10951,9 @@
       <c r="C108" s="3">
         <v>0.12</v>
       </c>
-      <c r="D108" s="64"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="64"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="66"/>
       <c r="I108" s="1"/>
       <c r="J108" s="2" t="s">
         <v>10</v>
@@ -10933,9 +10961,9 @@
       <c r="K108" s="3">
         <v>0.12</v>
       </c>
-      <c r="L108" s="64"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="64"/>
+      <c r="L108" s="66"/>
+      <c r="M108" s="65"/>
+      <c r="N108" s="66"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
@@ -11059,13 +11087,13 @@
       <c r="C118" s="3">
         <v>0.12</v>
       </c>
-      <c r="D118" s="64" t="s">
+      <c r="D118" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="65" t="s">
+      <c r="E118" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="64" t="s">
+      <c r="F118" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G118" s="17"/>
@@ -11078,9 +11106,9 @@
       <c r="C119" s="3">
         <v>0.12</v>
       </c>
-      <c r="D119" s="64"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="64"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="66"/>
       <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -11178,13 +11206,13 @@
       <c r="C129" s="3">
         <v>0.12</v>
       </c>
-      <c r="D129" s="64" t="s">
+      <c r="D129" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="65" t="s">
+      <c r="E129" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="64" t="s">
+      <c r="F129" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11196,9 +11224,9 @@
       <c r="C130" s="3">
         <v>0.12</v>
       </c>
-      <c r="D130" s="64"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="64"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="66"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
@@ -11293,13 +11321,13 @@
       <c r="C140" s="3">
         <v>0.12</v>
       </c>
-      <c r="D140" s="64" t="s">
+      <c r="D140" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E140" s="65" t="s">
+      <c r="E140" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F140" s="64" t="s">
+      <c r="F140" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11311,9 +11339,9 @@
       <c r="C141" s="3">
         <v>0.12</v>
       </c>
-      <c r="D141" s="64"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="64"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="66"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -11405,13 +11433,13 @@
       <c r="C151" s="3">
         <v>0.12</v>
       </c>
-      <c r="D151" s="64" t="s">
+      <c r="D151" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E151" s="65" t="s">
+      <c r="E151" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="64" t="s">
+      <c r="F151" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11423,9 +11451,9 @@
       <c r="C152" s="3">
         <v>0.12</v>
       </c>
-      <c r="D152" s="64"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="64"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="66"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
@@ -11520,13 +11548,13 @@
       <c r="C162" s="3">
         <v>0.12</v>
       </c>
-      <c r="D162" s="64" t="s">
+      <c r="D162" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="65" t="s">
+      <c r="E162" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F162" s="64" t="s">
+      <c r="F162" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G162" s="36"/>
@@ -11539,9 +11567,9 @@
       <c r="C163" s="3">
         <v>0.12</v>
       </c>
-      <c r="D163" s="64"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="64"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="66"/>
       <c r="G163" s="36"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -11638,13 +11666,13 @@
       <c r="C173" s="3">
         <v>0.12</v>
       </c>
-      <c r="D173" s="64" t="s">
+      <c r="D173" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E173" s="65" t="s">
+      <c r="E173" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="64" t="s">
+      <c r="F173" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11656,9 +11684,9 @@
       <c r="C174" s="3">
         <v>0.12</v>
       </c>
-      <c r="D174" s="64"/>
-      <c r="E174" s="66"/>
-      <c r="F174" s="64"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="65"/>
+      <c r="F174" s="66"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
@@ -11753,13 +11781,13 @@
       <c r="C185" s="3">
         <v>0.12</v>
       </c>
-      <c r="D185" s="64" t="s">
+      <c r="D185" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E185" s="65" t="s">
+      <c r="E185" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F185" s="64" t="s">
+      <c r="F185" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11771,9 +11799,9 @@
       <c r="C186" s="3">
         <v>0.12</v>
       </c>
-      <c r="D186" s="64"/>
-      <c r="E186" s="66"/>
-      <c r="F186" s="64"/>
+      <c r="D186" s="66"/>
+      <c r="E186" s="65"/>
+      <c r="F186" s="66"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
@@ -11866,13 +11894,13 @@
       <c r="C197" s="3">
         <v>0.12</v>
       </c>
-      <c r="D197" s="64" t="s">
+      <c r="D197" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E197" s="65" t="s">
+      <c r="E197" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F197" s="64" t="s">
+      <c r="F197" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11884,9 +11912,9 @@
       <c r="C198" s="3">
         <v>0.12</v>
       </c>
-      <c r="D198" s="64"/>
-      <c r="E198" s="66"/>
-      <c r="F198" s="64"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="65"/>
+      <c r="F198" s="66"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
@@ -11984,13 +12012,13 @@
       <c r="C210" s="3">
         <v>0.12</v>
       </c>
-      <c r="D210" s="64" t="s">
+      <c r="D210" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E210" s="65" t="s">
+      <c r="E210" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F210" s="64" t="s">
+      <c r="F210" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12002,9 +12030,9 @@
       <c r="C211" s="3">
         <v>0.12</v>
       </c>
-      <c r="D211" s="64"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="64"/>
+      <c r="D211" s="66"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="66"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -12094,13 +12122,13 @@
       <c r="C221" s="3">
         <v>0.12</v>
       </c>
-      <c r="D221" s="64" t="s">
+      <c r="D221" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E221" s="65" t="s">
+      <c r="E221" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F221" s="64" t="s">
+      <c r="F221" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12112,9 +12140,9 @@
       <c r="C222" s="3">
         <v>0.12</v>
       </c>
-      <c r="D222" s="64"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="64"/>
+      <c r="D222" s="66"/>
+      <c r="E222" s="65"/>
+      <c r="F222" s="66"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
@@ -12204,13 +12232,13 @@
       <c r="C232" s="3">
         <v>0.12</v>
       </c>
-      <c r="D232" s="64" t="s">
+      <c r="D232" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E232" s="65" t="s">
+      <c r="E232" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="64" t="s">
+      <c r="F232" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12222,9 +12250,9 @@
       <c r="C233" s="3">
         <v>0.12</v>
       </c>
-      <c r="D233" s="64"/>
-      <c r="E233" s="66"/>
-      <c r="F233" s="64"/>
+      <c r="D233" s="66"/>
+      <c r="E233" s="65"/>
+      <c r="F233" s="66"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
@@ -12314,13 +12342,13 @@
       <c r="C243" s="3">
         <v>0.12</v>
       </c>
-      <c r="D243" s="64" t="s">
+      <c r="D243" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E243" s="65" t="s">
+      <c r="E243" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F243" s="64" t="s">
+      <c r="F243" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12332,9 +12360,9 @@
       <c r="C244" s="3">
         <v>0.12</v>
       </c>
-      <c r="D244" s="64"/>
-      <c r="E244" s="66"/>
-      <c r="F244" s="64"/>
+      <c r="D244" s="66"/>
+      <c r="E244" s="65"/>
+      <c r="F244" s="66"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
@@ -12424,13 +12452,13 @@
       <c r="C254" s="3">
         <v>0.12</v>
       </c>
-      <c r="D254" s="64" t="s">
+      <c r="D254" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E254" s="65" t="s">
+      <c r="E254" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F254" s="64" t="s">
+      <c r="F254" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12442,9 +12470,9 @@
       <c r="C255" s="3">
         <v>0.12</v>
       </c>
-      <c r="D255" s="64"/>
-      <c r="E255" s="66"/>
-      <c r="F255" s="64"/>
+      <c r="D255" s="66"/>
+      <c r="E255" s="65"/>
+      <c r="F255" s="66"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
@@ -12487,49 +12515,21 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:F255"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
     <mergeCell ref="D197:D198"/>
     <mergeCell ref="E197:E198"/>
     <mergeCell ref="F197:F198"/>
@@ -12546,21 +12546,49 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="F254:F255"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12689,13 +12717,13 @@
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1"/>
@@ -12705,13 +12733,13 @@
       <c r="K5" s="3">
         <v>0.12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12723,9 +12751,9 @@
       <c r="C6" s="3">
         <v>0.12</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="64"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="I6" s="1"/>
       <c r="J6" s="28" t="s">
         <v>10</v>
@@ -12733,9 +12761,9 @@
       <c r="K6" s="3">
         <v>0.12</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="64"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -12895,13 +12923,13 @@
       <c r="C16" s="3">
         <v>0.12</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="1"/>
@@ -12911,13 +12939,13 @@
       <c r="K16" s="3">
         <v>0.12</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="64" t="s">
+      <c r="N16" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12929,9 +12957,9 @@
       <c r="C17" s="3">
         <v>0.12</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="I17" s="1"/>
       <c r="J17" s="28" t="s">
         <v>10</v>
@@ -12939,9 +12967,9 @@
       <c r="K17" s="3">
         <v>0.12</v>
       </c>
-      <c r="L17" s="64"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="64"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -13101,13 +13129,13 @@
       <c r="C27" s="3">
         <v>0.12</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -13117,13 +13145,13 @@
       <c r="K27" s="3">
         <v>0.12</v>
       </c>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="64" t="s">
+      <c r="N27" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13135,9 +13163,9 @@
       <c r="C28" s="3">
         <v>0.12</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
       <c r="I28" s="1"/>
       <c r="J28" s="28" t="s">
         <v>10</v>
@@ -13145,9 +13173,9 @@
       <c r="K28" s="3">
         <v>0.12</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="64"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -13307,13 +13335,13 @@
       <c r="C38" s="3">
         <v>0.12</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="66" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1"/>
@@ -13323,13 +13351,13 @@
       <c r="K38" s="3">
         <v>0.12</v>
       </c>
-      <c r="L38" s="64" t="s">
+      <c r="L38" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="65" t="s">
+      <c r="M38" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13341,9 +13369,9 @@
       <c r="C39" s="3">
         <v>0.12</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="64"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="66"/>
       <c r="I39" s="1"/>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -13351,9 +13379,9 @@
       <c r="K39" s="3">
         <v>0.12</v>
       </c>
-      <c r="L39" s="64"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="64"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="66"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -13489,13 +13517,13 @@
       <c r="C50" s="3">
         <v>0.12</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G50" s="39"/>
@@ -13511,9 +13539,9 @@
       <c r="C51" s="3">
         <v>0.12</v>
       </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="64"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -13614,13 +13642,13 @@
       <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="65" t="s">
+      <c r="E61" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13632,9 +13660,9 @@
       <c r="C62" s="3">
         <v>0.12</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="64"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="66"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -13679,6 +13707,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -13695,22 +13739,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13720,8 +13748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15186,10 +15214,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15216,11 +15244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15230,22 +15258,22 @@
       <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
@@ -15365,13 +15393,13 @@
       <c r="C4" s="70">
         <v>11.41</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="66">
         <v>747</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="64">
         <v>37753</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="66" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
@@ -15385,13 +15413,13 @@
         <f>(M4/M2)*100</f>
         <v>11.833364075365353</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="66">
         <v>747</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="64">
         <v>39134</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="66" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -15402,13 +15430,13 @@
         <f>(V4/V2)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="66">
         <v>747</v>
       </c>
-      <c r="V4" s="65">
+      <c r="V4" s="64">
         <v>49060</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="W4" s="66" t="s">
         <v>31</v>
       </c>
       <c r="X4" t="s">
@@ -15423,9 +15451,9 @@
         <v>108</v>
       </c>
       <c r="C5" s="71"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
       <c r="G5" t="s">
         <v>155</v>
       </c>
@@ -15436,9 +15464,9 @@
         <v>108</v>
       </c>
       <c r="K5" s="71"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="64"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
       <c r="R5" s="13" t="s">
         <v>12</v>
       </c>
@@ -15446,9 +15474,9 @@
         <v>108</v>
       </c>
       <c r="T5" s="71"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="64"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="66"/>
       <c r="X5" t="s">
         <v>155</v>
       </c>
@@ -15693,13 +15721,13 @@
       <c r="C15" s="28">
         <v>11.41</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="66">
         <v>747</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <v>37753</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="54" t="s">
@@ -15713,13 +15741,13 @@
         <f>(V15/V13)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U15" s="64">
+      <c r="U15" s="66">
         <v>747</v>
       </c>
-      <c r="V15" s="65">
+      <c r="V15" s="64">
         <v>49060</v>
       </c>
-      <c r="W15" s="64" t="s">
+      <c r="W15" s="66" t="s">
         <v>31</v>
       </c>
       <c r="X15" t="s">
@@ -15736,9 +15764,9 @@
       <c r="C16" s="28">
         <v>11.41</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="76"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="54" t="s">
         <v>156</v>
       </c>
@@ -15749,9 +15777,9 @@
         <v>108</v>
       </c>
       <c r="T16" s="71"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="64"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="66"/>
       <c r="X16" t="s">
         <v>155</v>
       </c>
@@ -16006,10 +16034,10 @@
         <f>(V27/V25)*100</f>
         <v>11.829040704823722</v>
       </c>
-      <c r="U27" s="64">
+      <c r="U27" s="66">
         <v>747</v>
       </c>
-      <c r="V27" s="65">
+      <c r="V27" s="64">
         <v>49060</v>
       </c>
       <c r="X27" t="s">
@@ -16026,13 +16054,13 @@
       <c r="C28" s="28">
         <v>11.41</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="66">
         <v>747</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="64">
         <v>37753</v>
       </c>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="58"/>
@@ -16043,8 +16071,8 @@
         <v>108</v>
       </c>
       <c r="T28" s="71"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="65"/>
       <c r="X28" t="s">
         <v>155</v>
       </c>
@@ -16059,9 +16087,9 @@
       <c r="C29" s="28">
         <v>11.41</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="76"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="58"/>
       <c r="R29" s="13" t="s">
         <v>22</v>
@@ -16262,10 +16290,10 @@
         <f>(V37/V35)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U37" s="64">
+      <c r="U37" s="66">
         <v>747</v>
       </c>
-      <c r="V37" s="65">
+      <c r="V37" s="64">
         <v>37753</v>
       </c>
       <c r="X37" t="s">
@@ -16279,8 +16307,8 @@
       </c>
       <c r="S38" s="30"/>
       <c r="T38" s="71"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="65"/>
       <c r="X38" t="s">
         <v>155</v>
       </c>
@@ -16349,13 +16377,13 @@
       <c r="C41" s="28">
         <v>11.41</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="66">
         <v>747</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="64">
         <v>37753</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="58"/>
@@ -16377,9 +16405,9 @@
       <c r="C42" s="28">
         <v>11.41</v>
       </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="76"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="58"/>
       <c r="R42" s="13" t="s">
         <v>132</v>
@@ -16520,10 +16548,10 @@
         <f>(V48/V46)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U48" s="64">
+      <c r="U48" s="66">
         <v>747</v>
       </c>
-      <c r="V48" s="65">
+      <c r="V48" s="64">
         <v>37753</v>
       </c>
     </row>
@@ -16548,8 +16576,8 @@
       </c>
       <c r="S49" s="30"/>
       <c r="T49" s="71"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="65"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C50" s="58"/>
@@ -16564,10 +16592,18 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
+      <c r="A51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="26">
+        <v>41</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6236</v>
+      </c>
+      <c r="E51" s="1">
+        <v>330709</v>
+      </c>
       <c r="R51" s="13" t="s">
         <v>24</v>
       </c>
@@ -16576,6 +16612,21 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="28">
+        <v>88.5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5489</v>
+      </c>
+      <c r="E52" s="2">
+        <v>292956</v>
+      </c>
       <c r="R52" s="13" t="s">
         <v>42</v>
       </c>
@@ -16584,6 +16635,24 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="77">
+        <v>4</v>
+      </c>
+      <c r="C53" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D53" s="66">
+        <v>747</v>
+      </c>
+      <c r="E53" s="64">
+        <v>37753</v>
+      </c>
+      <c r="F53" s="72" t="s">
+        <v>31</v>
+      </c>
       <c r="R53" s="13" t="s">
         <v>132</v>
       </c>
@@ -16593,6 +16662,16 @@
       <c r="T53" s="22"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="28">
+        <v>11.41</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="72"/>
       <c r="R54" s="48" t="s">
         <v>142</v>
       </c>
@@ -16601,7 +16680,27 @@
       </c>
       <c r="T54" s="22"/>
     </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
       <c r="R56" s="21" t="s">
         <v>11</v>
       </c>
@@ -16619,6 +16718,12 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="R57" s="6" t="s">
         <v>0</v>
       </c>
@@ -16637,6 +16742,16 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="62"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
       <c r="R58" s="8" t="s">
         <v>4</v>
       </c>
@@ -16645,23 +16760,49 @@
         <f>(V58/V56)*100</f>
         <v>11.415776407657487</v>
       </c>
-      <c r="U58" s="64">
+      <c r="U58" s="66">
         <v>747</v>
       </c>
-      <c r="V58" s="65">
+      <c r="V58" s="64">
         <v>37753</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="58"/>
+      <c r="D59" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="58"/>
       <c r="R59" s="13" t="s">
         <v>12</v>
       </c>
       <c r="S59" s="30"/>
       <c r="T59" s="71"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="65"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="61">
+        <v>1528</v>
+      </c>
+      <c r="C60" s="62"/>
+      <c r="D60" s="46">
+        <v>1733</v>
+      </c>
+      <c r="E60" s="57">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="F60" s="58"/>
       <c r="R60" s="13" t="s">
         <v>22</v>
       </c>
@@ -16670,6 +16811,20 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="61">
+        <v>964</v>
+      </c>
+      <c r="C61" s="62"/>
+      <c r="D61" s="46">
+        <v>1169</v>
+      </c>
+      <c r="E61" s="57">
+        <v>3.09E-2</v>
+      </c>
+      <c r="F61" s="58"/>
       <c r="R61" s="13" t="s">
         <v>24</v>
       </c>
@@ -16704,16 +16859,26 @@
       <c r="T64" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="T48:T49"/>
-    <mergeCell ref="U48:U49"/>
+  <mergeCells count="43">
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="V37:V38"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -16726,25 +16891,18 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
